--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="805" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -626,7 +626,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>  </t>
         </is>
       </c>
     </row>
@@ -862,25 +862,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.06169247645418674</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1755197917099006</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.047117853751199</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2483797021783115</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>35.91403333838602</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.07228434603797196</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.1879488257881691</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>2.090141726951515</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.268857482763586</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>37.55858763901023</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1162,25 +1198,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 60, 'max_samples': 0.6, 'max_features': 0.5}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.06106197294961744</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1740955239098886</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2.192313225776449</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2471072094246087</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>35.54666383416053</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 190, 'max_samples': 0.5, 'max_features': 0.6}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.06255948100867433</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.1746550172303896</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>2.147709003343623</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.2501189337268859</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>35.63859024486854</v>
+      </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -1495,7 +1567,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>  </t>
         </is>
       </c>
     </row>
@@ -1731,25 +1803,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.902979907324597</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.726788484137497</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4970110362517109</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.9502525492334114</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>36.71832616693433</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.9089306685964818</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.7474075270914161</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>0.505646992268636</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.9533785547181569</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>37.67978511518434</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2031,25 +2139,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.81775343298557</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.5415527268918022</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.4689246517851805</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.9042972039023288</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>27.02378782370029</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.7946782105022721</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0.5651145284831797</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>0.4646199786191351</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>0.891447256152753</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>28.33659304107054</v>
+      </c>
     </row>
     <row r="20" ht="60.75" customHeight="1">
       <c r="A20" s="6" t="inlineStr">
@@ -2593,25 +2737,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>56.6033509163731</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.556175346219287</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.079088248344954</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.523519848872142</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>46.7100680616327</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>74.42855695995218</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>6.410130238374999</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>2.489330944246513</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>8.627198673958551</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>54.89750309952216</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2893,25 +3073,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>40.13351091669136</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.990873150410834</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.889927608119</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.335101492217103</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>42.67485897217583</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>40.8701185757654</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>5.115923879240666</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>1.876979339387862</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>6.392974157289031</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>43.77639122910413</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -3455,25 +3671,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 2}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>50.94849455514187</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.561231169862104</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.537955702959697</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.137821415189783</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>46.45187852594111</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>37.17930816961194</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>4.410696307769305</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>1.82274778877643</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>6.097483757224118</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>38.14012003423365</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3755,25 +4007,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>41.41475998952957</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.234000340789668</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.856077845819582</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.435430054746114</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>44.90751161968928</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>37.20632708055398</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>4.893792872582334</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>1.765480532374836</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>6.099698933599426</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>42.3714961027795</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -4297,25 +4585,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.06235240775096344</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1817857397937433</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>21207547243030.75</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2497046410280823</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>37.57252129791878</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.06235240775096344</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.1817857397937433</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>21207547243030.75</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.2497046410280823</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>37.57252129791878</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4597,25 +4921,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.06326782872181687</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1849570189069101</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>25930799268791.21</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2515309697071453</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>38.01894093918599</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.06326782872181687</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.1849570189069101</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>25930799268791.21</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.2515309697071453</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>38.01894093918599</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -5139,25 +5499,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.05365327372825</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5595554917670698</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.592187535448938</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.026476143769669</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>26.35914467881757</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>1.05365327372825</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.5595554917670698</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.592187535448938</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>1.026476143769669</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>26.35914467881757</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5439,25 +5835,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.068544215975809</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.5750422146295873</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.6187132142691636</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.033704124000581</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>26.88296017811764</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>1.068544215975809</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.5750422146295873</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>0.6187132142691636</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>1.033704124000581</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>26.88296017811764</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -5963,13 +6395,31 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.06233812930092306</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1632443739181603</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.666871086652308</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2496760487129734</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>33.73773009935556</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
@@ -6245,13 +6695,31 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 60, 'max_samples': 1.0, 'max_features': 0.6}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.06552915347075119</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1821546543887726</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2.382204980059924</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.255986627523297</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>36.37816404012864</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
@@ -6751,13 +7219,31 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.805483277707234</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6113213625379752</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.469426522995507</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.8974872019740638</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>32.09916531288695</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
@@ -7033,13 +7519,31 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.8891844026843607</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.7225523156575108</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.4984180519552223</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9429657484152649</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>35.4726861658299</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="805" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -626,7 +626,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -836,25 +836,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06795906724309531</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2008298379546535</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.225057333228294</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2606895994148891</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.87044711938751</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.06795906724309531</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.2008298379546535</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>2.225057333228294</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.2606895994148891</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>39.87044711938751</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -924,25 +960,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0609143846561904</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1817169817508585</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.091262147622911</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2468083966484739</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>37.03918419452852</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.061199396111929</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.1824182276687289</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>2.089030794713783</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.2473851169976258</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>37.15467300007313</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -1322,25 +1394,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0608981867924877</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1830544247064379</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.086527559592554</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2467755798139024</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>37.26615345085771</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.0610293066737632</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.1838064013082776</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>2.094429775758229</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0.247041103207064</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>37.37606296514316</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -1567,7 +1675,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -1777,25 +1885,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.892738615916721</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5041476062837907</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4900304317690255</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.9448484618798514</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>24.98425331304525</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.892738615916721</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.5041476062837907</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.4900304317690255</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.9448484618798514</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>24.98425331304525</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -1865,25 +2009,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8257953336629349</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6013465955156144</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4820604011389949</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.908732817533809</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>29.71986276337442</v>
+      </c>
       <c r="I12" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J12" s="9" t="n"/>
-      <c r="K12" s="9" t="n"/>
-      <c r="L12" s="9" t="n"/>
-      <c r="M12" s="9" t="n"/>
-      <c r="N12" s="9" t="n"/>
-      <c r="O12" s="9" t="n"/>
-      <c r="P12" s="9" t="n"/>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0.8255046330183469</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0.6013237707369844</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0.4819959879806222</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>0.9085728550965776</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>29.72098049852217</v>
+      </c>
     </row>
     <row r="13" ht="45.75" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
@@ -2263,25 +2443,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.858281109930908</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.5139048379881894</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.4647534440136726</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.9264346225886142</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>26.21339674179238</v>
+      </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="9" t="n"/>
-      <c r="L21" s="9" t="n"/>
-      <c r="M21" s="9" t="n"/>
-      <c r="N21" s="9" t="n"/>
-      <c r="O21" s="9" t="n"/>
-      <c r="P21" s="9" t="n"/>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0.8952092575981002</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0.6037632441850906</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>0.476811910845941</v>
+      </c>
+      <c r="O21" s="9" t="n">
+        <v>0.946154986034582</v>
+      </c>
+      <c r="P21" s="9" t="n">
+        <v>30.70128739873359</v>
+      </c>
     </row>
     <row r="22" ht="45.75" customHeight="1">
       <c r="A22" s="13" t="inlineStr">
@@ -2711,25 +2927,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>37.10309947912349</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.692557776325001</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.086862586823429</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.091231359842071</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.73455912698684</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>37.10309947912349</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>4.692557776325001</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>2.086862586823429</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>6.091231359842071</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>39.73455912698684</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2799,25 +3051,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>37.05391181723397</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.744633778602338</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.988948855308241</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>6.087192441284732</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>40.46236426219835</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>37.07564146938392</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>4.745087191194826</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1.989547858024084</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>6.088977046219169</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>40.46248870771736</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -3197,25 +3485,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>42.88961630664805</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>5.095193963793824</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.128419353070031</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>6.549016438110996</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>42.82156763390059</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>47.31940678693529</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>5.61920594314447</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>1.671889935579532</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>6.878910290659073</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>49.29013984555727</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -3645,25 +3969,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>37.10309947912349</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.692557776325001</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.086862586823429</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.091231359842071</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.73455912698684</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>37.10309947912349</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>4.692557776325001</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>2.086862586823429</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>6.091231359842071</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>39.73455912698684</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -3733,25 +4093,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>37.05609111646881</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.747561882362882</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.986181251538898</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>6.087371445580499</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>40.49097799626697</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>37.05722339346885</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>4.747113877722325</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1.987531694119853</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>6.087464446998343</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>40.48531962570713</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -4131,25 +4527,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>66.7025794764634</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>6.517155919871317</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.31182699316168</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>8.167164714664656</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>58.94549327888268</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>57.12136932406802</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>6.231532229346149</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>2.080968949121392</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>7.557868040927151</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>56.01950580350172</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -4559,25 +4991,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.07119163127258921</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.21065697591085</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>26709963828941.78</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2668175992557261</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>42.10624173274298</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.07119163127258921</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.21065697591085</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>26709963828941.78</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.2668175992557261</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>42.10624173274298</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -4647,25 +5115,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0695199267460045</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2101987383975844</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>25563932121859.71</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2636663170486601</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>42.38499240328574</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.0695199267460045</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.2101987383975844</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>25563932121859.71</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.2636663170486601</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>42.38499240328574</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -5045,25 +5549,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0696023065165738</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2104138315945897</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>25566739950768.13</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2638224905434974</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>42.42072573196823</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.0696023065165738</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.2104138315945897</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>25566739950768.13</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0.2638224905434974</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>42.42072573196823</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -5473,25 +6013,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.135860589955648</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5482270649483145</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6690851913989172</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.065767605979675</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>25.32337926110956</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>1.135860589955648</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.5482270649483145</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.6690851913989172</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>1.065767605979675</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>25.32337926110956</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -5561,25 +6137,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.36789255176595</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.435299529001816</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.009444973603237</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.523468357591581</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>184.2982767139376</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>6.36789255176595</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>2.435299529001816</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1.009444973603237</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>2.523468357591581</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>184.2982767139376</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -5959,25 +6571,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.067935963707399</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6031788548121805</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5633438444639661</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.03340987207758</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.41935943153133</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>1.067935963707399</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.6031788548121805</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>0.5633438444639661</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>1.03340987207758</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>28.41935943153133</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -6369,13 +7017,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06795906724309531</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2008298379546535</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.225057333228294</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2606895994148891</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.87044711938751</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -6439,13 +7105,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0659631002850905</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.184401315478654</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.234095173780109</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2568328255599165</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>37.16180990763426</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -6783,13 +7467,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06504428995551501</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1880998211391653</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.257963491052569</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2550378206374792</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>37.58307030665976</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -7193,13 +7895,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.892738615916721</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5041476062837907</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4900304317690255</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9448484618798514</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>24.98425331304525</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -7263,13 +7983,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.8123377063232848</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5993808696519093</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4786070152506251</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.9012977900357266</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>29.68291021817985</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -7607,13 +8345,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.285499800704998</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9169385952816338</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.549151974966098</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.133798836083808</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>48.05883220528809</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1104,25 +1104,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.05861002600493911</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1588305476376955</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.114561886594742</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.242095076374839</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>33.43682478714275</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.06348189177905147</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.1734038858503789</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>2.12726070227633</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>0.2519561306637556</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>35.74316331216846</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -1130,25 +1166,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.09165828232749662</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2591856270222153</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.207375066984471</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3027511888126893</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>50.26733187800765</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.08636964616255827</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.2471881699798001</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>2.219145927612858</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.293887131672277</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>47.87589410374144</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -1156,25 +1228,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06799879730328244</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2038758545218728</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.118633753318734</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2607657901322227</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>40.75640461723541</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.06607318645571496</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.1798553623301198</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>1.905532164639397</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.2570470510543059</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>37.32612036000765</v>
+      </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -2153,25 +2261,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.7507267973009786</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5285577776686028</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.4568961180881606</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.8664449187922904</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>27.1880383604413</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.8428039030155077</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.5603218772752238</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>0.4667401806664757</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.918043519129408</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>28.9245588978089</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -2179,25 +2323,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8591110482957433</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4918003072821905</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4827697945059444</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9268824349914844</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>24.73825797562467</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.86303600337317</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.5069743968414233</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>0.4856218444756214</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.9289973107459299</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>25.34831055198742</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -2205,25 +2385,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7839564479455488</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5675756762423841</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4723290420430714</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.8854131509897223</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>28.41461917935312</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0.824231732414576</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0.620773965324984</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>0.4886895900815224</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>0.9078720903379375</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>30.81719287748056</v>
+      </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
@@ -3195,25 +3411,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>37.51323197290768</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.226373056288652</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.966438321404747</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.1248046477343</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>36.52372382128669</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>44.81329144091323</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>4.851288184413056</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>1.911105491391773</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>6.694273033041992</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>42.05111431583182</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -3221,25 +3473,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>58.68598531183797</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.768351094312652</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.860171665860551</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>7.660677862424315</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>55.75413450612625</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>53.44920856844598</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>6.324206591211147</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>1.898463265637031</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>7.310896563927435</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>51.8754194102893</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -3247,25 +3535,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>37.38941437648413</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.769267097455547</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.949325612308888</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.114688412052092</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>40.81202256139251</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>38.30099411047838</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>4.871455259048222</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>1.85825493102021</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>6.188779694776538</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>41.8076119746765</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -4237,25 +4561,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>46.13487397282533</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.214828124602531</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.707827417556019</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.792265746628686</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>45.94609051316159</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>43.34365457771958</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>5.208731723259483</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>1.79121378538111</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>6.583589794156344</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>46.01486795529993</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -4263,25 +4623,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>38.1361378149755</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.874359632118498</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.014204473013552</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>6.175446365646414</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>41.21902848390306</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>36.72484849623312</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>4.681661112696249</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>1.909803699481379</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>6.06010301036485</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>40.29800224961026</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -4289,25 +4685,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>39.40799916447794</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.873709595398462</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.952173749373833</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.277579084685269</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>41.57327060049874</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>35.59658359614681</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>4.880645861607528</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>1.524395703604035</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>5.966287253908146</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>44.6658098140656</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -5259,25 +5691,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.06092594773223861</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1826013115762277</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>23566360668838.29</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2468318207448922</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>38.02764864559921</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.06092594773223861</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.1826013115762277</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>23566360668838.29</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>0.2468318207448922</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>38.02764864559921</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -5285,25 +5753,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07101500987988947</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2092765265473436</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>26787942927561.54</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2664864159387669</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>42.0241113086948</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.07101500987988947</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.2092765265473436</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>26787942927561.54</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.2664864159387669</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>42.0241113086948</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -5311,25 +5815,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06960230689516862</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2104138311503264</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25566740450964.13</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2638224912610155</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>42.42072550665512</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.06960230689516862</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.2104138311503264</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>25566740450964.13</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.2638224912610155</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>42.42072550665512</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -6281,25 +6821,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.103245889837625</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6013702552719653</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6464866138983272</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.050355125582593</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>28.1030604674326</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>1.103245889837625</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.6013702552719653</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>0.6464866138983272</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>1.050355125582593</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>28.1030604674326</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -6307,25 +6883,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.146547737440591</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5490837457676341</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.680935928772948</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.070769693930768</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>25.34418575920765</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>1.146547737440591</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.5490837457676341</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>0.680935928772948</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>1.070769693930768</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>25.34418575920765</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -6333,25 +6945,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.03603114143633</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5934180827141622</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6161962458123875</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.017856149677512</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>27.7831947044691</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>1.03603114143633</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.5934180827141622</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>0.6161962458123875</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>1.017856149677512</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>27.7831947044691</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -7231,13 +7879,31 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2090073400558083</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.361530108804247</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.460511197533319</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4571732057500837</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>75.51708057649189</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
@@ -7257,13 +7923,31 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.08053858285936318</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2330641425610719</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.744361454902705</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2837932043924998</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>47.40522818983205</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
@@ -7283,13 +7967,31 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.0842083699335109</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2105299534686446</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.469678128371326</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2901867845604119</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>40.0030373372385</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
@@ -8109,13 +8811,31 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.463175850843992</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8707461582550307</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5776422921244702</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.209618059903204</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>49.92068474019479</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
@@ -8135,13 +8855,31 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.018170866262202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5451524733362736</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5336403676145306</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.009044531357364</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>26.01822180849102</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
@@ -8161,13 +8899,31 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8400798231609322</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6259365747961031</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4901385569159893</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9165586850610997</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>30.70622853874939</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1352,25 +1352,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.05585056819295494</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1616071064464095</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.08185743933642</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.236327248096691</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>33.75796421693686</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0.07980255259731403</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0.1958961814587728</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>2.420045338215218</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>0.2824934558486515</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>38.19700835405555</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -2509,25 +2545,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.9729227209178051</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.5187021153095465</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.5143165607292146</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9863684508933794</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>25.19054015180987</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.9728612321050397</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.5258878610193886</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>0.5155716272343706</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.9863372811087695</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>25.46254193707204</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -3659,25 +3731,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>36.94739017274242</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>4.710618455963436</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1.958450970928508</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>6.078436490804393</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>40.29281576557526</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>44.14785569163372</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>5.163666951529017</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>1.997047517039016</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>6.64438527567703</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>43.64314446519597</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -4809,25 +4917,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>41.55191644077423</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>4.955605281593018</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1.992177650435151</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>6.446077601206351</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>42.78056161910703</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>37.25401664781091</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>4.925836155158666</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>1.715073773233124</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>6.103606855606848</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>43.05179853034294</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -5939,25 +6083,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'linear', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.06135704708703064</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1764948092588685</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>24957820681211.85</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.2477035467792713</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>37.32149410301708</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'linear', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0.06135704708703064</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0.1764948092588685</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>24957820681211.85</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>0.2477035467792713</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>37.32149410301708</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -7069,25 +7249,61 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.168131588510747</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.556534856715671</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.6792500241422448</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.08080136404001</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>25.5579733083827</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>1.168131588510747</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0.556534856715671</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>0.6792500241422448</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>1.08080136404001</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>25.5579733083827</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -8055,13 +8271,31 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.07906747106674768</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.203035104995928</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.493391640330773</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.2811893864759971</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>38.71815714166133</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>
@@ -8987,13 +9221,31 @@
           <t>AdaBoostRegressor</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.8701398583310617</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.4987169437303953</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.4654834554096153</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.9328128742309798</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>27.41888005021302</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>AdaBoostRegressor</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1708,25 +1708,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02984314411878586</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1258629411458969</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3852783441543579</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1727516834036238</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>32.80201256275177</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.03990434855222702</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.1306841820478439</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.4829388558864594</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.1997607282531454</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>31.16723299026489</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -2901,25 +2937,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2213989496231079</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2910938858985901</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1728418916463852</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.470530498079676</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>12.65819668769836</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.2100283205509186</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0.2817184329032898</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>0.1684053838253021</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>0.4582884687082128</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>12.7289816737175</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
@@ -4087,25 +4159,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>29.41009330749512</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>4.397884368896484</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5522016286849976</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>5.423107347959758</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.8631420135498</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>28.90729522705078</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>4.3454909324646</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.5417139530181885</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>5.376550495164235</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>30.44039607048035</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5273,25 +5381,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>29.62692070007324</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>4.357367038726807</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5504084229469299</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>5.443061702761897</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.72167038917542</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>28.08329391479492</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>4.250532627105713</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.5415822267532349</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>5.299367312688839</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>30.69792687892914</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6439,25 +6583,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08701897412538528</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2284145206212997</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>33245550870528</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2949897864763885</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>40.83996117115021</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.08674640208482742</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.2280212193727493</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>33222842908672</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.2945274216177968</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>40.79804420471191</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7605,25 +7785,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.9221434593200684</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.6397238969802856</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5302577614784241</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.9602830100132296</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>31.51475191116333</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.9411956071853638</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.6170271039009094</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.6091212034225464</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.9701523628716078</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>26.98755860328674</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8555,13 +8771,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04660912603139877</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1741831749677658</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4043113589286804</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2158914681764862</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>40.99484980106354</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -9505,13 +9739,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2101745903491974</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2708533406257629</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1654880493879318</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.458448023607036</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.84000724554062</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1682,25 +1682,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.074021115899086</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2039611786603928</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.475558757781982</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2720682192007843</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>40.00687301158905</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.07532788068056107</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.208153635263443</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>2.494367122650146</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>0.2744592514027557</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>40.09046256542206</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2911,25 +2947,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.9456392526626587</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.5076738595962524</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.505184531211853</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.9724398452668723</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>24.99835640192032</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.9287254214286804</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.5096931457519531</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.5012574791908264</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.9637040113171058</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>24.97094869613647</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4133,25 +4205,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>55.48139190673828</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.74082612991333</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.712109327316284</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>7.44858321472871</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>43.76845955848694</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>54.68329620361328</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>5.723203182220459</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>2.702246189117432</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>7.39481549490001</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>43.56915950775146</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5355,25 +5463,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>62.94614791870117</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.126215934753418</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.863848686218262</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>7.933860845685484</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>45.27258276939392</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>37.5901985168457</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>4.847194671630859</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>1.935303092002869</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>6.131084611783278</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>41.4331465959549</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6557,25 +6701,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08401425182819366</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2262209206819534</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>29832033337344</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2898521206204875</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>43.09643507003784</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.08294574171304703</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.2236228734254837</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>29937593483264</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>0.2880030237914995</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>43.08747351169586</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7759,25 +7939,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.20376193523407</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6018911004066467</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6955813765525818</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.097160852033133</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.0847350358963</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>1.130769371986389</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.5777952075004578</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>0.7077444791793823</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>1.063376401838215</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>26.84087157249451</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8745,13 +8961,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08315457403659821</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2205072939395905</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.589795589447021</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2883653481897542</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>40.86825549602509</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -9713,13 +9947,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9467169046401978</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5165208578109741</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5075122714042664</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9729937844817909</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.01609921455383</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="805" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -626,7 +626,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>  </t>
         </is>
       </c>
     </row>
@@ -728,44 +728,60 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="D7" s="5" t="n">
-        <v>0.0298108052741704</v>
+        <v>0.07665845307226983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.172024891761707</v>
+        <v>0.198538335903901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26.6729997715861</v>
+        <v>2.18413055558102</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.172658058816177</v>
+        <v>0.2768726296914699</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>157.16337460676</v>
+        <v>40.26968221841118</v>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="9" t="n"/>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" s="9" t="n">
-        <v>0.0223011294625916</v>
+        <v>0.09644694522602366</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.148786541239423</v>
+        <v>0.2319354840464563</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>22.9686900433024</v>
+        <v>2.11642163260922</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.149335626903266</v>
+        <v>0.3105590849194782</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>152.304073069034</v>
+        <v>46.54134963369895</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1891,7 +1907,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>  </t>
         </is>
       </c>
     </row>
@@ -1993,44 +2009,60 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="D8" s="5" t="n">
-        <v>14.2896418275429</v>
+        <v>0.8149022850912271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.59548661450759</v>
+        <v>0.6492053600260619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.92010127703204</v>
+        <v>0.4805823257236761</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.78016425933357</v>
+        <v>0.9027193833585424</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>86.6778309482591</v>
+        <v>32.93495152691782</v>
       </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L8" s="9" t="n">
-        <v>10.0654043635932</v>
+        <v>0.9286769265296133</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>2.98862762447882</v>
+        <v>0.7517962366285762</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>1.61036309779562</v>
+        <v>0.4955909179296213</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>3.17260214391801</v>
+        <v>0.9636788503073072</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>78.74333685523639</v>
+        <v>38.29959737844356</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -3251,44 +3283,60 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="D7" s="5" t="n">
-        <v>171.674710069355</v>
+        <v>58.63251996114561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12.1330368984317</v>
+        <v>5.768088089544879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.85540601978587</v>
+        <v>2.367665694104413</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>13.1024696171887</v>
+        <v>7.657187470680446</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>140.299485401471</v>
+        <v>49.99419273470767</v>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="9" t="n"/>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" s="9" t="n">
-        <v>174.000800841096</v>
+        <v>63.76149546018381</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>12.1152262070823</v>
+        <v>6.096304987078996</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>5.82185384208552</v>
+        <v>2.444483399111751</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>13.1909363140414</v>
+        <v>7.985079552526939</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>140.582960285528</v>
+        <v>51.31251359343673</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4509,44 +4557,60 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="D7" s="5" t="n">
-        <v>155.115963561091</v>
+        <v>58.81135620640409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11.2536390727966</v>
+        <v>5.698412369384751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.29213577244613</v>
+        <v>2.026246921136965</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12.4545559359252</v>
+        <v>7.668856251515221</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>136.349830290734</v>
+        <v>47.77590308337253</v>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="9" t="n"/>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" s="9" t="n">
-        <v>145.510708230283</v>
+        <v>59.68805971855306</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>10.6674178031528</v>
+        <v>5.790978452800647</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>4.90453973763683</v>
+        <v>2.183569409815938</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>12.0627819440742</v>
+        <v>7.725804794230376</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>128.407191729141</v>
+        <v>48.5277872286529</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5767,25 +5831,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06265984174620774</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1883291222985878</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>25288851537844.73</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2503194793582947</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>38.7032245110228</v>
+      </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="9" t="n"/>
-      <c r="L7" s="9" t="n"/>
-      <c r="M7" s="9" t="n"/>
-      <c r="N7" s="9" t="n"/>
-      <c r="O7" s="9" t="n"/>
-      <c r="P7" s="9" t="n"/>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0.06265984174620774</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.1883291222985878</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>25288851537844.73</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.2503194793582947</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>38.7032245110228</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -7005,25 +7105,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.076778043956023</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6166654145844289</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6024670849554853</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.037679162340664</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>28.73395063207304</v>
+      </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="9" t="n"/>
-      <c r="L7" s="9" t="n"/>
-      <c r="M7" s="9" t="n"/>
-      <c r="N7" s="9" t="n"/>
-      <c r="O7" s="9" t="n"/>
-      <c r="P7" s="9" t="n"/>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>1.076778043956023</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.6166654145844289</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0.6024670849554853</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>1.037679162340664</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>28.73395063207304</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -8243,13 +8379,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.313151448221589</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.8938397497992362</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.235308617645288</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.145928203781367</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>125.0380567154223</v>
+      </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -9229,13 +9383,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.822926338562096</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.41137885642209</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.811120506688004</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.955230507782163</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>66.33415922964183</v>
+      </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Linear Regressor</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="805" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -626,7 +626,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -1822,25 +1822,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1072983890771866</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2144662886857986</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.0363609790802</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3275643281512604</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>38.44228386878967</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.08785051107406616</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0.1937526166439056</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>2.660333871841431</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>0.2963958688545881</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>36.55875325202942</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,7 +1943,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -3103,25 +3139,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1.394430637359619</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>0.7009051442146301</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0.6407884359359741</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.180860126077437</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>30.13389706611633</v>
+      </c>
       <c r="I25" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="9" t="n"/>
-      <c r="L25" s="9" t="n"/>
-      <c r="M25" s="9" t="n"/>
-      <c r="N25" s="9" t="n"/>
-      <c r="O25" s="9" t="n"/>
-      <c r="P25" s="9" t="n"/>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0.9464694857597351</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0.7959076762199402</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>0.5243445634841919</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>0.9728666330796504</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <v>39.1914427280426</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,25 +4449,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>66.11991882324219</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.287815570831299</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.909971714019775</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>8.131415548552551</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>45.91824114322662</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>55.15556716918945</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>5.752346992492676</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>2.702886819839478</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>7.426679417424011</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>43.79310607910156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5651,25 +5759,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>43.88130950927734</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.025105953216553</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.414400577545166</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6.624296906787719</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>40.59117436408997</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>38.55334854125977</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>4.726353645324707</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>2.168360233306885</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>6.209134282753093</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>39.63424563407898</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9203,13 +9347,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.120575949549675</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2378354519605637</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.735706806182861</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3472404779827303</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>42.81395375728607</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -10207,13 +10369,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.431435585021973</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7162787318229675</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6460450887680054</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.196426171989719</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.63998222351074</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07170309606401425</v>
+        <v>0.07127949090204706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.186292336975765</v>
+        <v>0.199417960340041</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.456033923310312</v>
+        <v>1.810997047994257</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2677743379489794</v>
+        <v>0.266982192106603</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.18218322329804</v>
+        <v>42.05120828399929</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.08189086093339405</v>
+        <v>0.08708557916361639</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2045413624390392</v>
+        <v>0.221812902520575</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.72274655042239</v>
+        <v>1.534767827635345</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2861657927380455</v>
+        <v>0.2951026586861196</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>44.16749192075862</v>
+        <v>49.45417343288573</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>224.1674839411998</v>
+        <v>1.454619348832753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.68001563405001</v>
+        <v>0.9849834482406281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42.34785977017865</v>
+        <v>0.542173313347282</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.97222374736631</v>
+        <v>1.206076012875123</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>182.9974054215934</v>
+        <v>45.86210175757315</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>229.0288486751149</v>
+        <v>2.090878821995807</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.60253792883092</v>
+        <v>1.144838506749442</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>40.87184629998021</v>
+        <v>0.6195564978841519</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>15.13369910745932</v>
+        <v>1.445987144478057</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>179.8795705216952</v>
+        <v>48.99969638503877</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3396,19 +3396,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>155.1159635610918</v>
+        <v>58.81135620640413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11.25363907279669</v>
+        <v>5.698412369384751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.292135772446135</v>
+        <v>2.026246921136967</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12.45455593592529</v>
+        <v>7.668856251515224</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>136.3498302907346</v>
+        <v>47.77590308337249</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>145.5107082302829</v>
+        <v>59.68805971855291</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>10.6674178031528</v>
+        <v>5.79097845280063</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>4.904539737636824</v>
+        <v>2.183569409815931</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>12.06278194407422</v>
+        <v>7.725804794230366</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>128.4071917291414</v>
+        <v>48.52778722865278</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>223.8795324170097</v>
+        <v>4.188301667837108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.64991077201485</v>
+        <v>1.888911869192427</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9204451719720371</v>
+        <v>8.604641269606372</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.96260446636914</v>
+        <v>2.046534062222544</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>174.3664989276996</v>
+        <v>123.9495759953833</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4738,19 +4738,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>224.1747196110271</v>
+        <v>4.296930507728884</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.66895480473618</v>
+        <v>1.911843349514057</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.943431768184124</v>
+        <v>6.626164115413047</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.97246538186103</v>
+        <v>2.072903882896861</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>179.483085501089</v>
+        <v>122.345502379834</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6007,25 +6007,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06323629469727579</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.184144448470512</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>22380887451763.63</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.251468277715651</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>37.6725816593209</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0.06323629469727579</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.184144448470512</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>22380887451763.63</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.251468277715651</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>37.6725816593209</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -7256,19 +7292,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.06265984174620774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1883291222985877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22972839564223.58</v>
+        <v>25288851537844.73</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2503194793582947</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.8091717418089</v>
+        <v>38.7032245110228</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7286,19 +7322,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.06265984174620774</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1883291222985877</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>22972839564223.58</v>
+        <v>25288851537844.73</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2503194793582947</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.8091717418089</v>
+        <v>38.7032245110228</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8530,19 +8566,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.06567996882796646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1938852948222923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22972839564223.58</v>
+        <v>26515807112693.53</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2562810348581542</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.8091717418089</v>
+        <v>39.21784635454914</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8560,19 +8596,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.05913887848217279</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1775473756278677</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>22972839564223.58</v>
+        <v>28509075415872.7</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2431848648295629</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.8091717418089</v>
+        <v>36.91408847024361</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9793,25 +9829,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.007093974268409</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5506786859460127</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5778764992948447</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.003540718789432</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>26.2514057664831</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.007093974268409</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.5506786859460127</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.5778764992948447</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>1.003540718789432</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>26.2514057664831</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -11042,19 +11114,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.025726045133048</v>
+        <v>1.076778043956023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5965767843143749</v>
+        <v>0.6166654145844291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6125056140382089</v>
+        <v>0.6024670849554854</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.012781341224772</v>
+        <v>1.037679162340664</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.03458784180085</v>
+        <v>28.73395063207304</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11072,19 +11144,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.025726045133048</v>
+        <v>1.076778043956023</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5965767843143749</v>
+        <v>0.6166654145844291</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6125056140382089</v>
+        <v>0.6024670849554854</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.012781341224772</v>
+        <v>1.037679162340664</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.03458784180085</v>
+        <v>28.73395063207304</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12305,25 +12377,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.120357111505901</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6118447774516995</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6103379548422205</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.058469230306626</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>28.46408822077173</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.120357111505901</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.6118447774516995</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.6103379548422205</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>1.058469230306626</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>28.46408822077173</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -13543,13 +13651,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1428245115564137</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2874179294177751</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.058917232140833</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.377921303390552</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>52.24934387677656</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -14558,19 +14684,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05212064523221056</v>
+        <v>0.07838380985012215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1474769538499733</v>
+        <v>0.1908944866098789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.458587577220513</v>
+        <v>1.740536621508886</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2282994639332527</v>
+        <v>0.279971087525341</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.128422439755</v>
+        <v>40.07810660648491</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14588,19 +14714,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05372609952304652</v>
+        <v>0.08696624616545214</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1657192252358889</v>
+        <v>0.2183291270999905</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.411404403341891</v>
+        <v>1.875811785149086</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2317889115618919</v>
+        <v>0.2949004004158898</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.31889687159806</v>
+        <v>44.72465135273742</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15868,19 +15994,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4294384111078768</v>
+        <v>1.313151448221594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5187946743211793</v>
+        <v>0.893839749799238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.876475190047705</v>
+        <v>3.235308617645295</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6553155050110419</v>
+        <v>1.145928203781369</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>77.23363865710085</v>
+        <v>125.0380567154224</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16879,13 +17005,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.277719489371505</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9110360884270418</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.174504451316125</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.130362547756915</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>119.6435117383569</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -17883,13 +18027,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.643460470038935</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.13975766540765</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8207846227261792</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.62587221823824</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>54.54964458053859</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -18898,19 +19060,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.37069434997466</v>
+        <v>3.822926338562088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.536193477550144</v>
+        <v>1.411378856422088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.232177656974466</v>
+        <v>0.8111205066880031</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.714902272637941</v>
+        <v>1.955230507782161</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>47.25990391674981</v>
+        <v>66.33415922964164</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19909,13 +20071,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>539.561261425627</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>17.52414489828947</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.304266617022716</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>23.22845800791837</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>151.4754197069885</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -20924,19 +21104,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05107518501818602</v>
+        <v>0.07665845307226983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1411135151931689</v>
+        <v>0.198538335903901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.629103238468468</v>
+        <v>2.18413055558102</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2259981969356968</v>
+        <v>0.2768726296914699</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.75030408043421</v>
+        <v>40.26968221841118</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20954,19 +21134,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05878970149033991</v>
+        <v>0.09644694522602368</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1599121708056201</v>
+        <v>0.2319354840464563</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.805127560762998</v>
+        <v>2.116421632609219</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2424658769607383</v>
+        <v>0.3105590849194782</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>35.48766046527</v>
+        <v>46.54134963369897</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -22237,19 +22417,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7251027128430018</v>
+        <v>0.7211142280487354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5854098318913584</v>
+        <v>0.6155230518327108</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4325432641101764</v>
+        <v>0.4300826497046812</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8515296312184337</v>
+        <v>0.8491844487793776</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.60342864762472</v>
+        <v>32.20652230419154</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22267,19 +22447,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.6133607290226011</v>
+        <v>0.9267323555110228</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5839077175462739</v>
+        <v>0.7187038271520981</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3805789482373465</v>
+        <v>0.4599070678411289</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7831734986722936</v>
+        <v>0.9626693905547339</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>31.9284412239871</v>
+        <v>37.90916669095773</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23550,19 +23730,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6612258207487424</v>
+        <v>0.7553681353796581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5600757950868516</v>
+        <v>0.6319757845866418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4480600826031109</v>
+        <v>0.4587441112780692</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8131579310003331</v>
+        <v>0.8691191721390445</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.87149778622366</v>
+        <v>32.30920021319188</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23580,19 +23760,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.8683025062912475</v>
+        <v>0.6949373469644241</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.7040932480537432</v>
+        <v>0.6129446717923821</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.480864130196735</v>
+        <v>0.4205877440147855</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.9318275088723489</v>
+        <v>0.8336290223861116</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>35.24670787676123</v>
+        <v>32.56325725127909</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -24863,19 +25043,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7245242636518847</v>
+        <v>0.814902285091228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.553589665257585</v>
+        <v>0.6492053600260618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4481368171205169</v>
+        <v>0.4805823257236764</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8511899104500034</v>
+        <v>0.902719383358543</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.78373952402107</v>
+        <v>32.93495152691781</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -24893,19 +25073,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.7398949711337037</v>
+        <v>0.928676926529614</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5977392290146721</v>
+        <v>0.7517962366285765</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.4195608739169494</v>
+        <v>0.4955909179296215</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.8601714777494681</v>
+        <v>0.9636788503073075</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>32.8196775600078</v>
+        <v>38.29959737844359</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -26175,19 +26355,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>223.9356730861122</v>
+        <v>4.522763718764439</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.64745995574642</v>
+        <v>1.949462502287529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.913588348989489</v>
+        <v>7.463422751582941</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.96448038142695</v>
+        <v>2.126679035201231</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>173.3034872293751</v>
+        <v>122.1299906662026</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26205,19 +26385,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>223.8058861443396</v>
+        <v>4.451119029862176</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.64354821182386</v>
+        <v>1.919757488246616</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.9136043920115666</v>
+        <v>8.728146494991407</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.96014325280141</v>
+        <v>2.109767529815116</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>173.3479373381381</v>
+        <v>119.8380381292868</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27489,19 +27669,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>208.0932959243308</v>
+        <v>1.115383894053795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.31867999251359</v>
+        <v>0.8432728295199475</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46.55228556417578</v>
+        <v>0.5307634475979627</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.42543919346412</v>
+        <v>1.05611736755618</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>182.2698618253632</v>
+        <v>41.93465314799586</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27519,19 +27699,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>220.8066486399369</v>
+        <v>1.528676052609476</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.46330233097094</v>
+        <v>0.9587923390224875</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>41.95065002947821</v>
+        <v>0.6026996426998978</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.85956421433472</v>
+        <v>1.236396397847178</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>181.7230175726124</v>
+        <v>45.01443726603197</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28801,19 +28981,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>168.6872491478568</v>
+        <v>58.63251996114563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12.0801770609241</v>
+        <v>5.768088089544874</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.80141004897118</v>
+        <v>2.367665694104416</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12.98796555076494</v>
+        <v>7.657187470680447</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>141.4283819067617</v>
+        <v>49.9941927347076</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -28831,19 +29011,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>175.3876559484463</v>
+        <v>63.76149546018378</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>12.1362341986298</v>
+        <v>6.096304987078994</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>5.650894614402512</v>
+        <v>2.44448339911175</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>13.24340046772151</v>
+        <v>7.985079552526937</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>140.0434783690048</v>
+        <v>51.31251359343668</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -7101,25 +7101,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.07046093791723251</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2042926251888275</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>23124252819456</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2654447925976935</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>40.64825773239136</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.07644936442375183</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2113770842552185</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>23977437167616</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2764947819105305</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>41.25919938087463</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8375,25 +8411,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06881906092166901</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1956676840782166</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>24880546316288</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2623338729971199</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>39.47467803955078</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.07985684275627136</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2025788128376007</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>27744280772608</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2825895305142626</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>39.68647718429565</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9649,25 +9721,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8773557</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2480.72021484375</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4723177682894848</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2962.019074887939</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>199.8089075088501</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1133221685886383</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2326633036136627</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>37068453445632</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3366335820868713</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>42.14320778846741</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10923,25 +11031,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.701168537139893</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.259534478187561</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.8938747048377991</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.643523208579633</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>64.30494785308838</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>8.310281753540039</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>2.225469827651978</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.9956117272377014</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>2.882755930275756</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>108.1371665000916</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12197,25 +12341,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.581353187561035</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.538368701934814</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.031274437904358</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.140409584065871</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>56.5511167049408</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>8.621089935302734</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>2.045766115188599</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.158722519874573</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>2.936169262032204</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>76.36663913726807</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13471,25 +13651,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.96159029006958</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.990197658538818</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.802288055419922</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.638482573387511</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>63.8058602809906</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.701570510864258</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.196029782295227</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.027858138084412</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.643645494279182</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>46.73249423503876</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -6018,19 +6018,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06323629469727579</v>
+        <v>0.06707068926381185</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.184144448470512</v>
+        <v>0.192492077712737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22380887451763.63</v>
+        <v>22323400674666.34</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.251468277715651</v>
+        <v>0.2589800943389508</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.6725816593209</v>
+        <v>38.28539304683541</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6048,19 +6048,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06323629469727579</v>
+        <v>0.06707068926381185</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.184144448470512</v>
+        <v>0.192492077712737</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>22380887451763.63</v>
+        <v>22323400674666.34</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.251468277715651</v>
+        <v>0.2589800943389508</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.6725816593209</v>
+        <v>38.28539304683541</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6076,23 +6076,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07001295440570909</v>
+        <v>0.06498584177186173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2080968474260523</v>
+        <v>0.1659121399205574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23310476053402.05</v>
+        <v>23015048470123.12</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2645996114995431</v>
+        <v>0.2549232075976248</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>41.62522207798619</v>
+        <v>34.35391818280603</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.07001295440570909</v>
+        <v>0.06498584177186173</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2080968474260523</v>
+        <v>0.1659121399205574</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>23310476053402.05</v>
+        <v>23015048470123.12</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2645996114995431</v>
+        <v>0.2549232075976248</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>41.62522207798619</v>
+        <v>34.35391818280603</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6138,11 +6138,11 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0712915219945261</v>
+        <v>0.07129152199452612</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.2091504123057637</v>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0712915219945261</v>
+        <v>0.07129152199452612</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.2091504123057637</v>
@@ -6204,19 +6204,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06833929347836347</v>
+        <v>0.06871029424088738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1950930743866579</v>
+        <v>0.1796292152675391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19608556382585.95</v>
+        <v>29150922767468.6</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2614178522564277</v>
+        <v>0.2621264851953869</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.85126703598016</v>
+        <v>36.23451290201723</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -6234,19 +6234,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06833929347836347</v>
+        <v>0.06871029424088738</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1950930743866579</v>
+        <v>0.1796292152675391</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>19608556382585.95</v>
+        <v>29150922767468.6</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2614178522564277</v>
+        <v>0.2621264851953869</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>39.85126703598016</v>
+        <v>36.23451290201723</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -6262,23 +6262,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0687784602569871</v>
+        <v>0.3040638105989477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2076922608086926</v>
+        <v>0.4778831698289017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22597307924610.59</v>
+        <v>4520629153509.969</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2622564780076694</v>
+        <v>0.551419813389896</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>41.80499058068589</v>
+        <v>125.6397284828929</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6292,23 +6292,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0687784602569871</v>
+        <v>0.3040638105989477</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2076922608086926</v>
+        <v>0.4778831698289017</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>22597307924610.59</v>
+        <v>4520629153509.969</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2622564780076694</v>
+        <v>0.551419813389896</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>41.80499058068589</v>
+        <v>125.6397284828929</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6410,19 +6410,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07119919823823639</v>
+        <v>0.06248522096923217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2025918399353073</v>
+        <v>0.179564576103045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20920963751403.14</v>
+        <v>25817589251939.77</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2668317789136751</v>
+        <v>0.2499704401908997</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>40.91251359452151</v>
+        <v>36.61725132792994</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6440,19 +6440,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07119919823823639</v>
+        <v>0.06248522096923217</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2025918399353073</v>
+        <v>0.179564576103045</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>20920963751403.14</v>
+        <v>25817589251939.77</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2668317789136751</v>
+        <v>0.2499704401908997</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>40.91251359452151</v>
+        <v>36.61725132792994</v>
       </c>
     </row>
     <row r="14">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06704228989372039</v>
+        <v>0.0664079806808362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2010164231783535</v>
+        <v>0.1982654478084604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22911594737037.9</v>
+        <v>24034920992412.3</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2589252592809755</v>
+        <v>0.2576974595932917</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.64724937051418</v>
+        <v>40.02396883519535</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6502,19 +6502,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06704228989372039</v>
+        <v>0.0664079806808362</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2010164231783535</v>
+        <v>0.1982654478084604</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>22911594737037.9</v>
+        <v>24034920992412.3</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2589252592809755</v>
+        <v>0.2576974595932917</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.64724937051418</v>
+        <v>40.02396883519535</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6530,23 +6530,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0867574684126429</v>
+        <v>0.06154361531012707</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2323551412630106</v>
+        <v>0.1713543763048789</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20763339771301.88</v>
+        <v>26194498108243.42</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2945462076018684</v>
+        <v>0.2480798567198213</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.63430226067496</v>
+        <v>34.86691907346886</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6560,23 +6560,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0867574684126429</v>
+        <v>0.06154361531012707</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2323551412630106</v>
+        <v>0.1713543763048789</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>20763339771301.88</v>
+        <v>26194498108243.42</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2945462076018684</v>
+        <v>0.2480798567198213</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>47.63430226067496</v>
+        <v>34.86691907346886</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6592,23 +6592,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.074372333225477</v>
+        <v>0.06218484542146194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2002136780225424</v>
+        <v>0.189259227961997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21310110089734.93</v>
+        <v>24952832771893.96</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2727129135656708</v>
+        <v>0.2493688942539986</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>40.24294806395582</v>
+        <v>38.59300575817412</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6622,23 +6622,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.074372333225477</v>
+        <v>0.06218484542146194</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2002136780225424</v>
+        <v>0.189259227961997</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>21310110089734.93</v>
+        <v>24952832771893.96</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2727129135656708</v>
+        <v>0.2493688942539986</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.24294806395582</v>
+        <v>38.59300575817412</v>
       </c>
     </row>
     <row r="17">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 190, 'max_samples': 0.5, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07974373784852247</v>
+        <v>0.07126234266015484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2235690769322068</v>
+        <v>0.2030020981535031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21200285681476.54</v>
+        <v>23584443241387.15</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2823893373492039</v>
+        <v>0.2669500752203581</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44.3580786970553</v>
+        <v>40.23422737101791</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -6746,23 +6746,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 190, 'max_samples': 0.5, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.07974373784852247</v>
+        <v>0.07126234266015484</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2235690769322068</v>
+        <v>0.2030020981535031</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>21200285681476.54</v>
+        <v>23584443241387.15</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2823893373492039</v>
+        <v>0.2669500752203581</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>44.3580786970553</v>
+        <v>40.23422737101791</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6782,19 +6782,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06690302014215389</v>
+        <v>0.05889235142315245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1971537240452923</v>
+        <v>0.1733268735104295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22129359378779.39</v>
+        <v>22227573173368.85</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2586561813337427</v>
+        <v>0.2426774637727048</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>39.91373680825029</v>
+        <v>35.90635330119022</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -6812,19 +6812,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06690302014215389</v>
+        <v>0.05889235142315245</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1971537240452923</v>
+        <v>0.1733268735104295</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>22129359378779.39</v>
+        <v>22227573173368.85</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2586561813337427</v>
+        <v>0.2426774637727048</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>39.91373680825029</v>
+        <v>35.90635330119022</v>
       </c>
     </row>
     <row r="20">
@@ -6840,23 +6840,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06361566152830569</v>
+        <v>0.06432836686120635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1909349698631081</v>
+        <v>0.1974263689209668</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20469512420159.59</v>
+        <v>24064451071833.03</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2522214533466687</v>
+        <v>0.2536303744846156</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.07983097211618</v>
+        <v>40.02700421670877</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6870,23 +6870,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06361566152830569</v>
+        <v>0.06432836686120635</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1909349698631081</v>
+        <v>0.1974263689209668</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>20469512420159.59</v>
+        <v>24064451071833.03</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2522214533466687</v>
+        <v>0.2536303744846156</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.07983097211618</v>
+        <v>40.02700421670877</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6984,23 +6984,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08289233</v>
+        <v>0.08356093615293503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.22273348</v>
+        <v>0.2371501177549362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26306505000000</v>
+        <v>24979947126784</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2879102785604357</v>
+        <v>0.2890690854327647</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>42.70780086517334</v>
+        <v>46.63539826869965</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7014,23 +7014,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08296257999999999</v>
+        <v>0.1256906390190125</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.22163752</v>
+        <v>0.3029686808586121</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>26424822000000</v>
+        <v>18770938560512</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2880322551819432</v>
+        <v>0.3545287562652887</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.80595481395721</v>
+        <v>67.75714159011841</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7046,23 +7046,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09359792</v>
+        <v>0.09852605313062668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.23672679</v>
+        <v>0.2332380563020706</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29752990000000</v>
+        <v>22487517626368</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3059377694055697</v>
+        <v>0.3138885998736282</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>41.84550940990448</v>
+        <v>45.53658068180084</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7076,23 +7076,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.094460316</v>
+        <v>0.09487342089414597</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.23805508</v>
+        <v>0.2348669618368149</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>29798234000000</v>
+        <v>32428737429504</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3073439701740851</v>
+        <v>0.3080152932796454</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.93353056907654</v>
+        <v>47.69367277622223</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7112,19 +7112,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07046093791723251</v>
+        <v>0.4993061423301697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2042926251888275</v>
+        <v>0.5460821986198425</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23124252819456</v>
+        <v>15028212203520</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2654447925976935</v>
+        <v>0.7066159793906233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>40.64825773239136</v>
+        <v>90.4679000377655</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7142,19 +7142,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07644936442375183</v>
+        <v>1.159214854240417</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2113770842552185</v>
+        <v>0.9155781865119934</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>23977437167616</v>
+        <v>6553673400320</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2764947819105305</v>
+        <v>1.076668404960607</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.25919938087463</v>
+        <v>165.4754638671875</v>
       </c>
     </row>
   </sheetData>
@@ -7328,19 +7328,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06265984174620774</v>
+        <v>0.06582096287727812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1883291222985877</v>
+        <v>0.1970781680243178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25288851537844.73</v>
+        <v>23895774114594.07</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2503194793582947</v>
+        <v>0.256555964415716</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>38.7032245110228</v>
+        <v>39.57949932085801</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06265984174620774</v>
+        <v>0.06575886161213583</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1883291222985877</v>
+        <v>0.1969260244233249</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>25288851537844.73</v>
+        <v>23924071724056.11</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2503194793582947</v>
+        <v>0.2564349071638568</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>38.7032245110228</v>
+        <v>39.55936107516223</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7386,23 +7386,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0700669816642981</v>
+        <v>0.06829473822753319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2090141480861952</v>
+        <v>0.2076747402960273</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26305749251664.39</v>
+        <v>24916843963161.54</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2647016842868556</v>
+        <v>0.2613326199071467</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>41.96095789381882</v>
+        <v>42.12142245003395</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -7416,23 +7416,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0700669816642981</v>
+        <v>0.06833369720074546</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2090141480861952</v>
+        <v>0.2078294420297054</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>26305749251664.39</v>
+        <v>24906294100522.04</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2647016842868556</v>
+        <v>0.2614071483352081</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>41.96095789381882</v>
+        <v>42.14855091387913</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -7448,11 +7448,11 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07119163127258921</v>
+        <v>0.07119163127258926</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.21065697591085</v>
@@ -7478,11 +7478,11 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07119163127258921</v>
+        <v>0.07119163127258926</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.21065697591085</v>
@@ -7510,23 +7510,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06235240775096344</v>
+        <v>0.07067123594279533</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1817857397937433</v>
+        <v>0.1893849509366378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21207547243030.75</v>
+        <v>25275542607667.43</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2497046410280823</v>
+        <v>0.2658406213181035</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>37.57252129791878</v>
+        <v>38.027010873367</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -7540,23 +7540,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06235240775096344</v>
+        <v>0.07033817574963908</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1817857397937433</v>
+        <v>0.1888366097242258</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>21207547243030.75</v>
+        <v>25275542607667.43</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2497046410280823</v>
+        <v>0.265213453183731</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>37.57252129791878</v>
+        <v>37.94760335888599</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -7572,23 +7572,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0695199267460045</v>
+        <v>0.3483932724141142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2101987383975844</v>
+        <v>0.5426468007064702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25563932121859.71</v>
+        <v>1846264680242.345</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2636663170486601</v>
+        <v>0.5902484836186487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>42.38499240328574</v>
+        <v>156.525557941209</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7602,23 +7602,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0695199267460045</v>
+        <v>0.3486802341588897</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2101987383975844</v>
+        <v>0.5429503174911622</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>25563932121859.71</v>
+        <v>1807035429245.536</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2636663170486601</v>
+        <v>0.5904915191252874</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>42.38499240328574</v>
+        <v>156.770502186225</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -7720,19 +7720,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0609259477322386</v>
+        <v>0.05702724779840875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1826013115762276</v>
+        <v>0.1708295500117817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23566360668838.29</v>
+        <v>27063635529933.89</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2468318207448922</v>
+        <v>0.2388037851425491</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.02764864559921</v>
+        <v>35.32676784115046</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7750,19 +7750,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0609259477322386</v>
+        <v>0.05850132374424116</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1826013115762276</v>
+        <v>0.1715429683964601</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>23566360668838.29</v>
+        <v>27416436311678.55</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2468318207448922</v>
+        <v>0.2418704689379031</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.02764864559921</v>
+        <v>35.44857317399405</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0710150098798894</v>
+        <v>0.06241616862396251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2092765265473435</v>
+        <v>0.191978756639239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26787942927561.54</v>
+        <v>28571409155723.14</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2664864159387669</v>
+        <v>0.2498322809885914</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.0241113086948</v>
+        <v>39.33800516117801</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7812,19 +7812,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0710150098798894</v>
+        <v>0.06688802502309875</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2092765265473435</v>
+        <v>0.2012076712158339</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>26787942927561.54</v>
+        <v>28865347446295.2</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2664864159387669</v>
+        <v>0.2586271931238066</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.0241113086948</v>
+        <v>40.79833063100512</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06960230689516859</v>
+        <v>0.06960230689516862</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.2104138311503264</v>
@@ -7874,7 +7874,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06960230689516859</v>
+        <v>0.06960230689516862</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.2104138311503264</v>
@@ -7902,23 +7902,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0674146874228207</v>
+        <v>0.06066987399665772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1901215434068649</v>
+        <v>0.1694638373219087</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21174559389306.79</v>
+        <v>24655523600807.13</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2596433850935178</v>
+        <v>0.2463125534694846</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>39.58445626500345</v>
+        <v>35.09643961382636</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7932,23 +7932,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0674146874228207</v>
+        <v>0.06178895535866049</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1901215434068649</v>
+        <v>0.1709134712157653</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>21174559389306.79</v>
+        <v>24303586420125.73</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2596433850935178</v>
+        <v>0.2485738428689964</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>39.58445626500345</v>
+        <v>35.38271731617708</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -8030,19 +8030,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06326782872181687</v>
+        <v>0.06714178563898902</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1849570189069101</v>
+        <v>0.1959057933646591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25930799268791.21</v>
+        <v>27056475431925.98</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2515309697071453</v>
+        <v>0.25911732022192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.01894093918599</v>
+        <v>39.60400497700024</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8060,19 +8060,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06326782872181687</v>
+        <v>0.06713493087538436</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1849570189069101</v>
+        <v>0.1958154415219777</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>25930799268791.21</v>
+        <v>26953217982301.52</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2515309697071453</v>
+        <v>0.2591040927414778</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>38.01894093918599</v>
+        <v>39.59376047213658</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0643877552654538</v>
+        <v>0.06433029585935644</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1867810485816357</v>
+        <v>0.1811010556894249</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24893834561311.12</v>
+        <v>31072220360284.75</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2537474241553081</v>
+        <v>0.2536341772304286</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>38.42735141520463</v>
+        <v>37.06156935713852</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -8122,19 +8122,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.0643877552654538</v>
+        <v>0.06501167064811723</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1867810485816357</v>
+        <v>0.1818681293106679</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>24893834561311.12</v>
+        <v>31071217729420.72</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2537474241553081</v>
+        <v>0.2549738626763873</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.42735141520463</v>
+        <v>37.16728931952179</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -8150,23 +8150,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0696023065165738</v>
+        <v>0.065436857608687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2104138315945897</v>
+        <v>0.2014831915124009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25566739950768.13</v>
+        <v>26606912148308.37</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2638224905434974</v>
+        <v>0.2558062892281717</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>42.42072573196823</v>
+        <v>40.94775750575889</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8180,23 +8180,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0696023065165738</v>
+        <v>0.065436857608687</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2104138315945897</v>
+        <v>0.2014831915124009</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>25566739950768.13</v>
+        <v>26606912148308.37</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2638224905434974</v>
+        <v>0.2558062892281717</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>42.42072573196823</v>
+        <v>40.94775750575889</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08401425</v>
+        <v>0.08244099467992783</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.22622092</v>
+        <v>0.23810014128685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29832033000000</v>
+        <v>22866517032960</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2898521206204875</v>
+        <v>0.2871253988763931</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>43.09643507003784</v>
+        <v>45.37432193756104</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8324,23 +8324,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08294574</v>
+        <v>0.0731922835111618</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.22362287</v>
+        <v>0.2157034128904343</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>29937593000000</v>
+        <v>18196948058112</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2880030237914995</v>
+        <v>0.2705407243118156</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.08747351169586</v>
+        <v>46.11530601978302</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8356,23 +8356,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.087018974</v>
+        <v>0.08226273953914642</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.22841452</v>
+        <v>0.210348442196846</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33245550000000</v>
+        <v>39560356560896</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2949897864763885</v>
+        <v>0.2868148175027685</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>40.83996117115021</v>
+        <v>43.84610950946808</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8386,23 +8386,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0867464</v>
+        <v>0.08461081236600876</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.22802122</v>
+        <v>0.2307148277759552</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>33222843000000</v>
+        <v>36259447701504</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2945274216177967</v>
+        <v>0.2908793776911811</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.79804420471192</v>
+        <v>48.08995425701141</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8422,19 +8422,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06881906092166901</v>
+        <v>0.4557698667049408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1956676840782166</v>
+        <v>0.5351617336273193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24880546316288</v>
+        <v>17322461888512</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2623338729971199</v>
+        <v>0.675107300141941</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.47467803955078</v>
+        <v>81.30794167518616</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8452,19 +8452,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07985684275627136</v>
+        <v>0.8914273977279663</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2025788128376007</v>
+        <v>0.7688530683517456</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>27744280772608</v>
+        <v>34285249626112</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2825895305142626</v>
+        <v>0.944154329401696</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>39.68647718429565</v>
+        <v>86.6430401802063</v>
       </c>
     </row>
   </sheetData>
@@ -8638,19 +8638,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06567996882796646</v>
+        <v>0.06487828983922199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1938852948222923</v>
+        <v>0.1927198577111614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26515807112693.53</v>
+        <v>26268070861049.32</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2562810348581542</v>
+        <v>0.254712170575381</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>39.21784635454914</v>
+        <v>39.05291770614571</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8668,19 +8668,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05913887848217279</v>
+        <v>0.05577149050532468</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1775473756278677</v>
+        <v>0.1752556589211306</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>28509075415872.7</v>
+        <v>27741674485490.79</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2431848648295629</v>
+        <v>0.2361598833530468</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.91408847024361</v>
+        <v>36.04196395283692</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8696,53 +8696,53 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.0634489608312399</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1784136399811123</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>25709868084108.98</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.251890771627783</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>36.56404287970759</v>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Support Vector Regressor</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
           <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>0.0685195201860918</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="L8" s="8" t="n">
+        <v>0.06851952018609186</v>
+      </c>
+      <c r="M8" s="8" t="n">
         <v>0.209449034824606</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="N8" s="8" t="n">
         <v>28773471740342.18</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="O8" s="8" t="n">
         <v>0.2617623353083706</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="P8" s="8" t="n">
         <v>42.38047784368912</v>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Support Vector Regressor</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
-        </is>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0.064824569630878</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0.19331745578284</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>30038780443480.61</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>0.2546066959663041</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>39.34889162775258</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8762,10 +8762,10 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0696707191003918</v>
+        <v>0.06967071910039184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2088153244282614</v>
+        <v>0.2088153244282615</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>30045609963251.31</v>
@@ -8792,10 +8792,10 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0696707191003918</v>
+        <v>0.06967071910039184</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2088153244282614</v>
+        <v>0.2088153244282615</v>
       </c>
       <c r="N9" s="8" t="n">
         <v>30045609963251.31</v>
@@ -8824,19 +8824,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06462407623512624</v>
+        <v>0.06853007493941617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1855517742652311</v>
+        <v>0.1898584769656106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25630672151441.82</v>
+        <v>27298824799455.43</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2542126594706217</v>
+        <v>0.2617824954793887</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>38.09240299223082</v>
+        <v>38.43516007724195</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -8850,23 +8850,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06400781399733167</v>
+        <v>0.06365191877520235</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1881868583681301</v>
+        <v>0.1832614992774329</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>16944551622840.54</v>
+        <v>27687444980083.95</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2529976561103515</v>
+        <v>0.2522933189270028</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>39.57818393729377</v>
+        <v>37.13156767934962</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -8882,53 +8882,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4111360620854627</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5854003434188109</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.989247311827957</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6411989255180195</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>1129881.566350883</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>858.5635889672579</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>4078663775217837</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>1062.958873311137</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>198.7805060408188</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.0687469884167827</v>
+        <v>0.2966926576264497</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2086123135187952</v>
+        <v>0.4749402249910629</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>29357592472703.24</v>
+        <v>3207039165547.806</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2621964691157811</v>
+        <v>0.5446950134033262</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>42.08337307616088</v>
+        <v>126.1125670733668</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9026,23 +9026,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.061474645842844</v>
+        <v>0.05996251855883759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.172783333771541</v>
+        <v>0.1745778610505827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29155878701409.14</v>
+        <v>28683299019802.5</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2479408111683997</v>
+        <v>0.2448724536546273</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.62791254734065</v>
+        <v>35.95501253742051</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9056,23 +9056,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0710079625914885</v>
+        <v>0.05746880330383812</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1894552825349959</v>
+        <v>0.1718980668583587</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>24319859594717.39</v>
+        <v>29835211987527.4</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2664731930072676</v>
+        <v>0.2397265177318482</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.45532521863888</v>
+        <v>35.79687725569813</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9092,19 +9092,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0682405800728928</v>
+        <v>0.07113313940582316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1935073837887909</v>
+        <v>0.2023604397205941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33400511954485.85</v>
+        <v>33846495585766.29</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2612289801551368</v>
+        <v>0.2667079665211056</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>39.4274931190259</v>
+        <v>40.34582861676576</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9118,23 +9118,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0654178995295934</v>
+        <v>0.08578695946109793</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1963869092388138</v>
+        <v>0.2314254224296147</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>29456402959229.4</v>
+        <v>31075470880563.84</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.255769231006377</v>
+        <v>0.2928941096387873</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>39.90117930403997</v>
+        <v>45.09577190418364</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0688863586187215</v>
+        <v>0.06888635861872158</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.2089631462553461</v>
@@ -9163,7 +9163,7 @@
         <v>29368713870653.49</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2624621089199764</v>
+        <v>0.2624621089199765</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>42.14102180393471</v>
@@ -9184,19 +9184,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0882007312774155</v>
+        <v>0.06280611536322114</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2072706096848054</v>
+        <v>0.172865793505095</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>21226413779654.12</v>
+        <v>26626808772557.32</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2969860792653681</v>
+        <v>0.2506114829037591</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>41.44953876114905</v>
+        <v>35.57983469075108</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9216,19 +9216,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0634553179415689</v>
+        <v>0.0660120304193442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1771384664103444</v>
+        <v>0.1790433578742107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35055770555873.53</v>
+        <v>33190845253482.83</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2519033900954271</v>
+        <v>0.2569280646783146</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>36.229055097016</v>
+        <v>35.98262563020415</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9242,23 +9242,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0749858109235074</v>
+        <v>0.05508659011949008</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2020474038174773</v>
+        <v>0.1596939551579732</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>23759202351103.88</v>
+        <v>29151388528213.9</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2738353719363286</v>
+        <v>0.2347053261421438</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>41.67271615249867</v>
+        <v>33.75013862052634</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -9340,19 +9340,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06565305725735962</v>
+        <v>0.0648322189534553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.190512645963203</v>
+        <v>0.189242080742816</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32764344048736.89</v>
+        <v>31967070990069.17</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.256228525456007</v>
+        <v>0.2546217173641229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.59515039123041</v>
+        <v>38.47462380860021</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -9366,23 +9366,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 60, 'max_samples': 1.0, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.08574753400360846</v>
+        <v>0.06460951742248326</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2263852242183698</v>
+        <v>0.1917194597626192</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>27818895165160.23</v>
+        <v>32071732002385.79</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2928267986431714</v>
+        <v>0.2541840227521849</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>44.65503216016712</v>
+        <v>38.92205500652074</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9402,19 +9402,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0597538065222326</v>
+        <v>0.05910329077771756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1784119904305882</v>
+        <v>0.1780728976278718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27311292002221.36</v>
+        <v>30300743432011.88</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2444459173768967</v>
+        <v>0.243111683754026</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>37.12695595201824</v>
+        <v>36.82872993397961</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -9428,23 +9428,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.0602412625931223</v>
+        <v>0.05622607273197123</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.178870130444412</v>
+        <v>0.1655800096432119</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>24229127242696.21</v>
+        <v>28313015298596.65</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2454409554111179</v>
+        <v>0.2371203760370905</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>37.07148381362333</v>
+        <v>34.73798789052523</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -9460,23 +9460,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06486672539678839</v>
+        <v>0.06888635964331306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1975051507537915</v>
+        <v>0.2089631459938802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31102360701525.06</v>
+        <v>29368715048191.67</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2546894685627743</v>
+        <v>0.262462110871861</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.09146706031665</v>
+        <v>42.14102144499365</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9490,23 +9490,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0598918267484471</v>
+        <v>0.06888635964331306</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1834300678564669</v>
+        <v>0.2089631459938802</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>22544755263556.47</v>
+        <v>29368715048191.67</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2447280669405272</v>
+        <v>0.262462110871861</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>38.24561930813176</v>
+        <v>42.14102144499365</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9608,19 +9608,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09994025500000001</v>
+        <v>0.08427222073078156</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.26122537</v>
+        <v>0.231121614575386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25479170000000</v>
+        <v>26860570279936</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3161332872133356</v>
+        <v>0.2902967804347502</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>46.90917134284973</v>
+        <v>49.46220815181732</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9638,19 +9638,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.082741864</v>
+        <v>0.06680681556463242</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.21991715</v>
+        <v>0.2076902687549591</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>34449759000000</v>
+        <v>20663945396224</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2876488554220107</v>
+        <v>0.2584701444357402</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.07756423950195</v>
+        <v>45.70326507091522</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9666,53 +9666,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06200749054551125</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1856584101915359</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>40295173455872</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2490130328828418</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>45.72542011737823</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.080947004</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.22005889</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>46252146000000</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2845118701541864</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>45.32323181629181</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.0909489</v>
+        <v>0.06078164279460907</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.23300126</v>
+        <v>0.1905064880847931</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>39025197000000</v>
+        <v>32418467676160</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3015773566939705</v>
+        <v>0.2465393331592528</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.83150625228882</v>
+        <v>42.79257953166962</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9732,19 +9732,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8773557</v>
+        <v>0.146593913435936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2480.72021484375</v>
+        <v>0.2958138287067413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4723177682894848</v>
+        <v>14010424492032</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2962.019074887939</v>
+        <v>0.382875845981352</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>199.8089075088501</v>
+        <v>55.13226985931396</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9762,19 +9762,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1133221685886383</v>
+        <v>10.07694435119629</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2326633036136627</v>
+        <v>2.333595991134644</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>37068453445632</v>
+        <v>135449771245568</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3366335820868713</v>
+        <v>3.174420317348711</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.14320778846741</v>
+        <v>145.2307224273682</v>
       </c>
     </row>
   </sheetData>
@@ -9948,19 +9948,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.007093974268409</v>
+        <v>1.050955674906795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5506786859460127</v>
+        <v>0.6440065355658219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5778764992948447</v>
+        <v>0.6041181570807096</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.003540718789432</v>
+        <v>1.025161292142263</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>26.2514057664831</v>
+        <v>29.96679695943221</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9978,19 +9978,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.007093974268409</v>
+        <v>1.017704981961401</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5506786859460127</v>
+        <v>0.5551725775777914</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5778764992948447</v>
+        <v>0.5828109276381814</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.003540718789432</v>
+        <v>1.008813650760834</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>26.2514057664831</v>
+        <v>26.35350894316989</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10010,19 +10010,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.027474049632611</v>
+        <v>1.111905434055496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.524910014600343</v>
+        <v>0.5027355647177064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6389845016115663</v>
+        <v>0.6493540408434236</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.013643946182589</v>
+        <v>1.054469266529611</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>25.12129026291678</v>
+        <v>23.62084675538273</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -10040,19 +10040,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.027474049632611</v>
+        <v>1.12062384481049</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.524910014600343</v>
+        <v>0.504112400636971</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6389845016115663</v>
+        <v>0.6523875375729451</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.013643946182589</v>
+        <v>1.05859522236334</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>25.12129026291678</v>
+        <v>23.62516622828765</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10134,19 +10134,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.046368133255758</v>
+        <v>1.090641868081759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5549015968637704</v>
+        <v>0.5146371018850227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5419412623024926</v>
+        <v>0.6521105907906384</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.02292137198113</v>
+        <v>1.044338004710046</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>27.33699633428402</v>
+        <v>24.22290040418008</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -10164,19 +10164,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.046368133255758</v>
+        <v>1.049813287609811</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5549015968637704</v>
+        <v>0.5567389432255149</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.5419412623024926</v>
+        <v>0.5442986757226012</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.02292137198113</v>
+        <v>1.024603966227835</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>27.33699633428402</v>
+        <v>27.43703531490954</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -10192,23 +10192,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.033020940205857</v>
+        <v>1.019818628992295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.454549821227147</v>
+        <v>0.6512637383476174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.13498568019083</v>
+        <v>0.5531995277944606</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.65198434011324</v>
+        <v>1.009860697815444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>151.2841129256223</v>
+        <v>31.7116017497658</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10222,23 +10222,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>7.033020940205857</v>
+        <v>1.157258825619278</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.454549821227147</v>
+        <v>0.8036347520529566</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.13498568019083</v>
+        <v>0.5808319398193341</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.65198434011324</v>
+        <v>1.075759650488564</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>151.2841129256223</v>
+        <v>39.97254066274365</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10336,53 +10336,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.024112503186313</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5220637445779893</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6156993340195795</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.01198443821351</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>24.7139050109468</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>1.043974282015984</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.5294383003202626</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.6036247410871604</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1.021750596777895</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>25.29255081206069</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>1.043974282015984</v>
+        <v>1.043955911329549</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5294383003202626</v>
+        <v>0.5047465741047144</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6036247410871604</v>
+        <v>0.611548213841466</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.021750596777895</v>
+        <v>1.02174160692885</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.29255081206069</v>
+        <v>24.04055655129706</v>
       </c>
     </row>
     <row r="14">
@@ -10398,23 +10398,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.393183535597577</v>
+        <v>1.073595913343692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6885829317904675</v>
+        <v>0.5123404503173328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6937032396325961</v>
+        <v>0.6375558752897811</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.180331959915335</v>
+        <v>1.036144735712001</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.90972533239794</v>
+        <v>24.12378820452801</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10428,23 +10428,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.393183535597577</v>
+        <v>1.621641020394784</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6885829317904675</v>
+        <v>0.9084407615083616</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6937032396325961</v>
+        <v>0.6562511074936992</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.180331959915335</v>
+        <v>1.273436696657821</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>32.90972533239794</v>
+        <v>49.88293198174439</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10464,19 +10464,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.012016654664289</v>
+        <v>1.012353168481921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5448584960961512</v>
+        <v>0.542147304385354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.611393940757842</v>
+        <v>0.6082911719275409</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.005990384976064</v>
+        <v>1.006157626061603</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.76562414462672</v>
+        <v>25.65318474117986</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10490,23 +10490,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.012016654664289</v>
+        <v>1.03617802869272</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5448584960961512</v>
+        <v>0.5565731064979779</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.611393940757842</v>
+        <v>0.5956099997317715</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.005990384976064</v>
+        <v>1.017928302334069</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>25.76562414462672</v>
+        <v>26.58986536173957</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10526,19 +10526,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.083021205869797</v>
+        <v>1.056404578486506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5139673215245034</v>
+        <v>0.5053201428692286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6278788356980943</v>
+        <v>0.600882658750466</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.040683047747871</v>
+        <v>1.027815439894978</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>24.26015766040326</v>
+        <v>24.00092742079852</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -10556,19 +10556,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.083021205869797</v>
+        <v>1.103346998953866</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5139673215245034</v>
+        <v>0.514504990702596</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6278788356980943</v>
+        <v>0.6363790784134707</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.040683047747871</v>
+        <v>1.050403255399499</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>24.26015766040326</v>
+        <v>24.11827896741035</v>
       </c>
     </row>
     <row r="17">
@@ -10650,19 +10650,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.030057543218846</v>
+        <v>1.046250343916727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5818419955523886</v>
+        <v>0.5835099375908093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6013241443750678</v>
+        <v>0.5888362421554433</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.014917505622425</v>
+        <v>1.022863795388578</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.6472304921934</v>
+        <v>27.59192973689782</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -10680,19 +10680,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.030057543218846</v>
+        <v>1.081393088411687</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5818419955523886</v>
+        <v>0.57500210501117</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6013241443750678</v>
+        <v>0.6483172602213745</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.014917505622425</v>
+        <v>1.039900518516885</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>27.6472304921934</v>
+        <v>27.10080897699633</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -10708,53 +10708,53 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.091566234560597</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.5339018922832049</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.6360956371406317</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.044780471946426</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>25.3308324663404</v>
+      </c>
+      <c r="I19" s="9" t="inlineStr">
+        <is>
+          <t>ExtraTreesRegressor</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>0.9903394199520176</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0.5268645430659407</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0.5914776009739861</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0.99515798743316</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>25.16094435238191</v>
-      </c>
-      <c r="I19" s="9" t="inlineStr">
-        <is>
-          <t>ExtraTreesRegressor</t>
-        </is>
-      </c>
-      <c r="J19" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K19" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
-        </is>
-      </c>
       <c r="L19" s="8" t="n">
-        <v>0.9903394199520176</v>
+        <v>0.9925988006527409</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5268645430659407</v>
+        <v>0.5242966705804498</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.5914776009739861</v>
+        <v>0.59330189610037</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.99515798743316</v>
+        <v>0.9962925276507603</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>25.16094435238191</v>
+        <v>25.04470232795561</v>
       </c>
     </row>
     <row r="20">
@@ -10774,19 +10774,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.082788307631712</v>
+        <v>1.053692757359593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5732629734146191</v>
+        <v>0.5277442801755839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6267691938878917</v>
+        <v>0.6259367828467669</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.04057114491596</v>
+        <v>1.026495376199812</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.32705339153427</v>
+        <v>24.97494675460811</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10800,23 +10800,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.082788307631712</v>
+        <v>1.249363443262226</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5732629734146191</v>
+        <v>0.5933106987150134</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6267691938878917</v>
+        <v>0.7066663006209728</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.04057114491596</v>
+        <v>1.117749275670634</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.32705339153427</v>
+        <v>26.91612269984686</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10914,23 +10914,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.1933061</v>
+        <v>1.05858588218689</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.62548125</v>
+        <v>0.6163737177848816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6827014</v>
+        <v>0.6021566390991211</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.092385503587251</v>
+        <v>1.028876028580164</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.77469754219055</v>
+        <v>29.09921705722809</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.1212882</v>
+        <v>1.428068876266479</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6064568</v>
+        <v>0.9159032106399536</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.65105116</v>
+        <v>0.6544987559318542</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.058908957536604</v>
+        <v>1.195018358129481</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.04750108718872</v>
+        <v>45.87543606758118</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9833514</v>
+        <v>0.9979622960090637</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6828685</v>
+        <v>0.5575968623161316</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.46996167</v>
+        <v>0.5860127210617065</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9916407663238096</v>
+        <v>0.9989806284453486</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.73884856700897</v>
+        <v>26.45736038684845</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11006,23 +11006,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>1.3363835</v>
+        <v>0.8316335678100586</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.8124444</v>
+        <v>0.501258909702301</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4539973</v>
+        <v>0.5796966552734375</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>1.15602052834377</v>
+        <v>0.9119394540264494</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>43.85956525802612</v>
+        <v>24.51727539300919</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11042,19 +11042,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.701168537139893</v>
+        <v>1.81084156036377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.259534478187561</v>
+        <v>1.096291422843933</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8938747048377991</v>
+        <v>0.7247640490531921</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.643523208579633</v>
+        <v>1.345675131806993</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>64.30494785308838</v>
+        <v>55.27686476707458</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11072,19 +11072,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>8.310281753540039</v>
+        <v>1.67504358291626</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.225469827651978</v>
+        <v>0.9817241430282593</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9956117272377014</v>
+        <v>0.7699702382087708</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.882755930275756</v>
+        <v>1.294234747994451</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>108.1371665000916</v>
+        <v>49.34482872486115</v>
       </c>
     </row>
   </sheetData>
@@ -11258,19 +11258,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.076778043956023</v>
+        <v>1.120304192110767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6166654145844291</v>
+        <v>0.638890603955813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6024670849554854</v>
+        <v>0.6089392966662804</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.037679162340664</v>
+        <v>1.058444231932305</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.73395063207304</v>
+        <v>28.94861076649941</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11288,19 +11288,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.076778043956023</v>
+        <v>1.165885970955987</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.6166654145844291</v>
+        <v>0.6811573556296598</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6024670849554854</v>
+        <v>0.6220092100855169</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.037679162340664</v>
+        <v>1.07976199736608</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.73395063207304</v>
+        <v>30.61200235230004</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11444,19 +11444,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.05365327372825</v>
+        <v>1.031711102990872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5595554917670698</v>
+        <v>0.525351468278175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.592187535448938</v>
+        <v>0.5695200157972093</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.026476143769669</v>
+        <v>1.015731806625584</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.35914467881757</v>
+        <v>25.08867641417962</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -11474,19 +11474,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.05365327372825</v>
+        <v>1.034175873243312</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5595554917670698</v>
+        <v>0.5264244525500146</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.592187535448938</v>
+        <v>0.5746214548971272</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.026476143769669</v>
+        <v>1.016944380604619</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>26.35914467881757</v>
+        <v>25.19293415774979</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -11502,23 +11502,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.36789255176595</v>
+        <v>70.49650671890312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.435299529001816</v>
+        <v>6.440237405788695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.009444973603237</v>
+        <v>3.172423175208394</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.523468357591581</v>
+        <v>8.396219787434291</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>184.2982767139376</v>
+        <v>129.8134033835896</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11532,23 +11532,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.36789255176595</v>
+        <v>5.639894444189549</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.435299529001816</v>
+        <v>1.97539309641587</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.009444973603237</v>
+        <v>0.9855907629517445</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.523468357591581</v>
+        <v>2.374846193796464</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>184.2982767139376</v>
+        <v>119.0685770661194</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -11646,53 +11646,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.046581786144712</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5135336849891122</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6107609964333603</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.023025799354401</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>24.48130410338445</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>1.103245889837625</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.6013702552719653</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.6464866138983272</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1.050355125582593</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>28.1030604674326</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>1.103245889837625</v>
+        <v>1.066360109260148</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6013702552719653</v>
+        <v>0.534558500045519</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6464866138983272</v>
+        <v>0.6188130005934896</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.050355125582593</v>
+        <v>1.032647136857576</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.1030604674326</v>
+        <v>25.57725773178862</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11708,23 +11708,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.146547737440591</v>
+        <v>1.370108122947106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5490837457676341</v>
+        <v>0.7725231832441684</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.680935928772948</v>
+        <v>0.7166495046437792</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.070769693930768</v>
+        <v>1.170516177994608</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.34418575920765</v>
+        <v>35.79694257180202</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11738,23 +11738,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.146547737440591</v>
+        <v>1.362977855854054</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5490837457676341</v>
+        <v>0.7028127322522937</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.680935928772948</v>
+        <v>0.6857432686486615</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.070769693930768</v>
+        <v>1.167466426007212</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.34418575920765</v>
+        <v>34.26682802065633</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11774,19 +11774,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.03603114143633</v>
+        <v>1.02428766364372</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5934180827141622</v>
+        <v>0.5698681148985493</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6161962458123875</v>
+        <v>0.6172235178296414</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.017856149677512</v>
+        <v>1.012070977572087</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.7831947044691</v>
+        <v>26.75321348475295</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11804,19 +11804,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.03603114143633</v>
+        <v>1.028977507047551</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5934180827141622</v>
+        <v>0.5725146779144774</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6161962458123875</v>
+        <v>0.6158307945835885</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.017856149677512</v>
+        <v>1.014385285307092</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.7831947044691</v>
+        <v>26.83287806630475</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11836,19 +11836,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.108172332497241</v>
+        <v>1.082820497259586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6046575153076785</v>
+        <v>0.5196116269701749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5908482793179309</v>
+        <v>0.6519290915469464</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.052697645336609</v>
+        <v>1.040586612089347</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>28.54485549942487</v>
+        <v>24.63124012602608</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -11866,19 +11866,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.108172332497241</v>
+        <v>1.084123653244401</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.6046575153076785</v>
+        <v>0.5059284063223533</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.5908482793179309</v>
+        <v>0.6305130507274515</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.052697645336609</v>
+        <v>1.041212587920642</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>28.54485549942487</v>
+        <v>24.163966452407</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -11960,19 +11960,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.068544215975809</v>
+        <v>1.057474600794486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5750422146295873</v>
+        <v>0.5383222418346891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6187132142691636</v>
+        <v>0.6142684193474486</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.033704124000581</v>
+        <v>1.028335840469681</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.88296017811764</v>
+        <v>25.31151241419908</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -11990,19 +11990,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.068544215975809</v>
+        <v>1.047850813895485</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5750422146295873</v>
+        <v>0.5504210011464106</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6187132142691636</v>
+        <v>0.6150175994740268</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.033704124000581</v>
+        <v>1.023645843979003</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>26.88296017811764</v>
+        <v>25.79611554118799</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -12018,23 +12018,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.052584596990062</v>
+        <v>1.019238273411352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5869354555305533</v>
+        <v>0.5274814341639484</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6086134869934663</v>
+        <v>0.592178626542763</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.025955455655879</v>
+        <v>1.009573312549095</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>27.55185315453716</v>
+        <v>24.99541642184898</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -12048,23 +12048,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.052584596990062</v>
+        <v>1.054198108731815</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5869354555305533</v>
+        <v>0.5392290539602564</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6086134869934663</v>
+        <v>0.6208035560592483</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.025955455655879</v>
+        <v>1.026741500442937</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>27.55185315453716</v>
+        <v>25.41234291028334</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -12084,19 +12084,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.067935963707399</v>
+        <v>1.030514911595436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6031788548121805</v>
+        <v>0.5244895586856591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5633438444639661</v>
+        <v>0.5732300293127867</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.03340987207758</v>
+        <v>1.015142803548071</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.41935943153133</v>
+        <v>25.45070486992013</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12114,19 +12114,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.067935963707399</v>
+        <v>1.022514238035165</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6031788548121805</v>
+        <v>0.5316413451668045</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5633438444639661</v>
+        <v>0.5915001438089229</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.03340987207758</v>
+        <v>1.01119446103861</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.41935943153133</v>
+        <v>25.39821015220241</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12224,53 +12224,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.243596792221069</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7248573303222656</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6574704051017761</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.115166710506133</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>37.71069645881653</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1.2037619</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.6018911</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.6955814</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1.097160852033133</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>27.0847350358963</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>1.1307694</v>
+        <v>1.202653527259827</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5777952</v>
+        <v>0.6442319750785828</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7077445</v>
+        <v>0.7249229550361633</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.063376401838215</v>
+        <v>1.09665561014378</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.84087157249451</v>
+        <v>29.92092072963715</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12290,19 +12290,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.92214346</v>
+        <v>1.049120664596558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6397239</v>
+        <v>0.6604341864585876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.53025776</v>
+        <v>0.6344072818756104</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9602830100132296</v>
+        <v>1.024265914983291</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>31.51475191116333</v>
+        <v>27.20799744129181</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12320,19 +12320,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9411956</v>
+        <v>0.9090093374252319</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.6170271000000001</v>
+        <v>0.5015996694564819</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6091212</v>
+        <v>0.6055687665939331</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9701523628716078</v>
+        <v>0.9534198117436159</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.98755860328674</v>
+        <v>25.11803507804871</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12352,19 +12352,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.581353187561035</v>
+        <v>6510.47265625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.538368701934814</v>
+        <v>58.49737548828125</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.031274437904358</v>
+        <v>36.06968307495117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.140409584065871</v>
+        <v>80.6875</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>56.5511167049408</v>
+        <v>185.409677028656</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12382,19 +12382,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>8.621089935302734</v>
+        <v>6.332719326019287</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.045766115188599</v>
+        <v>1.97398579120636</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.158722519874573</v>
+        <v>1.249428033828735</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.936169262032204</v>
+        <v>2.516489484583492</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>76.36663913726807</v>
+        <v>80.27277588844299</v>
       </c>
     </row>
   </sheetData>
@@ -12568,19 +12568,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.120357111505901</v>
+        <v>1.090517620820853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6118447774516995</v>
+        <v>0.5917055696805056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6103379548422205</v>
+        <v>0.5926493001275153</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.058469230306626</v>
+        <v>1.044278516881801</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.46408822077173</v>
+        <v>27.64969242681162</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12598,19 +12598,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.120357111505901</v>
+        <v>1.151902179256006</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.6118447774516995</v>
+        <v>0.6222293187073401</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6103379548422205</v>
+        <v>0.6021778900811747</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.058469230306626</v>
+        <v>1.073267058683907</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.46408822077173</v>
+        <v>28.3365108585493</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12630,19 +12630,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.123799893990639</v>
+        <v>1.123799893990649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5711700287674949</v>
+        <v>0.5711700287675269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6561942241606574</v>
+        <v>0.6561942241606693</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.060094285424952</v>
+        <v>1.060094285424956</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.43684371483194</v>
+        <v>26.4368437148332</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.123799893990639</v>
+        <v>1.188416447480355</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5711700287674949</v>
+        <v>0.4869472218637114</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6561942241606574</v>
+        <v>0.6831237680595721</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.060094285424952</v>
+        <v>1.090145149730234</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>26.43684371483194</v>
+        <v>22.73111760154583</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -12750,23 +12750,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.111346283296179</v>
+        <v>1.133114875860797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5769333056006465</v>
+        <v>0.5183498552515043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.599618694369598</v>
+        <v>0.6123613300707965</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.054204099449523</v>
+        <v>1.064478687368045</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.89126068193492</v>
+        <v>24.35454339602597</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -12780,23 +12780,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.111346283296179</v>
+        <v>1.148141254744576</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5769333056006465</v>
+        <v>0.5460688616385904</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.599618694369598</v>
+        <v>0.5608314521392717</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.054204099449523</v>
+        <v>1.071513534559679</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>26.89126068193492</v>
+        <v>25.81650047019093</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -12816,19 +12816,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.521722247523091</v>
+        <v>6.154638799019826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.471958836486184</v>
+        <v>2.399170171136786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.027240453907579</v>
+        <v>1.015451695139283</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.553766286785674</v>
+        <v>2.480854449382274</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>186.5730529848336</v>
+        <v>170.057109545811</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12842,23 +12842,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.521722247523091</v>
+        <v>1.101951283819487</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.471958836486184</v>
+        <v>0.6239434101996879</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.027240453907579</v>
+        <v>0.5545137483006735</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.553766286785674</v>
+        <v>1.049738674061067</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>186.5730529848336</v>
+        <v>29.6205531124316</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12960,19 +12960,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.18312096112681</v>
+        <v>1.093187142426453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5979752325421386</v>
+        <v>0.5320461477608439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6534787841917219</v>
+        <v>0.6194039590421908</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.087713639303475</v>
+        <v>1.0455559011485</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.60150734872513</v>
+        <v>25.05578645039166</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12990,19 +12990,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.18312096112681</v>
+        <v>1.184324491524898</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5979752325421386</v>
+        <v>0.572520649544465</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6534787841917219</v>
+        <v>0.6377224138206172</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.087713639303475</v>
+        <v>1.088266737305196</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.60150734872513</v>
+        <v>26.73449584875986</v>
       </c>
     </row>
     <row r="14">
@@ -13018,23 +13018,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.245719225939846</v>
+        <v>1.280815563971704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6110875396328844</v>
+        <v>0.6925564358427738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7021259520425357</v>
+        <v>0.6231731295275237</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.116117926538162</v>
+        <v>1.131731224262945</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.63079739684133</v>
+        <v>32.62963610148073</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13048,23 +13048,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.245719225939846</v>
+        <v>1.213041389214799</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6110875396328844</v>
+        <v>0.4878251346022996</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7021259520425357</v>
+        <v>0.6882640981991411</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.116117926538162</v>
+        <v>1.101381582020872</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>27.63079739684133</v>
+        <v>22.65313175123225</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13080,53 +13080,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.10577415943537</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5628071338621714</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6485581764993701</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.051557967700958</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>26.31497135534674</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>1.096611652636537</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.5984688253240267</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.6371540026402139</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>1.047192271092819</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>27.82291894010272</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>1.096611652636537</v>
+        <v>1.083091029165761</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5984688253240267</v>
+        <v>0.5747904515219884</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6371540026402139</v>
+        <v>0.6372717348951699</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.047192271092819</v>
+        <v>1.040716594066685</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.82291894010272</v>
+        <v>26.74930513563256</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13142,53 +13142,53 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.140350848649307</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5112867793642086</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.6608105837742376</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.067872112497235</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>24.14850881479488</v>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>1.16613784122287</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.587618476394364</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.6319339353754406</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>1.079878623375271</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>27.15697560761217</v>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
-        </is>
-      </c>
       <c r="L16" s="8" t="n">
-        <v>1.16613784122287</v>
+        <v>1.231446778556671</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.587618476394364</v>
+        <v>0.5622021132200776</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6319339353754406</v>
+        <v>0.674477579854559</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.079878623375271</v>
+        <v>1.109705717096506</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>27.15697560761217</v>
+        <v>26.12757334100548</v>
       </c>
     </row>
     <row r="17">
@@ -13270,19 +13270,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.124878713828346</v>
+        <v>1.110017873742227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5893386444946238</v>
+        <v>0.5442217666408312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6225845387688755</v>
+        <v>0.6351284087775143</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.060602995389107</v>
+        <v>1.053573857753801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.37149308661353</v>
+        <v>25.33090542341326</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -13300,19 +13300,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.124878713828346</v>
+        <v>1.110625648528159</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5893386444946238</v>
+        <v>0.5288041479489466</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6225845387688755</v>
+        <v>0.641082478514737</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.060602995389107</v>
+        <v>1.053862253109086</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>27.37149308661353</v>
+        <v>24.66658281549054</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -13328,23 +13328,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.115481934536049</v>
+        <v>1.112816580285958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.581333486251452</v>
+        <v>0.5182431437254468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6202857059039032</v>
+        <v>0.600154149995564</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.056163782060362</v>
+        <v>1.054901218259775</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>27.09187710543153</v>
+        <v>24.35196477540581</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -13358,23 +13358,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.115481934536049</v>
+        <v>1.125461762270197</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.581333486251452</v>
+        <v>0.5405239591716866</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6202857059039032</v>
+        <v>0.6295395489399953</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.056163782060362</v>
+        <v>1.060877826269452</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>27.09187710543153</v>
+        <v>25.16974069880768</v>
       </c>
     </row>
     <row r="20">
@@ -13390,23 +13390,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.160789504539376</v>
+        <v>1.157510821186826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5601370960877808</v>
+        <v>0.5483354303177423</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6697529670312051</v>
+        <v>0.6424026596390789</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.077399417365434</v>
+        <v>1.075876768587753</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.0432681506131</v>
+        <v>25.77400708943424</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13420,23 +13420,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.160789504539376</v>
+        <v>1.194181358294012</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5601370960877808</v>
+        <v>0.5752219730903058</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6697529670312051</v>
+        <v>0.6535876113661196</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.077399417365434</v>
+        <v>1.092786053303213</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>26.0432681506131</v>
+        <v>26.8436708766708</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13538,19 +13538,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.310851</v>
+        <v>1.234701871871948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6167699</v>
+        <v>0.658400297164917</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7294369000000001</v>
+        <v>0.7102370858192444</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.144924005293646</v>
+        <v>1.111171396262497</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.09854936599731</v>
+        <v>29.42208349704742</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13564,23 +13564,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.2608744</v>
+        <v>1.218592643737793</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6234288</v>
+        <v>0.5933408141136169</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.71765566</v>
+        <v>0.6596049666404724</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.122886633014265</v>
+        <v>1.103898837637667</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.55472159385681</v>
+        <v>26.64159536361694</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13600,19 +13600,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.0100465</v>
+        <v>0.9288889765739441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.62661546</v>
+        <v>0.5147592425346375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.59768397</v>
+        <v>0.5681207180023193</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.005010687548238</v>
+        <v>0.963788865143162</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.21280550956726</v>
+        <v>24.74667578935623</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13630,19 +13630,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>1.1584898</v>
+        <v>0.8376344442367554</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.63942116</v>
+        <v>0.4472293555736542</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.57194006</v>
+        <v>0.6010063886642456</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>1.076331651184415</v>
+        <v>0.915223712671801</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>29.41004633903504</v>
+        <v>23.10920655727386</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13662,19 +13662,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.96159029006958</v>
+        <v>3.015563011169434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.990197658538818</v>
+        <v>1.341334939002991</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.802288055419922</v>
+        <v>0.6518535614013672</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.638482573387511</v>
+        <v>1.736537650374858</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>63.8058602809906</v>
+        <v>69.19087767601013</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13692,19 +13692,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.701570510864258</v>
+        <v>1.685496807098389</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.196029782295227</v>
+        <v>0.9049237370491028</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.027858138084412</v>
+        <v>0.7743459939956665</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.643645494279182</v>
+        <v>1.29826684741558</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>46.73249423503876</v>
+        <v>39.18345868587494</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.118429223082673</v>
+        <v>2.219574442427562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.187429853915347</v>
+        <v>1.202080693139025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.110555349989277</v>
+        <v>1.119634935320558</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.45548247089502</v>
+        <v>1.489823627959888</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>58.78372330490703</v>
+        <v>59.06854894672826</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.219574442427561</v>
+        <v>2.118429223082687</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.202080693139023</v>
+        <v>1.187429853915351</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.119634935320559</v>
+        <v>1.110555349989279</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.489823627959887</v>
+        <v>1.455482470895025</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>59.06854894672819</v>
+        <v>58.78372330490728</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2146,49 +2146,49 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5354862972285399</v>
+        <v>0.5354684583511795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4491655011588929</v>
+        <v>0.4491682501958427</v>
       </c>
       <c r="F8" s="5" t="n">
+        <v>0.9099222691830848</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.7317571033827956</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>22.30456306306434</v>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Support Vector Regressor</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0.5354862972285398</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.4491655011588928</v>
+      </c>
+      <c r="N8" s="8" t="n">
         <v>0.9099277667387083</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="O8" s="8" t="n">
         <v>0.7317692923514486</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="P8" s="8" t="n">
         <v>22.30438257580662</v>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Support Vector Regressor</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
-        </is>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0.5354684583511795</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0.4491682501958427</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>0.9099222691830847</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>0.7317571033827956</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>22.30456306306434</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -2266,53 +2266,53 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6034144189830274</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5868424222095801</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.9003357094423388</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.7767975405361601</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>29.06286927442552</v>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>K-Neighbors Regressor</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
           <t>{'weights': 'uniform', 'n_neighbors': 1}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="L10" s="8" t="n">
         <v>1.306765539135025</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="M10" s="8" t="n">
         <v>0.611400029402964</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="N10" s="8" t="n">
         <v>0.9939617922894348</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="O10" s="8" t="n">
         <v>1.143138460176642</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="P10" s="8" t="n">
         <v>33.08939932187733</v>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>K-Neighbors Regressor</t>
-        </is>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
-        </is>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0.6034144189830278</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>0.5868424222095803</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>0.900335709442339</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>0.7767975405361605</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>29.06286927442553</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -2472,23 +2472,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8621128808882106</v>
+        <v>1.260550301985834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7453431506716723</v>
+        <v>0.9234232229828629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9178080603498131</v>
+        <v>1.00688554137254</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9285003397351078</v>
+        <v>1.122742313260632</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>37.04278744793948</v>
+        <v>46.87605648789526</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2502,23 +2502,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.9598615144388414</v>
+        <v>0.8688605388729457</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7991096669234721</v>
+        <v>0.7530632078000432</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.9359321784260461</v>
+        <v>0.9295372715553152</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.9797252239474298</v>
+        <v>0.9321268898990875</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>39.42011584619745</v>
+        <v>37.39870717013115</v>
       </c>
     </row>
     <row r="14">
@@ -2538,19 +2538,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5121762035747512</v>
+        <v>0.6206690644937368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4787121045759571</v>
+        <v>0.5050161024454304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8765870028246684</v>
+        <v>0.930824972569353</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7156648681993208</v>
+        <v>0.787825529221881</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>23.65737903156869</v>
+        <v>24.22848568938037</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2568,19 +2568,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.654171913368651</v>
+        <v>0.5785810762304147</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5208355436964927</v>
+        <v>0.4960639737474922</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.9450039062028529</v>
+        <v>0.9121663940784931</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8088089473841464</v>
+        <v>0.7606451710425924</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>24.73609337481902</v>
+        <v>24.0904366963116</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2596,23 +2596,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5942996970497807</v>
+        <v>0.7193295705933896</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6514143098712664</v>
+        <v>0.7702576941891552</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8429178426108906</v>
+        <v>0.823280989911427</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7709083583992203</v>
+        <v>0.8481329911006821</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.46746559515672</v>
+        <v>37.2592952774319</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2626,23 +2626,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.358860164031997</v>
+        <v>0.9156451373910636</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>1.03939802367104</v>
+        <v>0.8331993227094885</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.9194273210792155</v>
+        <v>0.8841916453302436</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.165701575889815</v>
+        <v>0.9568934827822079</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>52.74418956248633</v>
+        <v>40.49007459278253</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -2662,19 +2662,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8000911259141666</v>
+        <v>1.485544678679579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7744066228462055</v>
+        <v>1.083935313904175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9125023477826807</v>
+        <v>0.9918027136585457</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8944781304840084</v>
+        <v>1.218829224575609</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>37.97046768963703</v>
+        <v>55.15832821151839</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.6319845355737899</v>
+        <v>0.8218063832470002</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.6696166407506032</v>
+        <v>0.7733705531383112</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.9021015985772215</v>
+        <v>0.9227731783785988</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.794974550267988</v>
+        <v>0.9065353734118708</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>32.43499103488548</v>
+        <v>38.27682260352563</v>
       </c>
     </row>
     <row r="17">
@@ -2724,19 +2724,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5220894160970397</v>
+        <v>0.5272613350694604</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4889116297303475</v>
+        <v>0.4965886999709071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8881324656107492</v>
+        <v>0.889140264568509</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7225575521002044</v>
+        <v>0.7261276300138017</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>24.03816177376035</v>
+        <v>24.35001276225312</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -2750,23 +2750,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.5219230701733181</v>
+        <v>0.5242390474741622</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.4976428686615738</v>
+        <v>0.4958798955097624</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.8866035987948863</v>
+        <v>0.8899028506658255</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.7224424338127696</v>
+        <v>0.7240435397641237</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>24.41144998989504</v>
+        <v>24.32620769443783</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -2782,53 +2782,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.3166304172114</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.053878076958133</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.9565519144720267</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.147445169588246</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>52.21260523085878</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>1.141868522951624</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>1.016152038107364</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0.8443243340360034</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>1.068582482989322</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>49.99341454630872</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>0.9714041627255239</v>
+        <v>1.119178775069274</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.9065043736151878</v>
+        <v>0.999799925439978</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.8712877964339606</v>
+        <v>0.8301926171739347</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.9855983780047144</v>
+        <v>1.057912460967009</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>44.24869089620594</v>
+        <v>49.30825705769787</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2848,19 +2848,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.471322914221003</v>
+        <v>1.354180236010267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.005524137751931</v>
+        <v>0.9913679957830412</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9759307286702951</v>
+        <v>0.9071202781093907</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.212981003239953</v>
+        <v>1.163692500624743</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>52.59624999981193</v>
+        <v>51.43199113777316</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -2878,19 +2878,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.747877971716105</v>
+        <v>1.419637360096506</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>1.129342507986929</v>
+        <v>0.9913330313896839</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.8992690853567187</v>
+        <v>0.9399860986732408</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.322073360943373</v>
+        <v>1.19148535874198</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>59.9754431271792</v>
+        <v>51.70528494456585</v>
       </c>
     </row>
     <row r="20" ht="42.75" customHeight="1">
@@ -3396,19 +3396,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>52.99374357498285</v>
+        <v>1.059044171474413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5.458434857652019</v>
+        <v>0.8601126902986647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4669939533588913</v>
+        <v>0.3953448620072067</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>7.279680183564581</v>
+        <v>1.029098718041381</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>46.18597172655598</v>
+        <v>43.37412245365608</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>50.56672779954064</v>
+        <v>1.338130441625873</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>5.314443020214975</v>
+        <v>0.9347849701894064</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.4684109675922718</v>
+        <v>0.4253747789414887</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>7.111028603482104</v>
+        <v>1.156775882194072</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>44.46364868755913</v>
+        <v>47.12371190266845</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3454,23 +3454,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>34.73323322138398</v>
+        <v>0.4700754707167892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.62464747746562</v>
+        <v>0.4234657184689826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.836036306897771</v>
+        <v>0.402358966308283</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.893490750088946</v>
+        <v>0.6856205005079626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>36.87080781159676</v>
+        <v>20.30806271574487</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -3484,23 +3484,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>34.69938199617561</v>
+        <v>0.4700757165982495</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>4.624165223144888</v>
+        <v>0.4234736665839763</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.8378476655124809</v>
+        <v>0.4023608296941961</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>5.890618133623637</v>
+        <v>0.6856206798210287</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>36.85403035960346</v>
+        <v>20.30837226359656</v>
       </c>
     </row>
     <row r="9" ht="183" customHeight="1">
@@ -3578,23 +3578,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>36.77940726979459</v>
+        <v>0.6431320327877188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.692541854737501</v>
+        <v>0.5297858225374608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7353337412771699</v>
+        <v>0.3535608337693682</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.064602812204159</v>
+        <v>0.8019551314055661</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.02547186536465</v>
+        <v>26.82359956096859</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -3608,23 +3608,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 2}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>34.02733610826947</v>
+        <v>1.048135411090077</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>4.708049112735243</v>
+        <v>0.5760470146573395</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6275709565934446</v>
+        <v>0.3956996956893283</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5.833295475824062</v>
+        <v>1.0237848460932</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>39.53359998725066</v>
+        <v>31.33482742393265</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -3784,23 +3784,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>37.80262935295781</v>
+        <v>0.8879145439309966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.815244627426035</v>
+        <v>0.7681393010768096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.605592059003038</v>
+        <v>0.3661227909223701</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>6.148384288002647</v>
+        <v>0.9422921754588629</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>39.21495129585296</v>
+        <v>37.4394987800167</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3814,23 +3814,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>34.98773236765</v>
+        <v>0.52891196200204</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>4.370231856890381</v>
+        <v>0.608265486750496</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6138913763837103</v>
+        <v>0.3604442684665854</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>5.91504288806514</v>
+        <v>0.7272633374521502</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.24867898408938</v>
+        <v>28.76912520716473</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3850,19 +3850,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>36.34874299946547</v>
+        <v>0.5430362418013602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.932838393043241</v>
+        <v>0.4667955962181427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8725006486119027</v>
+        <v>0.4339154863230777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.028991872565883</v>
+        <v>0.7369099278754224</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>38.79956785982292</v>
+        <v>21.81502196903234</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3880,19 +3880,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>35.51245029551443</v>
+        <v>0.5371022274710793</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>4.612186479887734</v>
+        <v>0.4721165893127994</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.9088446279085824</v>
+        <v>0.4306058348096231</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>5.959232357906044</v>
+        <v>0.7328725861096724</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>36.28638759601207</v>
+        <v>22.03109036002642</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3908,23 +3908,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.11901170180884</v>
+        <v>0.5102914090401841</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.303191370568643</v>
+        <v>0.5864223718104808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.011788776509218</v>
+        <v>0.4033244820632056</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.936786842754277</v>
+        <v>0.7143468408554657</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>40.38980836480929</v>
+        <v>27.50862178157333</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3938,23 +3938,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>39.24359751758718</v>
+        <v>0.4973828500701947</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>4.965046619896184</v>
+        <v>0.5823783035480175</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.8169533022000131</v>
+        <v>0.4039849452907666</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>6.264471048507382</v>
+        <v>0.705253748710487</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.78500390758297</v>
+        <v>27.30137675244471</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>36.043481231981</v>
+        <v>1.565849328216477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.789558229499512</v>
+        <v>1.144037371013553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7311722872726257</v>
+        <v>0.4834968178843272</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6.003622342551287</v>
+        <v>1.251339014103084</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>38.77328565299212</v>
+        <v>57.80372514917742</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4004,19 +4004,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>38.08294995181927</v>
+        <v>0.692418190561551</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>5.011348725081835</v>
+        <v>0.7264486236815879</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7563292018038608</v>
+        <v>0.4314746460595534</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>6.171138464806901</v>
+        <v>0.8321166928751946</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.46017781323507</v>
+        <v>34.54368635403441</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -4032,23 +4032,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>34.75636900759541</v>
+        <v>0.4583689922574082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.737687505639212</v>
+        <v>0.4724658566943397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7227971313481241</v>
+        <v>0.3984218500736288</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.895453248698985</v>
+        <v>0.6770295357348955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>38.47014204737403</v>
+        <v>22.41237936066192</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -4062,23 +4062,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>39.12273313504161</v>
+        <v>0.459655479527544</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>5.035304196665945</v>
+        <v>0.4705287331241056</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.7978230723232866</v>
+        <v>0.3996037583758907</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>6.254816794682448</v>
+        <v>0.6779789668769556</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>40.53852000559715</v>
+        <v>22.31315078967551</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -4094,23 +4094,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.24336128669487</v>
+        <v>1.051505390543167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.253181872806667</v>
+        <v>0.9749687123820376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7408094937644935</v>
+        <v>0.4934181712628395</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.343765544745082</v>
+        <v>1.025429368870995</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>42.50881344957322</v>
+        <v>46.71417981722895</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4124,23 +4124,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>37.65445250165006</v>
+        <v>1.025573080937107</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>4.969758984529999</v>
+        <v>0.9597340307875161</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.7938432508729126</v>
+        <v>0.4858159347978652</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>6.136322392251735</v>
+        <v>1.012705821518326</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>39.79646515918266</v>
+        <v>45.85636842035698</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -4156,23 +4156,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>34.81080730275401</v>
+        <v>1.01382468557329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4.725998650456964</v>
+        <v>0.8872649938727777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7355253505004933</v>
+        <v>0.4473638875131529</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>5.900068415090965</v>
+        <v>1.00688861626959</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>38.35579351300879</v>
+        <v>44.00147767923738</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -4190,19 +4190,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>40.6252239063049</v>
+        <v>0.6383616142001473</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>5.057869867281497</v>
+        <v>0.6396634120827418</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.8152422471057086</v>
+        <v>0.354236070600114</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>6.37379195662244</v>
+        <v>0.7989753526862686</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>40.278060564081</v>
+        <v>31.74637206426433</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.973476460420231</v>
+        <v>1.39571719688727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.540965412964714</v>
+        <v>1.002506016088224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.247167959655488</v>
+        <v>0.492662279575616</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.724377122447474</v>
+        <v>1.181404755740923</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>109.7682288226809</v>
+        <v>51.91345949012241</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4738,19 +4738,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.994205373621648</v>
+        <v>1.142023247893039</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.460042576623471</v>
+        <v>0.9527463058441897</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.817275973324864</v>
+        <v>0.5092710974851584</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.730377234484333</v>
+        <v>1.068654877822134</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>103.5969898655996</v>
+        <v>48.55677516456728</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4770,19 +4770,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.037448119661152</v>
+        <v>0.4857820181811332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.992391634918508</v>
+        <v>0.4279548179723794</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.870892879171457</v>
+        <v>0.3868430775504623</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.009340219987932</v>
+        <v>0.6969806440505598</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>123.4184676754234</v>
+        <v>20.527640618383</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -4800,19 +4800,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>4.037340999084195</v>
+        <v>0.4857975768123305</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>1.992365264061248</v>
+        <v>0.4279396754117269</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>5.870776889297677</v>
+        <v>0.3868456387797042</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>2.009313564151747</v>
+        <v>0.6969918054126106</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>123.4179182419676</v>
+        <v>20.526977299049</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -4890,23 +4890,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.461962524552278</v>
+        <v>0.5358432163533551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.812620419668163</v>
+        <v>0.5962066823049718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.207487174107522</v>
+        <v>0.3753356456209185</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.860634978858636</v>
+        <v>0.7320131258067406</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>118.1172738102383</v>
+        <v>28.63512633103056</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -4920,23 +4920,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3.016739657416396</v>
+        <v>0.3795809129382311</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>1.690234821389659</v>
+        <v>0.3851729425808146</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>4.790347104346941</v>
+        <v>0.3371344356630206</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.736876408215736</v>
+        <v>0.616101382029152</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>115.2641502120912</v>
+        <v>22.16850550923784</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -5096,23 +5096,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.744583729113691</v>
+        <v>1.597300623713365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.180927380222298</v>
+        <v>1.02738107972573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.044574345127705</v>
+        <v>0.46926667248951</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.320826911110495</v>
+        <v>1.263843591475371</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>101.2797883011978</v>
+        <v>54.30837846712283</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5126,23 +5126,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>2.002163953687144</v>
+        <v>1.021832892782402</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>1.27008040630393</v>
+        <v>0.8329102713514197</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>3.694098696457544</v>
+        <v>0.423788514291292</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.414978428700291</v>
+        <v>1.010857503697926</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>98.09866815838984</v>
+        <v>41.93590033503716</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5162,19 +5162,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.408759611571885</v>
+        <v>0.6819737959011145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.295052654265203</v>
+        <v>0.5120688990565574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.797773758045886</v>
+        <v>0.4553584970340123</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.325674012318125</v>
+        <v>0.8258170474754771</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>129.2333199607644</v>
+        <v>22.66848048992161</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5192,19 +5192,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>4.586963872030704</v>
+        <v>0.611224918026094</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>2.121542491411562</v>
+        <v>0.4530305284202805</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>6.28542862822938</v>
+        <v>0.4285410278911146</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>2.141719839762125</v>
+        <v>0.7818087477293242</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>126.0398624149412</v>
+        <v>20.992393779065</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5220,53 +5220,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9061638335318923</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8153007849087855</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4641448355734019</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9519263803109421</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>38.6959875249053</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>2.584761664282968</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>1.57918005457083</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>4.891064968225544</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>1.607719398490598</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>112.3816838095501</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>2.670632665105654</v>
+        <v>0.5587073641980205</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>1.604476542803129</v>
+        <v>0.6198081637001738</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>4.904366975624919</v>
+        <v>0.4132066681116157</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.634207044748509</v>
+        <v>0.7474672997516483</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>113.1399569252243</v>
+        <v>28.80348433004896</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5282,53 +5282,53 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.742180561838229</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.106833768926467</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.5320082230059087</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.31991687686696</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>58.85028381747227</v>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>1.41497004721663</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>1.106488002260964</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>3.169828823457948</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>1.189525135176483</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>101.7199866517701</v>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
-        </is>
-      </c>
       <c r="L16" s="8" t="n">
-        <v>1.551249639112834</v>
+        <v>1.460713207375971</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.103761161817779</v>
+        <v>0.9917340379206072</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>3.68110311850584</v>
+        <v>0.4625734577415616</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.24549172583074</v>
+        <v>1.208599688638042</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>90.54966502546104</v>
+        <v>52.72410310994089</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5344,23 +5344,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.267720961976788</v>
+        <v>0.6579098763470167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.760296284470911</v>
+        <v>0.6220832637790976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.361566177320996</v>
+        <v>0.4361332277058396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.807683866713643</v>
+        <v>0.8111164382177301</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>125.8402298157154</v>
+        <v>29.71106073782732</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -5374,23 +5374,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>3.588357841629723</v>
+        <v>0.9434653692818968</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>1.875987213000426</v>
+        <v>0.7135696801801755</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>5.57601044135728</v>
+        <v>0.4662263410949017</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.89429613356247</v>
+        <v>0.9713214551742883</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>120.6569658883266</v>
+        <v>36.62857550378741</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.559100227795975</v>
+        <v>0.9901369704979601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.205038796629684</v>
+        <v>0.9482978627944978</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.873540547963147</v>
+        <v>0.4752531898369374</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.248639350571643</v>
+        <v>0.9950562649910607</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>99.46203592003205</v>
+        <v>44.97123786220968</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.347459543105931</v>
+        <v>1.137505997697968</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.123956412249586</v>
+        <v>0.9451223113270447</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>3.569214546716189</v>
+        <v>0.4649749140419099</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.160801250475692</v>
+        <v>1.066539262145547</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>96.55922008006372</v>
+        <v>47.1437316966931</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5472,19 +5472,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.903269799345836</v>
+        <v>1.143256230889251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.268301707123363</v>
+        <v>0.9167983375474351</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.717524806669892</v>
+        <v>0.4669829010240922</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.379590446236069</v>
+        <v>1.069231607692763</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>104.1357286028699</v>
+        <v>44.7988347753453</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -5498,23 +5498,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>2.481309405232361</v>
+        <v>1.366114815524982</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>1.524949407612455</v>
+        <v>0.9946394258850236</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>4.442881956960558</v>
+        <v>0.485315798933506</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.575217256518084</v>
+        <v>1.168809144182651</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>110.2936546013349</v>
+        <v>52.33327328239676</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -26565,19 +26565,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.468281972290545</v>
+        <v>0.1086045914146939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.375005891407351</v>
+        <v>0.2571487272279951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.807754483343836</v>
+        <v>0.7616255784568566</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.571076692046109</v>
+        <v>0.3295521072830425</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>96.45202271238463</v>
+        <v>46.96949603944795</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26595,19 +26595,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.455794301975362</v>
+        <v>0.08649391801351435</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.325648484525203</v>
+        <v>0.2321641213036779</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.921075495485089</v>
+        <v>0.7381569170538949</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.567097413045967</v>
+        <v>0.2940984835280766</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>95.25449789028897</v>
+        <v>44.41531427913854</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26627,19 +26627,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.03719824391411</v>
+        <v>0.06884459747851893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.992328207110732</v>
+        <v>0.2048056838107483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.870752394348013</v>
+        <v>0.8688301440947477</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.009278040469788</v>
+        <v>0.2623825403461879</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>123.4169781891029</v>
+        <v>37.58526673943167</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -26653,23 +26653,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>4.037202722691203</v>
+        <v>0.06688282728460336</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>1.992327323861133</v>
+        <v>0.1996941478149679</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>5.87079009993032</v>
+        <v>0.8456475463588374</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>2.009279154993453</v>
+        <v>0.2586171442201838</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>123.4168415057629</v>
+        <v>36.88636282008563</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -26747,23 +26747,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 2}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.382911197470463</v>
+        <v>0.08509632951174405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.785259649038949</v>
+        <v>0.2202928932941669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.738054095727016</v>
+        <v>0.9922834473208549</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.839269202012164</v>
+        <v>0.2917127517126121</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>122.0247482466277</v>
+        <v>40.96004918837309</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -26777,23 +26777,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 2}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3.542945543639489</v>
+        <v>0.05451823064944847</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>1.810016035468076</v>
+        <v>0.1892309533686989</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>5.66537682158024</v>
+        <v>0.6948111657021522</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.882271378850427</v>
+        <v>0.23349139309501</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>116.1344197271268</v>
+        <v>39.52560323059531</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -26953,23 +26953,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.680808009062861</v>
+        <v>0.08465581919205188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.590512418761695</v>
+        <v>0.2235239033006465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.706762451749462</v>
+        <v>0.7784844160397707</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.637317320821734</v>
+        <v>0.2909567307900814</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>112.5103903993482</v>
+        <v>41.95389258837868</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26983,23 +26983,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>2.163478488416277</v>
+        <v>0.07238689278838874</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>1.394142167532777</v>
+        <v>0.2046541668947102</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>4.24743814246373</v>
+        <v>0.7170267692857929</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.470876775401759</v>
+        <v>0.2690481235548554</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>105.0046041401332</v>
+        <v>38.63952437652373</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27019,19 +27019,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.269315970876047</v>
+        <v>0.09039256136550999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.046019280071382</v>
+        <v>0.2265945651080936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.064613401659665</v>
+        <v>1.048922949547804</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.066232312900959</v>
+        <v>0.3006535570478254</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>124.4387181522687</v>
+        <v>40.03954439802508</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27049,19 +27049,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>4.555149654102753</v>
+        <v>0.09625350042549616</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>2.106749010865655</v>
+        <v>0.2334889160270511</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>6.213001062298917</v>
+        <v>1.107311535746135</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>2.13427965695753</v>
+        <v>0.3102474825449776</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>125.5275341326387</v>
+        <v>40.29044204999007</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27077,23 +27077,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.69445653200777</v>
+        <v>0.07771216555932881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.613772545630549</v>
+        <v>0.2171286256724306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.953348011834168</v>
+        <v>0.871067853803891</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.641479982213542</v>
+        <v>0.2787690182917191</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>113.400778282137</v>
+        <v>39.71607766112476</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -27107,23 +27107,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>2.677071960152213</v>
+        <v>0.07658941681596942</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>1.611404142830948</v>
+        <v>0.2238735167239543</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>4.849915325021866</v>
+        <v>0.8003114620527253</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.636176017472513</v>
+        <v>0.2767479301024118</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>113.5906642491137</v>
+        <v>41.78368361703696</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -27143,19 +27143,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.918262742119797</v>
+        <v>0.08435906356325215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.681753712804558</v>
+        <v>0.2363395657175437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.12049998609773</v>
+        <v>0.7862412175915107</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.708292346795418</v>
+        <v>0.2904463178682976</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>115.4600202849798</v>
+        <v>43.99765580207109</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -27169,23 +27169,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.471512871645211</v>
+        <v>0.07993521749124623</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.097360418158694</v>
+        <v>0.2286236624697818</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>3.855728735009021</v>
+        <v>0.7892676116985575</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.213059302608579</v>
+        <v>0.2827281689030052</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>91.39286109974429</v>
+        <v>42.526483043871</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -27201,23 +27201,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.58835270693849</v>
+        <v>0.08158066432769313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.876828959690877</v>
+        <v>0.2197616816382626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.563614572458997</v>
+        <v>0.8807402934769766</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.894294778258782</v>
+        <v>0.2856232909405204</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>120.7272326354561</v>
+        <v>40.2697045722585</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -27231,23 +27231,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>3.333947370607488</v>
+        <v>0.06931377838113879</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>1.776334928998708</v>
+        <v>0.2048938429589775</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>5.412126937493597</v>
+        <v>0.8296287683582158</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.825910011640083</v>
+        <v>0.2632751001920592</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>116.2521138838117</v>
+        <v>37.90312304674337</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -27263,53 +27263,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.0854479694859752</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2390879032508739</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.8656706330709792</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2923148465028337</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>43.8847539615379</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>1.51323797666203</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>1.206595608946528</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>3.626733000545988</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>1.23013738121481</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>100.5340795911809</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>1.349246303256058</v>
+        <v>0.07982524644106809</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.129310503787864</v>
+        <v>0.2321861129438617</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>3.57720719211518</v>
+        <v>0.7918868034468531</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.161570619142916</v>
+        <v>0.2825336200190485</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>96.95025761499865</v>
+        <v>43.15821700975216</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -27325,23 +27325,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.866127363216945</v>
+        <v>0.07324174165547442</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.641456256304604</v>
+        <v>0.2216578067841995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.977369434801813</v>
+        <v>0.8677206350593676</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.692964076174372</v>
+        <v>0.2706321149743216</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>113.1348858838479</v>
+        <v>41.49865961807339</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -27359,19 +27359,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>2.399522218289777</v>
+        <v>0.08497924656258393</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>1.466512046602815</v>
+        <v>0.2491672595641907</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>4.301562003820103</v>
+        <v>0.8174382703887686</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.549039127423764</v>
+        <v>0.2915120007179532</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>106.9509232828889</v>
+        <v>47.05188453117477</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -27879,19 +27879,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.279561434357712</v>
+        <v>0.09591383060645672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9499386088104179</v>
+        <v>0.2377691624504899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8301098269787837</v>
+        <v>0.7627449103816645</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.131177012831198</v>
+        <v>0.3096995812177613</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>49.48304321942623</v>
+        <v>51.57752943646141</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27909,19 +27909,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.366916370008326</v>
+        <v>0.09077327779720024</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.975170751418121</v>
+        <v>0.2312122814680025</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.793464039338485</v>
+        <v>0.7867334931613141</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.169151987556933</v>
+        <v>0.3012860398312545</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>50.43321268332331</v>
+        <v>47.41712055784466</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27937,23 +27937,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5354504577211445</v>
+        <v>0.06867606375714985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4491388673876393</v>
+        <v>0.2052953134547772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9098903223658</v>
+        <v>0.9453106193915067</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7317448036857827</v>
+        <v>0.2620611832323701</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>22.30348875455974</v>
+        <v>38.35095563969107</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -27967,23 +27967,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.5354353652157702</v>
+        <v>0.06913861212693748</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.4491238852094516</v>
+        <v>0.206691905927186</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.9098793932071371</v>
+        <v>0.9528332317854691</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7317344909294423</v>
+        <v>0.2629422220316423</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>22.3029541634482</v>
+        <v>38.54501621331167</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -28061,53 +28061,53 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 1}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1168614328307328</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2376251408979349</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.123005846693746</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3418500151100374</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>47.65961096505787</v>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>K-Neighbors Regressor</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
           <t>{'weights': 'distance', 'n_neighbors': 3}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>0.960666605224005</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.6039427100828779</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1.00192557100309</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.980136013634845</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>31.06624140850634</v>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>K-Neighbors Regressor</t>
-        </is>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
-        </is>
-      </c>
       <c r="L10" s="8" t="n">
-        <v>0.5918788516777741</v>
+        <v>0.08230151100216837</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.6126981252756997</v>
+        <v>0.2105551173227851</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.7416556415778185</v>
+        <v>1.044215315554869</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.7693366309215843</v>
+        <v>0.2868823992547615</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>30.66030221645982</v>
+        <v>39.14743511294903</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -28271,19 +28271,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8248865815732992</v>
+        <v>0.09099045799860656</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7628436172872297</v>
+        <v>0.2352064278612011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7397050217572242</v>
+        <v>0.6740119267428843</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9082326692942173</v>
+        <v>0.3016462464520428</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.18574201958613</v>
+        <v>45.78489408616255</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28297,23 +28297,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.948327747983403</v>
+        <v>0.0690364353072381</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>1.11947005793062</v>
+        <v>0.2046077201169713</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.8819646220052134</v>
+        <v>0.7802721717465337</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.395825113681296</v>
+        <v>0.2627478550002609</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>67.73953980676673</v>
+        <v>39.33661975633244</v>
       </c>
     </row>
     <row r="14">
@@ -28333,19 +28333,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5820328027462101</v>
+        <v>0.1330647458790008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5207531280241358</v>
+        <v>0.2882797276591423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9058891923964104</v>
+        <v>1.400006303143452</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7629107436300855</v>
+        <v>0.3647804077510205</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.16634993166148</v>
+        <v>49.2940250830545</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28359,23 +28359,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5756803663760103</v>
+        <v>0.1086468273475303</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5212853904731283</v>
+        <v>0.2633425176737348</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.9248172453122788</v>
+        <v>1.3248383060191</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7587360320796754</v>
+        <v>0.3296161818654089</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.19262137618444</v>
+        <v>45.63267864839885</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28391,23 +28391,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5939240136071645</v>
+        <v>0.0770044250627325</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6267768448346897</v>
+        <v>0.2275436058850902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8696019639607258</v>
+        <v>0.8533621121100163</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7706646570377835</v>
+        <v>0.2774967118052618</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.24164365904591</v>
+        <v>43.15446623194794</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28421,23 +28421,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5720309134700678</v>
+        <v>0.07420607255353387</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.6313253988296323</v>
+        <v>0.2201516487670297</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.844590078979096</v>
+        <v>0.9513086449421472</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7563272528939228</v>
+        <v>0.2724079157321495</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>30.57235727231799</v>
+        <v>40.85233230389441</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -28453,53 +28453,53 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.09310180111870155</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2541121975054914</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.8302350290090773</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.3051258774976346</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>49.17056092728257</v>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>1.276475024876728</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.9964776507895143</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.7427302201227215</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>1.129811942261511</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>52.264644172872</v>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
-        </is>
-      </c>
       <c r="L16" s="8" t="n">
-        <v>2.853852503550371</v>
+        <v>0.08942291175744647</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.425086763220054</v>
+        <v>0.2454854986361056</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.9928473992244348</v>
+        <v>0.8883106614691466</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.689334929358406</v>
+        <v>0.299036639489957</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>88.88486037074247</v>
+        <v>46.30519837820223</v>
       </c>
     </row>
     <row r="17">
@@ -28515,23 +28515,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5261003347659513</v>
+        <v>0.101850465826934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5038614714758071</v>
+        <v>0.2609425578731462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8848388805476408</v>
+        <v>0.7533370418722246</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.725327743000329</v>
+        <v>0.3191401977610059</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>24.67189034860667</v>
+        <v>50.65866167233719</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -28545,23 +28545,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.7517991342905572</v>
+        <v>0.07784704257249128</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5859047487577687</v>
+        <v>0.222495486449189</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.9186499993588394</v>
+        <v>0.9125795600801589</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.8670635122587949</v>
+        <v>0.2790108287728117</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>29.27068746073617</v>
+        <v>41.61448033845284</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -28577,23 +28577,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9694844234591189</v>
+        <v>0.09362343451266879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9016377852984881</v>
+        <v>0.2522536114433092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.852999176760128</v>
+        <v>0.826154817665342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9846240010578245</v>
+        <v>0.3059794674690914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44.54489112009652</v>
+        <v>47.9012124857258</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -28607,23 +28607,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+          <t>{'n_estimators': 60, 'max_samples': 1.0, 'max_features': 0.6}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.686484722241002</v>
+        <v>0.07995602612977802</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.189293959695916</v>
+        <v>0.2325923684911222</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.8000039525818077</v>
+        <v>0.894339632655334</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.298647266289427</v>
+        <v>0.2827649662348184</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>61.99555889275956</v>
+        <v>43.52674957940872</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -28643,19 +28643,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7663427324559925</v>
+        <v>0.1216220609710456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7197021344571978</v>
+        <v>0.2921331367268746</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8145762027307347</v>
+        <v>0.7204948446318811</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8754100367576285</v>
+        <v>0.3487435461353307</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>36.11332194704062</v>
+        <v>57.28608174506412</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -28669,23 +28669,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.403568615314201</v>
+        <v>0.08374549000141662</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>1.016851254108311</v>
+        <v>0.240347885313782</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.7605869624426908</v>
+        <v>0.8689744793534574</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.184723012064086</v>
+        <v>0.2893881303740992</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>53.76410813002883</v>
+        <v>45.91403745006171</v>
       </c>
     </row>
     <row r="20" ht="42.75" customHeight="1">
@@ -29191,19 +29191,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>45.41190031047155</v>
+        <v>0.0931503446169647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5.16282204035334</v>
+        <v>0.2470135181099094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5778780474272707</v>
+        <v>0.6159481233365038</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.738835233960804</v>
+        <v>0.3052054138067749</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>43.57064252940705</v>
+        <v>46.68592983317842</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29221,19 +29221,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>49.68655788437236</v>
+        <v>0.0851363898758252</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>5.704898787965371</v>
+        <v>0.2235424120500284</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.609070804406046</v>
+        <v>0.5848614989519096</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>7.048869262823106</v>
+        <v>0.2917814076938851</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>46.5563265314122</v>
+        <v>43.70238016375967</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29249,23 +29249,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>34.71733275222746</v>
+        <v>0.06372570747798166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.630277590900716</v>
+        <v>0.1970149785192351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8374070375397176</v>
+        <v>0.8181800894232054</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.892141609994405</v>
+        <v>0.2524395125133577</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>36.90162740543555</v>
+        <v>36.63847933696004</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -29279,23 +29279,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>34.68176754434599</v>
+        <v>0.06381747122606987</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>4.627748598061162</v>
+        <v>0.197788660409014</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.8390639597606759</v>
+        <v>0.819220126957419</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>5.889122816204973</v>
+        <v>0.2526212010621236</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>36.8717763053037</v>
+        <v>36.76710486600512</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -29373,53 +29373,53 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.05929675310110638</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1900901704411634</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7056189962634354</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2435092464386237</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>36.43277001480519</v>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>K-Neighbors Regressor</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
           <t>{'weights': 'distance', 'n_neighbors': 2}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>36.88126318503191</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>4.819726023238333</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.7748700532928969</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>6.072994581343861</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>39.27382334248598</v>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>K-Neighbors Regressor</t>
-        </is>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
-        </is>
-      </c>
       <c r="L10" s="8" t="n">
-        <v>31.62899254348947</v>
+        <v>0.06914349719273361</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>4.390226054233176</v>
+        <v>0.208686871682536</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6954330103764416</v>
+        <v>0.7856831189895154</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5.623965908812879</v>
+        <v>0.2629515111056288</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>36.30486931139686</v>
+        <v>39.40821054216072</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -29579,23 +29579,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>35.79886855072242</v>
+        <v>0.06335028634188471</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.540048127153107</v>
+        <v>0.1891169779659634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6173675846940576</v>
+        <v>0.6446228270469321</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>5.983215569467844</v>
+        <v>0.2516948278012178</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>37.54890944810023</v>
+        <v>35.99574593651995</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29613,19 +29613,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>33.99928480414659</v>
+        <v>0.06799290179108834</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>4.416538417806557</v>
+        <v>0.1981087025008156</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5967676583258962</v>
+        <v>0.6163015705812971</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>5.830890566984309</v>
+        <v>0.260754485658614</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.49338987867993</v>
+        <v>37.86539171345005</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29641,53 +29641,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1087696352363929</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.264438543894868</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.059833895219099</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.329802418481722</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>48.2116153832626</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>53.58636215669892</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>5.963428861474553</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1.080255891972098</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>7.320270634115853</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>45.1669681004927</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearRegression()}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>69.8253619006572</v>
+        <v>0.1050389881991397</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>6.988362168484292</v>
+        <v>0.2376708270484269</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.131243104703161</v>
+        <v>1.139527882885534</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>8.356157125177649</v>
+        <v>0.3240971894341877</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>54.57280990742495</v>
+        <v>40.99312084352344</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29703,23 +29703,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>36.44841084106451</v>
+        <v>0.06894907611059664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.894216587311134</v>
+        <v>0.211207802924734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8243211861679505</v>
+        <v>0.8270258804249856</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.037251927910953</v>
+        <v>0.2625815608731821</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>38.98288522357371</v>
+        <v>39.01446122961597</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29733,23 +29733,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>35.25404089856884</v>
+        <v>0.06894907611059664</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>4.788570856584622</v>
+        <v>0.211207802924734</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.8065222167615282</v>
+        <v>0.8270258804249856</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>5.937511338816023</v>
+        <v>0.2625815608731821</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>38.38107662480657</v>
+        <v>39.01446122961597</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29765,53 +29765,53 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.07114839080489732</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2108629167765648</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.7804521914835274</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.2667365569337981</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>39.33894033349541</v>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>39.26815184778687</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>5.118761257825223</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.7848843089655105</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>6.266430550783027</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>41.01727195249635</v>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
-        </is>
-      </c>
       <c r="L16" s="8" t="n">
-        <v>36.46672582302126</v>
+        <v>0.07394341263049678</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>4.759362201227853</v>
+        <v>0.223807857291508</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7033722414423367</v>
+        <v>0.7864284941737809</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>6.038768568426949</v>
+        <v>0.2719253806294969</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>38.69597381742361</v>
+        <v>41.69827234578361</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -29827,23 +29827,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>38.14067370938884</v>
+        <v>0.05987454329681483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.03616612524891</v>
+        <v>0.1899395810058931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8468029352818149</v>
+        <v>0.7939174880541529</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.175813607079544</v>
+        <v>0.2446927528489858</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>40.0237395281372</v>
+        <v>35.72538287313976</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -29857,23 +29857,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>35.29293350057698</v>
+        <v>0.07051594827089949</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>4.789770886258594</v>
+        <v>0.2123677746362516</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.7891101286143266</v>
+        <v>0.8581745767077752</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>5.940785596247097</v>
+        <v>0.2655483915803285</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>38.62773513791095</v>
+        <v>39.15376126478887</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -29893,19 +29893,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.6636979887199</v>
+        <v>0.07332250194838408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.252702024233124</v>
+        <v>0.2185026739788148</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7916777909283136</v>
+        <v>0.8178409307479312</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.376809389398424</v>
+        <v>0.2707812806461777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>42.08020261954562</v>
+        <v>40.439042132345</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -29919,23 +29919,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>39.66846989445112</v>
+        <v>0.07770591264052654</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>5.183793231577997</v>
+        <v>0.2348964287507732</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.783901910447933</v>
+        <v>0.7983712626264715</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>6.298291029672344</v>
+        <v>0.2787578028334392</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>41.53945047033461</v>
+        <v>44.06439349043927</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -29951,23 +29951,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>41.23005325948957</v>
+        <v>0.06765606336378618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5.161848316371517</v>
+        <v>0.2169519861973039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.776540614810329</v>
+        <v>0.7081716539479872</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>6.421063249921275</v>
+        <v>0.2601077918167508</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>41.44462002103971</v>
+        <v>40.97491611535892</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -29985,19 +29985,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>41.72578625571612</v>
+        <v>0.07474037412040742</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>5.147634242807298</v>
+        <v>0.2301837008572268</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6725800477085017</v>
+        <v>0.7560731587971493</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>6.459550004119182</v>
+        <v>0.2733868579877376</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>42.55607896028873</v>
+        <v>42.87287814320575</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -2332,19 +2332,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.842061518499203</v>
+        <v>1.818731694842795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.092842953751463</v>
+        <v>1.074316106368947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.05123157813452</v>
+        <v>1.051428765505158</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.357225669702428</v>
+        <v>1.348603609235418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>53.9551989847579</v>
+        <v>53.61847747581366</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2362,19 +2362,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>1.802070052604882</v>
+        <v>1.87287669268179</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.077412687463766</v>
+        <v>1.101198220158854</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.071942899736073</v>
+        <v>1.061341688297565</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.342412027882975</v>
+        <v>1.368530851929101</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>52.9154504339312</v>
+        <v>53.9755156455724</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2906,53 +2906,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4.008851366631757</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.825907805241737</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.191282572261947</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.002211618843462</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>116.2050985562584</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>7.393401782935747</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2.349572927143911</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.231446740885956</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>2.719081054866836</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>126.5912423305494</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>2.756520049627757</v>
+        <v>6.168915742293541</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.4256053097377</v>
+        <v>2.056544501895989</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.9988906925331412</v>
+        <v>1.306611110620099</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.660277100253978</v>
+        <v>2.483730207227335</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>86.07040790227263</v>
+        <v>109.7594782961838</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3054,19 +3054,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5737197995185852</v>
+        <v>0.5653009414672852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4407468438148499</v>
+        <v>0.4386546015739441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9436596632003784</v>
+        <v>0.9365495443344116</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7574429348265024</v>
+        <v>0.7518649755556414</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.82379513978958</v>
+        <v>21.79589569568634</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3080,23 +3080,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5491483211517334</v>
+        <v>0.5688448548316956</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4362055659294128</v>
+        <v>0.4417065978050232</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9225006699562073</v>
+        <v>0.9427708983421326</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7410454244860658</v>
+        <v>0.754218041969095</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.87596708536148</v>
+        <v>21.79102450609207</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3112,23 +3112,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2616510391235352</v>
+        <v>0.2533673346042633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3235683441162109</v>
+        <v>0.3235459923744202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2005584836006165</v>
+        <v>0.1978389769792557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5115183663599335</v>
+        <v>0.5033560713890946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.03685808181763</v>
+        <v>14.12836611270905</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3146,19 +3146,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2604926824569702</v>
+        <v>0.2550896108150482</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3336617350578308</v>
+        <v>0.3228984475135803</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2028043568134308</v>
+        <v>0.1991851180791855</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5103848376048903</v>
+        <v>0.505063967052737</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.10837918519974</v>
+        <v>14.00084942579269</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3178,19 +3178,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9096093773841858</v>
+        <v>0.5349694490432739</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.635286271572113</v>
+        <v>0.4476806819438934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.134571194648743</v>
+        <v>0.9135534167289734</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9537344375580583</v>
+        <v>0.73141605741416</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.58705317974091</v>
+        <v>22.23061621189117</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3208,19 +3208,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7249477505683899</v>
+        <v>0.6206709742546082</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5179744362831116</v>
+        <v>0.6815472841262817</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.04518461227417</v>
+        <v>0.830653190612793</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8514386358208029</v>
+        <v>0.7878267412665098</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.07518476247787</v>
+        <v>32.86155164241791</v>
       </c>
     </row>
   </sheetData>
@@ -3520,19 +3520,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>35.23400051138819</v>
+        <v>0.4759683105136405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.676530221675</v>
+        <v>0.420920316242317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.853119225882741</v>
+        <v>0.4053957497150619</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.935823490585632</v>
+        <v>0.6899045662362588</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.12583821647279</v>
+        <v>20.176757704386</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3550,19 +3550,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>35.23400051138819</v>
+        <v>0.4759683105136405</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>4.676530221675</v>
+        <v>0.420920316242317</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.853119225882741</v>
+        <v>0.4053957497150619</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>5.935823490585632</v>
+        <v>0.6899045662362588</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>37.12583821647279</v>
+        <v>20.176757704386</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3640,23 +3640,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>36.56161283755399</v>
+        <v>0.9863191851187517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.85621231920292</v>
+        <v>0.8384281388829347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8091432256168511</v>
+        <v>0.440931090107998</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.046619951473218</v>
+        <v>0.9931360355554277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>38.76560123186368</v>
+        <v>40.35456822456352</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3670,23 +3670,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>36.57026659439776</v>
+        <v>1.177061800813205</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>4.857593441965994</v>
+        <v>0.8979834280466502</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.8095498409023735</v>
+        <v>0.4414342878574254</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>6.047335495439108</v>
+        <v>1.084924790394802</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>38.77314593936791</v>
+        <v>43.68554329359869</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4218,23 +4218,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>41.21221175446709</v>
+        <v>5.880375574337775</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.025271861280835</v>
+        <v>2.080697504384946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7713202756502925</v>
+        <v>0.8847592650255848</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.419673804366316</v>
+        <v>2.424948571483069</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.21913874335497</v>
+        <v>115.4416460152801</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4248,23 +4248,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>37.8875208744558</v>
+        <v>0.8930724777907841</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>4.749489955160822</v>
+        <v>0.8323457278326032</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.7437579741228767</v>
+        <v>0.463247803436607</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>6.155283980000906</v>
+        <v>0.9450251201903493</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>37.90295166142534</v>
+        <v>39.39061576507486</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4362,23 +4362,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>36.64836883544922</v>
+        <v>0.5052093267440796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.836881160736084</v>
+        <v>0.4151941239833832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8216463327407837</v>
+        <v>0.4163088798522949</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>6.053789625965641</v>
+        <v>0.7107807867015538</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.46358358860016</v>
+        <v>19.83969658613205</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4392,23 +4392,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>38.77001190185547</v>
+        <v>0.4965879321098328</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>4.815093994140625</v>
+        <v>0.4154354929924011</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.00045371055603</v>
+        <v>0.413472980260849</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>6.226556986156592</v>
+        <v>0.7046899545969367</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.88472807407379</v>
+        <v>19.86469328403473</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4424,53 +4424,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1536760628223419</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.274170309305191</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1257765591144562</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3920153859510388</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.81548556685448</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>24.80909729003906</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>4.060102939605713</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.4005215764045715</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>4.980873145347014</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>27.0275205373764</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>25.03886795043945</v>
+        <v>0.1549969911575317</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>4.086256504058838</v>
+        <v>0.272079735994339</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4029083251953125</v>
+        <v>0.125201553106308</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>5.003885285499604</v>
+        <v>0.3936965724482901</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>27.114537358284</v>
+        <v>10.78930571675301</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4490,19 +4490,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>40.42893218994141</v>
+        <v>0.5796048045158386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.87069034576416</v>
+        <v>0.6636754274368286</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.027751445770264</v>
+        <v>0.423865795135498</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.358374964559845</v>
+        <v>0.7613178078278733</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.13699877262115</v>
+        <v>30.96920847892761</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4520,19 +4520,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>36.41575241088867</v>
+        <v>0.5478814244270325</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>4.669881343841553</v>
+        <v>0.630231499671936</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9261941909790039</v>
+        <v>0.4222694337368011</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>6.034546578732214</v>
+        <v>0.7401901272153206</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.55635714530945</v>
+        <v>29.38659191131592</v>
       </c>
     </row>
   </sheetData>
@@ -4832,19 +4832,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.15587032536772</v>
+        <v>0.492090176020578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.021883900750002</v>
+        <v>0.4244617467419405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.947772579977038</v>
+        <v>0.3898592206251312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.038595184279537</v>
+        <v>0.7014913941172607</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>124.0827608519487</v>
+        <v>20.35614910834323</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4862,19 +4862,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>4.15587032536772</v>
+        <v>0.492090176020578</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>2.021883900750002</v>
+        <v>0.4244617467419405</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>5.947772579977038</v>
+        <v>0.3898592206251312</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>2.038595184279537</v>
+        <v>0.7014913941172607</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>124.0827608519487</v>
+        <v>20.35614910834323</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4956,19 +4956,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.948388393919684</v>
+        <v>0.5166501986067713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.69738886236304</v>
+        <v>0.5768119906707319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.097647989421098</v>
+        <v>0.3999543533344938</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.717087182969952</v>
+        <v>0.7187838330171118</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>116.0786378491897</v>
+        <v>26.91106197113747</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4982,23 +4982,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>2.157479507441104</v>
+        <v>0.516783323044125</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.311720145276458</v>
+        <v>0.576518234178497</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>3.790127018402542</v>
+        <v>0.4001755030156409</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.4688361063921</v>
+        <v>0.7188764309977933</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>99.53142368532372</v>
+        <v>26.89527083708065</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5530,23 +5530,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.638761914868768</v>
+        <v>3.309533327375216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.111548107672261</v>
+        <v>1.399847578067074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.743213149405091</v>
+        <v>0.6308020206370576</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.280141365189317</v>
+        <v>1.81921228210872</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>99.94531688986646</v>
+        <v>85.02046213921064</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5560,23 +5560,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.513345666967828</v>
+        <v>1.574808141444125</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.060640346455683</v>
+        <v>0.9707840542174532</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>3.389178537154338</v>
+        <v>0.4738441312761198</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.230181152094206</v>
+        <v>1.254913599194831</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>88.03539066555948</v>
+        <v>51.05142593754288</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5674,23 +5674,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.429813861846924</v>
+        <v>0.518606424331665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.08839225769043</v>
+        <v>0.4160467386245728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.124117851257324</v>
+        <v>0.3983961045742035</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>2.104712299067719</v>
+        <v>0.7201433359628242</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>125.5374073982239</v>
+        <v>20.05115449428558</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5704,23 +5704,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>4.461117267608643</v>
+        <v>0.5177701115608215</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>2.095808506011963</v>
+        <v>0.4211705029010773</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>6.133846282958984</v>
+        <v>0.39910888671875</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>2.112135712403122</v>
+        <v>0.7195624445180707</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>125.694739818573</v>
+        <v>19.99369114637375</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5736,53 +5736,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06258729100227356</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2116055488586426</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07739545404911041</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2501745210893259</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.60662630200386</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>4.295679092407227</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>2.065573930740356</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3.103169918060303</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>2.07260201013297</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>118.4984683990479</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>4.280643463134766</v>
+        <v>0.06159069389104843</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>2.061811685562134</v>
+        <v>0.2129532247781754</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>3.096696615219116</v>
+        <v>0.07791630923748016</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>2.068971595535996</v>
+        <v>0.248174724520948</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>118.4119582176208</v>
+        <v>7.613006979227066</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5802,19 +5802,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.55418872833252</v>
+        <v>1.100636959075928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.54651951789856</v>
+        <v>0.7956706285476685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.322939872741699</v>
+        <v>0.612992525100708</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.560114983420182</v>
+        <v>1.049112462549143</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>134.2134594917297</v>
+        <v>31.18611574172974</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5832,19 +5832,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>3.282101392745972</v>
+        <v>0.4610756933689117</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.792946338653564</v>
+        <v>0.488338440656662</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>5.359106063842773</v>
+        <v>0.3763096928596497</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.811657084755824</v>
+        <v>0.6790255469191949</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>118.5920596122742</v>
+        <v>23.23029339313507</v>
       </c>
     </row>
   </sheetData>
@@ -26685,23 +26685,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.15587032536772</v>
+        <v>0.06846016518888713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.021883900750002</v>
+        <v>0.2040042520131022</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>5.947772579977038</v>
+        <v>0.8778007125793232</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.038595184279537</v>
+        <v>0.2616489350043052</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>124.0827608519487</v>
+        <v>37.39288585062241</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26715,23 +26715,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>4.15587032536772</v>
+        <v>0.06846016518888713</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>2.021883900750002</v>
+        <v>0.2040042520131022</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>5.947772579977038</v>
+        <v>0.8778007125793232</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>2.038595184279537</v>
+        <v>0.2616489350043052</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>124.0827608519487</v>
+        <v>37.39288585062241</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26813,19 +26813,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.94527092006588</v>
+        <v>0.07146856201458908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.696471313008337</v>
+        <v>0.2123994481319901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.096984228015163</v>
+        <v>0.8388163055426464</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.716179163160385</v>
+        <v>0.267336046979432</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>116.051092207998</v>
+        <v>39.10658616885596</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26843,19 +26843,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>2.944337631477608</v>
+        <v>0.07135154657734379</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.69605076235676</v>
+        <v>0.212238130430016</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>5.09789962577231</v>
+        <v>0.8384585457452758</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.715907232771518</v>
+        <v>0.267117102742119</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>116.0321792436608</v>
+        <v>39.08213848051528</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27391,19 +27391,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.757284653470793</v>
+        <v>0.07142708038209494</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.624886443691826</v>
+        <v>0.2114505013058486</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.895323725124937</v>
+        <v>0.8396939222638149</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.660507348213429</v>
+        <v>0.2672584524053354</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>113.611423989062</v>
+        <v>38.9274259332021</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27417,23 +27417,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.255077357990506</v>
+        <v>0.07201361098490174</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.9651878184558046</v>
+        <v>0.2114167483876052</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>3.728513033923857</v>
+        <v>0.8346123189594461</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.120302351149236</v>
+        <v>0.2683535186743444</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>83.03950882553079</v>
+        <v>38.9483312629872</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27531,23 +27531,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.484450817108154</v>
+        <v>0.06879379600286484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.101006507873535</v>
+        <v>0.2013533413410187</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.163232803344727</v>
+        <v>0.9533493518829346</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>2.117652194556074</v>
+        <v>0.2622857144467934</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>125.8087277412415</v>
+        <v>36.30630970001221</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27565,19 +27565,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>4.467374801635742</v>
+        <v>0.07060892879962921</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>2.09721827507019</v>
+        <v>0.2039088755846024</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>6.147102832794189</v>
+        <v>0.9729548096656799</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>2.113616521896946</v>
+        <v>0.2657234065708725</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>125.7274270057678</v>
+        <v>36.33480072021484</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27597,19 +27597,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.254436016082764</v>
+        <v>0.03092074953019619</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.055920362472534</v>
+        <v>0.1530693173408508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.087339639663696</v>
+        <v>0.2388174384832382</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.062628424143031</v>
+        <v>0.1758429683842837</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>118.2719826698303</v>
+        <v>21.63868099451065</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27627,19 +27627,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>4.331388473510742</v>
+        <v>0.03160393983125687</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>2.074283838272095</v>
+        <v>0.1541589647531509</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>3.116216421127319</v>
+        <v>0.2409124374389648</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>2.08119880682042</v>
+        <v>0.1777749696421205</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>118.7020540237427</v>
+        <v>21.58855944871902</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27659,19 +27659,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.259559631347656</v>
+        <v>0.07707009464502335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.78676974773407</v>
+        <v>0.2147951871156693</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.332632064819336</v>
+        <v>0.9748061299324036</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.805425055588754</v>
+        <v>0.2776150115628176</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>118.4481859207153</v>
+        <v>38.36061060428619</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27689,19 +27689,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>3.980131149291992</v>
+        <v>0.07447583973407745</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.979422330856323</v>
+        <v>0.2105887532234192</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>5.795063018798828</v>
+        <v>1.020604968070984</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.995026603655197</v>
+        <v>0.2729026195075406</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>123.2208371162415</v>
+        <v>37.32069134712219</v>
       </c>
     </row>
   </sheetData>
@@ -27999,23 +27999,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.543132083300825</v>
+        <v>0.07120441888995224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4458566119134453</v>
+        <v>0.2105127922923293</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.9188585036363139</v>
+        <v>0.999971698500205</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.736974954323975</v>
+        <v>0.2668415613991798</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.12785168999423</v>
+        <v>38.88289760877276</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28029,23 +28029,23 @@
       </c>
       <c r="K9" s="15" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.543132083300825</v>
+        <v>0.07120441888995224</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4458566119134453</v>
+        <v>0.2105127922923293</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.9188585036363139</v>
+        <v>0.999971698500205</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.736974954323975</v>
+        <v>0.2668415613991798</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>22.12785168999423</v>
+        <v>38.88289760877276</v>
       </c>
     </row>
     <row r="10">
@@ -28123,23 +28123,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.145771649069507</v>
+        <v>0.07370761023501796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9019880530436964</v>
+        <v>0.2189566101879812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8353950500750371</v>
+        <v>0.9459120523819589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.070407235153755</v>
+        <v>0.2714914551786445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>43.82437783125143</v>
+        <v>40.67952220931159</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28153,23 +28153,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>1.105055457131371</v>
+        <v>0.07377949902611058</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.8685053500784564</v>
+        <v>0.2191348896239886</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.8418446509375005</v>
+        <v>0.9468799967768361</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.051216180017874</v>
+        <v>0.2716238189594399</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>43.23342198808637</v>
+        <v>40.70459414828231</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28701,53 +28701,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06784244489984469</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2055285265465799</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.9368940375878692</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2604658229016711</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.6355161978311</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>2.128681432618017</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>1.110550390252519</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.726148538316067</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.459000148258395</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>56.50384477018315</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>8.22704006199549</v>
+        <v>0.07447995147715052</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>2.526256700229006</v>
+        <v>0.2210393180012342</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.244438798257152</v>
+        <v>0.9505060944442122</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>2.868281726399185</v>
+        <v>0.2729101527557202</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>147.4486894143628</v>
+        <v>41.01184581979232</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28845,23 +28845,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5751696825027466</v>
+        <v>0.07314440608024597</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4353219568729401</v>
+        <v>0.2087579965591431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9428774118423462</v>
+        <v>1.095942854881287</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7583994214810205</v>
+        <v>0.2704522251345808</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.90887033939362</v>
+        <v>37.8938764333725</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28875,23 +28875,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5430227518081665</v>
+        <v>0.07241609692573547</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4277141988277435</v>
+        <v>0.2043947875499725</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9242879748344421</v>
+        <v>1.100667238235474</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7369007747371192</v>
+        <v>0.2691023911557374</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.91965878009796</v>
+        <v>38.0496084690094</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28911,19 +28911,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2562879621982574</v>
+        <v>0.05411883816123009</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3241452872753143</v>
+        <v>0.1839312314987183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1992588043212891</v>
+        <v>0.5638678073883057</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5062489132810633</v>
+        <v>0.2326345592581422</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.07382041215897</v>
+        <v>30.58217167854309</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28937,23 +28937,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2543992102146149</v>
+        <v>0.05430842936038971</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3185948133468628</v>
+        <v>0.1852006465196609</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1963779330253601</v>
+        <v>0.5754426717758179</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5043800255904419</v>
+        <v>0.23304169017665</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.18003439903259</v>
+        <v>30.77332377433777</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28973,19 +28973,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5433607697486877</v>
+        <v>0.07602940499782562</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5520331263542175</v>
+        <v>0.2128872126340866</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8587377071380615</v>
+        <v>1.130753755569458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7371300901121103</v>
+        <v>0.2757343014530939</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.85161530971527</v>
+        <v>38.35531175136566</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29003,19 +29003,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6795779466629028</v>
+        <v>0.07302220910787582</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7360783219337463</v>
+        <v>0.2056715041399002</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.840842604637146</v>
+        <v>1.130441069602966</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8243651779781233</v>
+        <v>0.2702262183946551</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.4135662317276</v>
+        <v>37.32269704341888</v>
       </c>
     </row>
   </sheetData>
@@ -29311,23 +29311,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>35.23400051138819</v>
+        <v>0.0660552759059692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.676530221675</v>
+        <v>0.2024867093242934</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.853119225882741</v>
+        <v>0.866064515205383</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.935823490585632</v>
+        <v>0.2570122096437623</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.12583821647279</v>
+        <v>37.24400817710244</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29341,23 +29341,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>35.23400051138819</v>
+        <v>0.0660552759059692</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>4.676530221675</v>
+        <v>0.2024867093242934</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.853119225882741</v>
+        <v>0.866064515205383</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>5.935823490585632</v>
+        <v>0.2570122096437623</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>37.12583821647279</v>
+        <v>37.24400817710244</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29439,19 +29439,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>36.58245507760496</v>
+        <v>0.06856745665751525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.858904692808883</v>
+        <v>0.2102240547883094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8099458520382898</v>
+        <v>0.8218978684042695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.048343167976249</v>
+        <v>0.2618538841749636</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>38.77957286299075</v>
+        <v>38.87638794695232</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29469,19 +29469,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>36.5741630706783</v>
+        <v>0.06858559470013199</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>4.855623024799837</v>
+        <v>0.2103754472019339</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.8098739224313001</v>
+        <v>0.8219695398149515</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>6.047657651577038</v>
+        <v>0.261888515785118</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>38.7540850716865</v>
+        <v>38.90358019636312</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30013,53 +30013,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06869733904573436</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2108962002030411</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.8258952043794313</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2621017723055957</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.96975570000768</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>38.56947903496456</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>5.024324848024878</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.7849195926821844</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>6.210433079501345</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>40.23030894426493</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>74.86270871096116</v>
+        <v>0.06917200682107438</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>7.015425179364184</v>
+        <v>0.2088081027629839</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.799345920271223</v>
+        <v>0.8307588121581657</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>8.652323890779931</v>
+        <v>0.2630057163277528</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>60.55100705194867</v>
+        <v>38.57645475416599</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30157,23 +30157,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>36.50221633911133</v>
+        <v>0.06821184605360031</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.825523853302002</v>
+        <v>0.2008787840604782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8170787692070007</v>
+        <v>0.9660117030143738</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>6.041706409542864</v>
+        <v>0.2611739766010395</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.46795260906219</v>
+        <v>36.37579083442688</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30187,23 +30187,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>42.09574127197266</v>
+        <v>0.06858821213245392</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>4.950836181640625</v>
+        <v>0.2021617591381073</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.053398132324219</v>
+        <v>0.9545766711235046</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>6.488123093158195</v>
+        <v>0.2618935129636737</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>37.41693198680878</v>
+        <v>36.3544225692749</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30223,19 +30223,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.96952438354492</v>
+        <v>0.04641244560480118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.028854846954346</v>
+        <v>0.1741525232791901</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4053634703159332</v>
+        <v>0.4013152718544006</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.996951509024769</v>
+        <v>0.2154354789833865</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.16865539550781</v>
+        <v>27.11017429828644</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30253,19 +30253,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>24.84396553039551</v>
+        <v>0.04693332314491272</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>4.061378479003906</v>
+        <v>0.1783729046583176</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4019429683685303</v>
+        <v>0.4049032628536224</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>4.9843721300075</v>
+        <v>0.2166410006091015</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>27.08995938301086</v>
+        <v>27.13299095630646</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30285,19 +30285,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>70.79147338867188</v>
+        <v>0.06694730371236801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.458489894866943</v>
+        <v>0.2038673460483551</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7398720979690552</v>
+        <v>0.8878072500228882</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.41376689650194</v>
+        <v>0.2587417703278078</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>63.23981285095215</v>
+        <v>37.34534680843353</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30315,19 +30315,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>103.9018783569336</v>
+        <v>0.07328468561172485</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>8.339478492736816</v>
+        <v>0.211635634303093</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.576541304588318</v>
+        <v>1.002338528633118</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>10.19322708257466</v>
+        <v>0.2707114434443525</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>51.15545392036438</v>
+        <v>37.6216322183609</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02101229317486286</v>
+        <v>0.02038654871284962</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1184891536831856</v>
+        <v>0.1270731687545776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1566771417856216</v>
+        <v>0.1724486202001572</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1449561767392575</v>
+        <v>0.1427814718822075</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.18294155597687</v>
+        <v>17.32141375541687</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03088873624801636</v>
+        <v>0.0206750649958849</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.148413360118866</v>
+        <v>0.1229473426938057</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2127533555030823</v>
+        <v>0.166735976934433</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1757519167691105</v>
+        <v>0.1437882644581431</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.02274596691132</v>
+        <v>16.76081568002701</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2533673346042633</v>
+        <v>0.265439361333847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3235459923744202</v>
+        <v>0.3265949487686157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1978389769792557</v>
+        <v>0.2022601515054703</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5033560713890946</v>
+        <v>0.5152080757653621</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.12836611270905</v>
+        <v>13.95676583051682</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3142,23 +3142,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2550896108150482</v>
+        <v>0.2518943548202515</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3228984475135803</v>
+        <v>0.3265386521816254</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1991851180791855</v>
+        <v>0.2001090496778488</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.505063967052737</v>
+        <v>0.5018907797721048</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.00084942579269</v>
+        <v>13.98184448480606</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1536760628223419</v>
+        <v>0.1509228348731995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.274170309305191</v>
+        <v>0.2734829783439636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1257765591144562</v>
+        <v>0.1250122338533401</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3920153859510388</v>
+        <v>0.3884878825307161</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.81548556685448</v>
+        <v>10.80066487193108</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4454,23 +4454,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1549969911575317</v>
+        <v>0.1641777455806732</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.272079735994339</v>
+        <v>0.2844867408275604</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.125201553106308</v>
+        <v>0.1306137591600418</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3936965724482901</v>
+        <v>0.4051885309095918</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.78930571675301</v>
+        <v>11.18937954306602</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5736,53 +5736,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05941673740744591</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2075044065713882</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07515256851911545</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.243755486927876</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.48831108212471</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.06258729100227356</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2116055488586426</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.07739545404911041</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2501745210893259</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>7.60662630200386</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.06159069389104843</v>
+        <v>0.06416238099336624</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2129532247781754</v>
+        <v>0.2025227099657059</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07791630923748016</v>
+        <v>0.0735589936375618</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.248174724520948</v>
+        <v>0.2533029431202217</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.613006979227066</v>
+        <v>7.308342307806015</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7050,19 +7050,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1579893529415131</v>
+        <v>0.1198748350143433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2758049368858337</v>
+        <v>0.2723120152950287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.236552953720093</v>
+        <v>1.663831114768982</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3974787452701252</v>
+        <v>0.3462294542847897</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>47.38054275512695</v>
+        <v>51.86809897422791</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7076,23 +7076,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1004939675331116</v>
+        <v>0.1239473447203636</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2525702714920044</v>
+        <v>0.2909148931503296</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.651165366172791</v>
+        <v>1.660503625869751</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3170078351288996</v>
+        <v>0.3520615638213914</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>45.19087970256805</v>
+        <v>53.39309573173523</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8360,19 +8360,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06525996327400208</v>
+        <v>0.07692508399486542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1712508350610733</v>
+        <v>0.1810757368803024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.748959541320801</v>
+        <v>1.567182183265686</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2554602968643113</v>
+        <v>0.2773537163891363</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44.58573460578918</v>
+        <v>33.91921818256378</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8386,23 +8386,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09944530576467514</v>
+        <v>0.07361552864313126</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2194881737232208</v>
+        <v>0.202547624707222</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.991778969764709</v>
+        <v>1.359986782073975</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3153494978031123</v>
+        <v>0.2713218174845717</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>46.89694344997406</v>
+        <v>40.49351811408997</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9670,19 +9670,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07304338365793228</v>
+        <v>0.1023370549082756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1888305693864822</v>
+        <v>0.2221110016107559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.592520356178284</v>
+        <v>1.909245848655701</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.270265394858336</v>
+        <v>0.3199016331753803</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>46.20714485645294</v>
+        <v>37.26663887500763</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9700,19 +9700,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09088505804538727</v>
+        <v>0.07964418828487396</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2149957716464996</v>
+        <v>0.2019019722938538</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.047677040100098</v>
+        <v>1.858013391494751</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3014714879476785</v>
+        <v>0.2822130193397781</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>45.75782716274261</v>
+        <v>36.27249002456665</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.994358241558075</v>
+        <v>0.8536674976348877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7101293802261353</v>
+        <v>0.6362115740776062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7093886733055115</v>
+        <v>0.6532931327819824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9971751308361411</v>
+        <v>0.9239412847334444</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>31.94715082645416</v>
+        <v>28.9107471704483</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11010,19 +11010,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.787083625793457</v>
+        <v>0.7459242343902588</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.562964916229248</v>
+        <v>0.5409226417541504</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6744176149368286</v>
+        <v>0.6905539631843567</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.887177336158593</v>
+        <v>0.8636690537412226</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.05232393741608</v>
+        <v>24.89958107471466</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12290,19 +12290,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7730739712715149</v>
+        <v>0.7785611152648926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5251714587211609</v>
+        <v>0.5511632561683655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7587834596633911</v>
+        <v>0.7293534278869629</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8792462517813283</v>
+        <v>0.8823611025339301</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.92542564868927</v>
+        <v>25.41111409664154</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12320,19 +12320,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.6781043410301208</v>
+        <v>0.9866180419921875</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5631318092346191</v>
+        <v>0.677851676940918</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6512069702148438</v>
+        <v>0.7339392304420471</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.8234709108584959</v>
+        <v>0.9932864853566605</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>28.52681875228882</v>
+        <v>30.43887913227081</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13600,19 +13600,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7160979509353638</v>
+        <v>0.6205424070358276</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4994540214538574</v>
+        <v>0.4632170796394348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.389207661151886</v>
+        <v>0.3607049286365509</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8462257092143701</v>
+        <v>0.7877451409154027</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.9379420876503</v>
+        <v>22.18717932701111</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13630,19 +13630,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.8729332685470581</v>
+        <v>0.7770612835884094</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5991755127906799</v>
+        <v>0.5563985109329224</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4390179812908173</v>
+        <v>0.4070595502853394</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9343089791643117</v>
+        <v>0.881510796070252</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.07398927211761</v>
+        <v>25.26505589485168</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14654,23 +14654,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03341031074523926</v>
+        <v>0.03368991613388062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1629221588373184</v>
+        <v>0.1537469625473022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.230926975607872</v>
+        <v>0.2368645220994949</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1827848755921541</v>
+        <v>0.183548130292522</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.96398836374283</v>
+        <v>21.59144729375839</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15928,23 +15928,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0323951281607151</v>
+        <v>0.05293282493948936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1342172771692276</v>
+        <v>0.1794953197240829</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4055852890014648</v>
+        <v>0.5141382813453674</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1799864666043397</v>
+        <v>0.2300713474978781</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.02868604660034</v>
+        <v>29.75191175937653</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15962,19 +15962,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03723446279764175</v>
+        <v>0.03885351121425629</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1502651274204254</v>
+        <v>0.1527875363826752</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4348719120025635</v>
+        <v>0.4478031396865845</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1929623351787642</v>
+        <v>0.1971129402506499</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>32.14510381221771</v>
+        <v>25.70824027061462</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16986,23 +16986,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03305542841553688</v>
+        <v>0.03827310353517532</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1536905914545059</v>
+        <v>0.1593020260334015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2809911668300629</v>
+        <v>0.3425413966178894</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1818115189297336</v>
+        <v>0.1956351285816924</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>31.33091628551483</v>
+        <v>25.18439292907715</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18008,23 +18008,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04800722002983093</v>
+        <v>0.05963155254721642</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1760594248771667</v>
+        <v>0.1891781091690063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4465217888355255</v>
+        <v>0.545828640460968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2191054997708431</v>
+        <v>0.2441957258987479</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.48082602024078</v>
+        <v>30.77239096164703</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19030,23 +19030,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05727555602788925</v>
+        <v>0.07635540515184402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2077308595180511</v>
+        <v>0.2300939708948135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07417003810405731</v>
+        <v>0.08020485937595367</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2393231205460292</v>
+        <v>0.2763248181974323</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.026526123285294</v>
+        <v>8.287132531404495</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20056,19 +20056,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1412690877914429</v>
+        <v>0.1517827063798904</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.273182213306427</v>
+        <v>0.2999192178249359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1225753352046013</v>
+        <v>0.1291753351688385</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3758578026214739</v>
+        <v>0.3895930009380179</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.20340079069138</v>
+        <v>11.79462745785713</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21074,23 +21074,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2563930749893188</v>
+        <v>0.2605171501636505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3379813730716705</v>
+        <v>0.3568589389324188</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1994630843400955</v>
+        <v>0.2081937789916992</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5063527179637913</v>
+        <v>0.5104088069025167</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.81277793645859</v>
+        <v>15.11000096797943</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22352,19 +22352,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03265727311372757</v>
+        <v>0.02698520943522453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1481876224279404</v>
+        <v>0.1343110501766205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3340413868427277</v>
+        <v>0.2654978632926941</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1807132344730943</v>
+        <v>0.1642717548309037</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.71160304546356</v>
+        <v>20.95912992954254</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22378,23 +22378,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02215669676661491</v>
+        <v>0.02467910945415497</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1169244647026062</v>
+        <v>0.1319992691278458</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2829437553882599</v>
+        <v>0.2801064848899841</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1488512571885603</v>
+        <v>0.1570958607161722</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>28.20520401000977</v>
+        <v>21.16885036230087</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23658,23 +23658,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05869100987911224</v>
+        <v>0.05658266693353653</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2109834998846054</v>
+        <v>0.2019744366407394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07608859986066818</v>
+        <v>0.07336241006851196</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2422622749812943</v>
+        <v>0.2378711141217792</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.686778157949448</v>
+        <v>7.290905714035034</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23692,19 +23692,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07041627913713455</v>
+        <v>0.06254465132951736</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2329356819391251</v>
+        <v>0.2167986780405045</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08441979438066483</v>
+        <v>0.07901168614625931</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2653606586084956</v>
+        <v>0.2500892867147999</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.745707035064697</v>
+        <v>7.826276123523712</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24969,23 +24969,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2539328634738922</v>
+        <v>0.2698320150375366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3174982964992523</v>
+        <v>0.342189222574234</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1974401921033859</v>
+        <v>0.2062558978796005</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5039175165380662</v>
+        <v>0.5194535735150319</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.07180428504944</v>
+        <v>14.54949378967285</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25003,19 +25003,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2515289187431335</v>
+        <v>0.2617705464363098</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3131726384162903</v>
+        <v>0.3312917947769165</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1953224539756775</v>
+        <v>0.2017458975315094</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5015265882713832</v>
+        <v>0.5116351692723144</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.15511965751648</v>
+        <v>14.15229588747025</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26280,53 +26280,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.149578258395195</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.271780252456665</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1243861168622971</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3867534853045219</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.73749288916588</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.1490184366703033</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2707170844078064</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1237374097108841</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.3860290619503969</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>10.86694747209549</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.1465866565704346</v>
+        <v>0.1543261408805847</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2712443172931671</v>
+        <v>0.2797373831272125</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1239997148513794</v>
+        <v>0.1272506862878799</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.382866369077299</v>
+        <v>0.392843659590663</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.85136383771896</v>
+        <v>11.02634742856026</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27593,53 +27593,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03050857968628407</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1506365537643433</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2353609949350357</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1746670538089083</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.12129330635071</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.03092074953019619</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1530693173408508</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2388174384832382</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1758429683842837</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>21.63868099451065</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.03160393983125687</v>
+        <v>0.0329413115978241</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1541589647531509</v>
+        <v>0.1606427133083344</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2409124374389648</v>
+        <v>0.2515688836574554</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1777749696421205</v>
+        <v>0.1814974148516284</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.58855944871902</v>
+        <v>22.409987449646</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28907,53 +28907,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05520905181765556</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.186625599861145</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5807750821113586</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.234966065246996</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.46997785568237</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.05411883816123009</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1839312314987183</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.5638678073883057</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2326345592581422</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>30.58217167854309</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.05430842936038971</v>
+        <v>0.05459832027554512</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1852006465196609</v>
+        <v>0.1835659444332123</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5754426717758179</v>
+        <v>0.5633195638656616</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.23304169017665</v>
+        <v>0.2336628346047893</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>30.77332377433777</v>
+        <v>30.12894093990326</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30223,19 +30223,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04641244560480118</v>
+        <v>0.04527116566896439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1741525232791901</v>
+        <v>0.1731369495391846</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4013152718544006</v>
+        <v>0.4030790627002716</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2154354789833865</v>
+        <v>0.2127702180028126</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.11017429828644</v>
+        <v>26.88057124614716</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30253,19 +30253,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04693332314491272</v>
+        <v>0.04765592515468597</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1783729046583176</v>
+        <v>0.1772647202014923</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4049032628536224</v>
+        <v>0.4077141880989075</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2166410006091015</v>
+        <v>0.2183023709323515</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>27.13299095630646</v>
+        <v>27.42552757263184</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0685151219367981</v>
+        <v>0.06709681451320648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2016810774803162</v>
+        <v>0.1938665807247162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9616500735282898</v>
+        <v>0.9674121737480164</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2617539339471293</v>
+        <v>0.2590305281491093</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.33876442909241</v>
+        <v>35.02976298332214</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0783442035317421</v>
+        <v>0.06990890204906464</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2110324501991272</v>
+        <v>0.200808122754097</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.039711117744446</v>
+        <v>0.9823763966560364</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.279900345715653</v>
+        <v>0.2644029161130123</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.53178811073303</v>
+        <v>36.13507151603699</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3050,23 +3050,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5653009414672852</v>
+        <v>0.5582122206687927</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4386546015739441</v>
+        <v>0.4352498054504395</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9365495443344116</v>
+        <v>0.9360230565071106</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7518649755556414</v>
+        <v>0.7471360121616363</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.79589569568634</v>
+        <v>21.64174616336823</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3080,23 +3080,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5688448548316956</v>
+        <v>0.5601158142089844</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4417065978050232</v>
+        <v>0.437961608171463</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9427708983421326</v>
+        <v>0.9373248219490051</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.754218041969095</v>
+        <v>0.7484088549776682</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.79102450609207</v>
+        <v>21.73507213592529</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4366,19 +4366,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5052093267440796</v>
+        <v>0.4995312094688416</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4151941239833832</v>
+        <v>0.4282850325107574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4163088798522949</v>
+        <v>0.4170173108577728</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7107807867015538</v>
+        <v>0.7067752184880576</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.83969658613205</v>
+        <v>20.36428153514862</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4392,23 +4392,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.4965879321098328</v>
+        <v>0.5053742527961731</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4154354929924011</v>
+        <v>0.4181411862373352</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.413472980260849</v>
+        <v>0.4169004559516907</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7046899545969367</v>
+        <v>0.7108967947572792</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.86469328403473</v>
+        <v>19.95204389095306</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5678,19 +5678,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.518606424331665</v>
+        <v>0.5214235186576843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4160467386245728</v>
+        <v>0.4181386530399323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3983961045742035</v>
+        <v>0.3997190892696381</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7201433359628242</v>
+        <v>0.7220966131049807</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.05115449428558</v>
+        <v>20.00885605812073</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5708,19 +5708,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5177701115608215</v>
+        <v>0.5129131078720093</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4211705029010773</v>
+        <v>0.41679847240448</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.39910888671875</v>
+        <v>0.3964295983314514</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7195624445180707</v>
+        <v>0.7161795220976437</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.99369114637375</v>
+        <v>19.98328268527985</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6984,23 +6984,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0914708599448204</v>
+        <v>0.1004030108451843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2393684834241867</v>
+        <v>0.244123637676239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7496932524032</v>
+        <v>4209529323520</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3024414983841014</v>
+        <v>0.3168643413910507</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>52.19529867172241</v>
+        <v>47.71924018859863</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7018,19 +7018,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0981927365064621</v>
+        <v>0.09097240120172501</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2329601794481277</v>
+        <v>0.219003826379776</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>20754330550272</v>
+        <v>21403432648704</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3133572027358907</v>
+        <v>0.301616314548343</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>45.67482471466064</v>
+        <v>42.89458096027374</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8298,19 +8298,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08440202474594116</v>
+        <v>0.09623307734727859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2270352840423584</v>
+        <v>0.2296756207942963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27661501988864</v>
+        <v>22036915159040</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2905202656372549</v>
+        <v>0.3102145666265184</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44.69593465328217</v>
+        <v>44.01997029781342</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8328,19 +8328,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09443227201700211</v>
+        <v>0.09964079409837723</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2394568473100662</v>
+        <v>0.2189070731401443</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>30259988660224</v>
+        <v>27329971617792</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3072983436613385</v>
+        <v>0.3156593006682636</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>45.37818133831024</v>
+        <v>41.81855320930481</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9604,23 +9604,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1096585690975189</v>
+        <v>0.09231347590684891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2696184813976288</v>
+        <v>0.2374671846628189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15527812530176</v>
+        <v>35398663274496</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3311473525449342</v>
+        <v>0.3038313280536569</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>53.99260520935059</v>
+        <v>45.14406323432922</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9638,19 +9638,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09755531698465347</v>
+        <v>0.09644387662410736</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2316313236951828</v>
+        <v>0.2148437350988388</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>32893560684544</v>
+        <v>39446942580736</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3123384654259758</v>
+        <v>0.3105541444323475</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>46.05140388011932</v>
+        <v>40.77974557876587</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10918,19 +10918,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.216794729232788</v>
+        <v>1.257978200912476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6340391635894775</v>
+        <v>0.6192032098770142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6985753178596497</v>
+        <v>0.694525420665741</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.103084189548916</v>
+        <v>1.121596273581754</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.93025577068329</v>
+        <v>28.32211852073669</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.221400141716003</v>
+        <v>1.85210394859314</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5651019215583801</v>
+        <v>0.9689157009124756</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6789991855621338</v>
+        <v>0.891617476940155</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.105169734346722</v>
+        <v>1.360920257984699</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.32900178432465</v>
+        <v>42.43623912334442</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12224,23 +12224,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.564660429954529</v>
+        <v>1.579203009605408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9026544690132141</v>
+        <v>0.7704959511756897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6923065781593323</v>
+        <v>0.7772158980369568</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.250863873470862</v>
+        <v>1.256663443251775</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.60720992088318</v>
+        <v>34.13824737071991</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12258,19 +12258,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.250588417053223</v>
+        <v>1.365302801132202</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.585345447063446</v>
+        <v>0.575002908706665</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6962347030639648</v>
+        <v>0.7402076125144958</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.11829710589504</v>
+        <v>1.168461724290617</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.13829684257507</v>
+        <v>26.6103982925415</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13538,19 +13538,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.386791467666626</v>
+        <v>1.47395920753479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5885403752326965</v>
+        <v>0.6168984770774841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4390548765659332</v>
+        <v>0.4696155190467834</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.177621105307911</v>
+        <v>1.214067217057931</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.99672484397888</v>
+        <v>27.72246897220612</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13568,19 +13568,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.439130902290344</v>
+        <v>1.383457779884338</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6428345441818237</v>
+        <v>0.5944781899452209</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4703859984874725</v>
+        <v>0.4565215110778809</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.199637821298722</v>
+        <v>1.176204820549694</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.45133244991302</v>
+        <v>27.28168666362762</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14610,23 +14610,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07354571670293808</v>
+        <v>0.06614941358566284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2081695795059204</v>
+        <v>0.197718471288681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.011099338531494</v>
+        <v>0.9015219807624817</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2711931354273889</v>
+        <v>0.257195282977085</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.11953461170197</v>
+        <v>36.25275790691376</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15866,23 +15866,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07419988512992859</v>
+        <v>0.07081495225429535</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2075183838605881</v>
+        <v>0.2002091109752655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.11621105670929</v>
+        <v>1.121187448501587</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2723965585867938</v>
+        <v>0.2661107894360831</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.0938321352005</v>
+        <v>36.53059303760529</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15900,19 +15900,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07055186480283737</v>
+        <v>0.07386366277933121</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2042582780122757</v>
+        <v>0.2035558968782425</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.093276739120483</v>
+        <v>1.119745016098022</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2656160100649759</v>
+        <v>0.2717787018501104</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>38.21671605110168</v>
+        <v>37.00927495956421</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16942,23 +16942,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07427804917097092</v>
+        <v>0.06853941828012466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2161670178174973</v>
+        <v>0.2044480592012405</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9753105044364929</v>
+        <v>0.9823974370956421</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.27253999554372</v>
+        <v>0.2618003404889395</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.00189292430878</v>
+        <v>36.82906031608582</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17964,23 +17964,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09665759652853012</v>
+        <v>0.09928829967975616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2387843579053879</v>
+        <v>0.240272730588913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.235282063484192</v>
+        <v>1.231475234031677</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3108980484476063</v>
+        <v>0.3151004596628766</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>39.91017937660217</v>
+        <v>42.41676032543182</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18990,19 +18990,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4783323407173157</v>
+        <v>0.5347180366516113</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4068170189857483</v>
+        <v>0.4168554246425629</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3820200860500336</v>
+        <v>0.4030884206295013</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6916157464353423</v>
+        <v>0.7312441703368385</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.15518248081207</v>
+        <v>19.91846263408661</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20008,23 +20008,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5115433931350708</v>
+        <v>0.4991244673728943</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4224349558353424</v>
+        <v>0.414295107126236</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4196337759494781</v>
+        <v>0.4151512980461121</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.715222617885558</v>
+        <v>0.7064874148722639</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.02757638692856</v>
+        <v>19.82075870037079</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21030,23 +21030,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.574310302734375</v>
+        <v>0.5692546963691711</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4608622491359711</v>
+        <v>0.4457274079322815</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9258589744567871</v>
+        <v>0.94107586145401</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7578326350417848</v>
+        <v>0.7544896926858385</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.97529226541519</v>
+        <v>22.01175093650818</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22286,23 +22286,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06949628889560699</v>
+        <v>0.06288854032754898</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1995665580034256</v>
+        <v>0.1957149058580399</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9759122729301453</v>
+        <v>0.9238249063491821</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2636214879246512</v>
+        <v>0.2507758766858347</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.6205096244812</v>
+        <v>35.79078912734985</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22316,23 +22316,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06770283728837967</v>
+        <v>0.05815092474222183</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2002360820770264</v>
+        <v>0.1822507977485657</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9508410692214966</v>
+        <v>0.8654876947402954</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2601976888605655</v>
+        <v>0.2411450284418525</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.33534908294678</v>
+        <v>34.09073352813721</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23600,19 +23600,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5193139910697937</v>
+        <v>0.5185887813568115</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4155208468437195</v>
+        <v>0.4263623356819153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3987409174442291</v>
+        <v>0.3999489545822144</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7206344365000841</v>
+        <v>0.7201310862313969</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.97389644384384</v>
+        <v>20.33166885375977</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23626,23 +23626,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5191246271133423</v>
+        <v>0.5059876441955566</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4159071445465088</v>
+        <v>0.4094756841659546</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3979970216751099</v>
+        <v>0.3925514221191406</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7205030375462287</v>
+        <v>0.7113280847791381</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.00511288642883</v>
+        <v>19.73504573106766</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24907,23 +24907,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5689309239387512</v>
+        <v>0.5654881596565247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4393409490585327</v>
+        <v>0.4199333190917969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9448009729385376</v>
+        <v>0.9416382312774658</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7542750983154297</v>
+        <v>0.7519894677829768</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.84954285621643</v>
+        <v>21.03263139724731</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24937,23 +24937,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.565754234790802</v>
+        <v>0.5736594200134277</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.440820187330246</v>
+        <v>0.4326176941394806</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9367023706436157</v>
+        <v>0.9453094005584717</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7521663611135518</v>
+        <v>0.7574030763163216</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.78204953670502</v>
+        <v>21.48102074861526</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26218,23 +26218,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4969132840633392</v>
+        <v>0.4896517395973206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4197581708431244</v>
+        <v>0.4079734683036804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4149420261383057</v>
+        <v>0.4103096425533295</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7049207643865651</v>
+        <v>0.6997511983536152</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.93891596794128</v>
+        <v>19.61380839347839</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26248,23 +26248,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5063468217849731</v>
+        <v>0.5018575191497803</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4206671714782715</v>
+        <v>0.4103808999061584</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4185782968997955</v>
+        <v>0.4135316014289856</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7115805097000432</v>
+        <v>0.7084190279416416</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.9081152677536</v>
+        <v>19.67534273862839</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27531,53 +27531,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0699436217546463</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2016388773918152</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.9721513986587524</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2644685647759414</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>36.34715378284454</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.06879379600286484</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2013533413410187</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.9533493518829346</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2622857144467934</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>36.30630970001221</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.07060892879962921</v>
+        <v>0.06874051690101624</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2039088755846024</v>
+        <v>0.2013887465000153</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9729548096656799</v>
+        <v>0.9567309021949768</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2657234065708725</v>
+        <v>0.2621841278586792</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.33480072021484</v>
+        <v>36.42645180225372</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28845,23 +28845,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07314440608024597</v>
+        <v>0.0713392049074173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2087579965591431</v>
+        <v>0.2047030478715897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.095942854881287</v>
+        <v>1.088682770729065</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2704522251345808</v>
+        <v>0.2670940001336932</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.8938764333725</v>
+        <v>37.40965723991394</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28875,23 +28875,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07241609692573547</v>
+        <v>0.07294970750808716</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2043947875499725</v>
+        <v>0.2083379775285721</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.100667238235474</v>
+        <v>1.099130868911743</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2691023911557374</v>
+        <v>0.270092035254813</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>38.0496084690094</v>
+        <v>37.89656162261963</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30161,19 +30161,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06821184605360031</v>
+        <v>0.06884109973907471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2008787840604782</v>
+        <v>0.2011929452419281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9660117030143738</v>
+        <v>0.9563449621200562</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2611739766010395</v>
+        <v>0.2623758749181691</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.37579083442688</v>
+        <v>36.41233146190643</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30187,23 +30187,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06858821213245392</v>
+        <v>0.06813737004995346</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2021617591381073</v>
+        <v>0.2007675617933273</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9545766711235046</v>
+        <v>0.9579490423202515</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2618935129636737</v>
+        <v>0.2610313583651463</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.3544225692749</v>
+        <v>36.33599579334259</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -6018,19 +6018,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06545052813593379</v>
+        <v>0.05540133255998761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1905876564920553</v>
+        <v>0.17422568498768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22713096211684.48</v>
+        <v>0.677054200619194</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.255833008300207</v>
+        <v>0.2353748766542164</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>38.85571302106202</v>
+        <v>32.92320591488131</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6048,19 +6048,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06956726466715417</v>
+        <v>0.05541083804420168</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1983521035780461</v>
+        <v>0.1742504050794583</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>21839515861412.53</v>
+        <v>0.6771100437396821</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2637560703892029</v>
+        <v>0.2353950680116338</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>40.12506210210658</v>
+        <v>32.92880779265906</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6076,23 +6076,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0728222199981849</v>
+        <v>0.07314578881914685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.210861965882656</v>
+        <v>0.2179269164209294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23651364216224.91</v>
+        <v>0.8327697452388253</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2698559245193348</v>
+        <v>0.2704547814684496</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>42.17511736794253</v>
+        <v>40.13562756238607</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6110,19 +6110,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.07269894742815536</v>
+        <v>0.07314578881914685</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2117145713743383</v>
+        <v>0.2179269164209294</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>23611666682595.25</v>
+        <v>0.8327697452388253</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2696274233607467</v>
+        <v>0.2704547814684496</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>42.36264798776286</v>
+        <v>40.13562756238607</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6200,23 +6200,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09426494176289731</v>
+        <v>0.05609340949422899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2179780624689336</v>
+        <v>0.1785709065553122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19158801854177.99</v>
+        <v>0.7546322559589923</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.3070259626854011</v>
+        <v>0.2368404726693244</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>42.12871823296484</v>
+        <v>34.04601922556511</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -6230,23 +6230,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 1}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.1014158159971592</v>
+        <v>0.05609340949422899</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.2259764372060387</v>
+        <v>0.1785709065553122</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>22290726740985.85</v>
+        <v>0.7546322559589923</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.3184584996465932</v>
+        <v>0.2368404726693244</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>49.04073235933141</v>
+        <v>34.04601922556511</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -6406,23 +6406,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07345303533535665</v>
+        <v>0.06161473769469406</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1978777037966231</v>
+        <v>0.1800893974500708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26125420727509.46</v>
+        <v>0.6637363662211565</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2710222045061191</v>
+        <v>0.2482231610762663</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>39.43422830548823</v>
+        <v>34.80899213655135</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6436,23 +6436,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07424439326584366</v>
+        <v>0.06035130583485976</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1986034752131619</v>
+        <v>0.180460556912527</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>26187701200094.56</v>
+        <v>0.6658666122125509</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2724782436559728</v>
+        <v>0.2456650277000366</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>39.55271363109691</v>
+        <v>34.93403579408815</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -6468,23 +6468,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1009327896989344</v>
+        <v>0.07403252001366513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2673540061176853</v>
+        <v>0.2213842671418681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25801918333160.55</v>
+        <v>0.8957700166712449</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3176992126193176</v>
+        <v>0.2720891765830922</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>51.32373102027091</v>
+        <v>40.5232496885035</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6498,23 +6498,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0810098849807534</v>
+        <v>0.06946164203050757</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2221517951552397</v>
+        <v>0.2124911088547509</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>26551214760954.24</v>
+        <v>0.8653640899703293</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2846223550263637</v>
+        <v>0.263555766452771</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.51220142266028</v>
+        <v>39.30962707049012</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6530,23 +6530,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08583635280491797</v>
+        <v>0.06716926751657953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2140763681319082</v>
+        <v>0.200139837118185</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27955381008123.01</v>
+        <v>0.7812189575530204</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2929784169609051</v>
+        <v>0.2591703445932415</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>41.95859705104092</v>
+        <v>37.4906464563839</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6560,23 +6560,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.07332523787313429</v>
+        <v>0.06906714274072408</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1918006171092787</v>
+        <v>0.2050930191288135</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>26124947026444.49</v>
+        <v>0.784105137332984</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2707863325080021</v>
+        <v>0.2628062836781573</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>38.31030390429731</v>
+        <v>38.32766074870435</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6592,23 +6592,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0755942534353919</v>
+        <v>0.06177996166760442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2066758657188399</v>
+        <v>0.1817585834787241</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23138138828432.38</v>
+        <v>0.6614223602307265</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2749440914720516</v>
+        <v>0.2485557516284916</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>41.13734654500892</v>
+        <v>35.58764143042829</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6622,23 +6622,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.08221542805911426</v>
+        <v>0.06125731039676548</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2052008842226875</v>
+        <v>0.18169994505605</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>29682577648017.12</v>
+        <v>0.6579381667207345</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2867323282420632</v>
+        <v>0.247502142206417</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>39.97765113394438</v>
+        <v>35.61399066118253</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -6654,23 +6654,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07949315451717812</v>
+        <v>0.07620663866374829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2055672357908249</v>
+        <v>0.197579248999475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25209790145820.55</v>
+        <v>0.7594968189084588</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2819453041232964</v>
+        <v>0.2760554992456196</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>40.19111217144734</v>
+        <v>36.33981151503249</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -6684,23 +6684,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.07277929730598443</v>
+        <v>0.07356630858518311</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1924862341404936</v>
+        <v>0.1921542953058967</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>26137126388699.64</v>
+        <v>0.7825439297327137</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2697763838922607</v>
+        <v>0.2712310981159482</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>38.47151004540896</v>
+        <v>34.75551502353505</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07964473641864069</v>
+        <v>0.06370721396292019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2218257045734341</v>
+        <v>0.1868194310372778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23096772933520.86</v>
+        <v>0.7585203908572911</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2822139904729046</v>
+        <v>0.2524028802587645</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>43.49048485615945</v>
+        <v>35.15965968919615</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -6746,23 +6746,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 160, 'max_samples': 0.7000000000000001, 'max_features': 0.8}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06812553555768111</v>
+        <v>0.06401550942602871</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1895065483459922</v>
+        <v>0.187280837871778</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>27164795074606.31</v>
+        <v>0.7598738101830713</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2610086886631959</v>
+        <v>0.2530128641512694</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>38.50579914294253</v>
+        <v>35.22709604376991</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6778,23 +6778,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0727529089787381</v>
+        <v>0.06322529170645341</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2017778293993596</v>
+        <v>0.1899289792726589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20693848134887.38</v>
+        <v>0.7726649612424478</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2697274716797273</v>
+        <v>0.2514463992712033</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>40.58165792361969</v>
+        <v>36.06243452790638</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -6808,23 +6808,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06804837889363231</v>
+        <v>0.0631086799604129</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1881456920276597</v>
+        <v>0.1897216070592007</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>23011255119350.65</v>
+        <v>0.7730537614331598</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2608608420089767</v>
+        <v>0.2512144103358979</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.26536230723452</v>
+        <v>35.95295551901891</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -6984,23 +6984,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1004030108451843</v>
+        <v>0.07714108377695084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.244123637676239</v>
+        <v>0.2133288830518723</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4209529323520</v>
+        <v>1.067280173301697</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3168643413910507</v>
+        <v>0.2777428374899177</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>47.71924018859863</v>
+        <v>36.85191869735718</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7014,23 +7014,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09097240120172501</v>
+        <v>0.07886230200529099</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.219003826379776</v>
+        <v>0.2254645526409149</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>21403432648704</v>
+        <v>0.9199092984199524</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.301616314548343</v>
+        <v>0.2808243258788152</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.89458096027374</v>
+        <v>39.8456871509552</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7050,19 +7050,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1198748350143433</v>
+        <v>0.02406993694603443</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2723120152950287</v>
+        <v>0.1287364065647125</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.663831114768982</v>
+        <v>0.195925384759903</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3462294542847897</v>
+        <v>0.1551448901705578</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>51.86809897422791</v>
+        <v>18.31360459327698</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7076,23 +7076,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1239473447203636</v>
+        <v>0.1028624549508095</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2909148931503296</v>
+        <v>0.2608908712863922</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.660503625869751</v>
+        <v>0.3596699833869934</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3520615638213914</v>
+        <v>0.320721771869029</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>53.39309573173523</v>
+        <v>45.81792950630188</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7112,19 +7112,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.05372154712677</v>
+        <v>7768.20947265625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8528375625610352</v>
+        <v>65.54943084716797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22308276142080</v>
+        <v>135.4474182128906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.026509399434204</v>
+        <v>88.13744648363856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>144.0203666687012</v>
+        <v>193.8397645950317</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7142,19 +7142,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>930.6365966796875</v>
+        <v>4817.6943359375</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>25.25306510925293</v>
+        <v>54.98570251464844</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>100925590994944</v>
+        <v>192.5074768066406</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>30.5063369921675</v>
+        <v>69.40961270557199</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>196.6506361961365</v>
+        <v>195.9647536277771</v>
       </c>
     </row>
   </sheetData>
@@ -7328,19 +7328,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07015418929958184</v>
+        <v>0.04718596703670767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.181581753277416</v>
+        <v>0.1650475128418073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26319832832334.85</v>
+        <v>0.606463056194009</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2648663612080285</v>
+        <v>0.2172233114486281</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.3653713243253</v>
+        <v>31.49661118846537</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06780050754142793</v>
+        <v>0.05031708798603849</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1895080653110323</v>
+        <v>0.1705517849249349</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>25669577711761.79</v>
+        <v>0.6031760786156246</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2603853059245623</v>
+        <v>0.2243147074670729</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>39.04063986124645</v>
+        <v>32.76462077956236</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7386,23 +7386,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07972341761298188</v>
+        <v>0.04167708727674439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1844883100714122</v>
+        <v>0.1439220541231894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22982753618035.32</v>
+        <v>0.6692516105774261</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2823533559442527</v>
+        <v>0.2041496688137024</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>37.95937056787971</v>
+        <v>28.75745059217053</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -7416,23 +7416,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.07351087875737024</v>
+        <v>0.07040995094006118</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.21310030367215</v>
+        <v>0.2158606404861853</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>26591634313970.32</v>
+        <v>0.818482065920956</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2711288969427092</v>
+        <v>0.2653487345740718</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>43.19584613271721</v>
+        <v>39.90688958051783</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -7510,23 +7510,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06885208744295765</v>
+        <v>0.05591792363343303</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1796671202807532</v>
+        <v>0.1738772668943882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20172212427457.25</v>
+        <v>0.6901410995312652</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2623968129435982</v>
+        <v>0.2364697097588463</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>37.53192846516524</v>
+        <v>33.879002740709</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -7540,23 +7540,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.0776653460598714</v>
+        <v>0.05500164811092321</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1931451696081847</v>
+        <v>0.1764877123023927</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>24594913347948.7</v>
+        <v>0.6502342899008742</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2786850302041202</v>
+        <v>0.2345243017491433</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>39.00488864806976</v>
+        <v>34.4135514395168</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -7716,23 +7716,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06670717570704936</v>
+        <v>0.05341150970471684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1690316745563631</v>
+        <v>0.1779255357796057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30395957765870.79</v>
+        <v>0.5413942655830978</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2582773232536092</v>
+        <v>0.2311093025057989</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.30139806131006</v>
+        <v>35.42722265863399</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7746,23 +7746,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07003408416039122</v>
+        <v>0.05250798417962042</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1854596012790559</v>
+        <v>0.1757761728906851</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>26159625551449.89</v>
+        <v>0.5973721975910431</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2646395362760282</v>
+        <v>0.2291462069937454</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.06027728612639</v>
+        <v>34.70724332537394</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0838606779330182</v>
+        <v>0.08221887396004543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2189918328356079</v>
+        <v>0.2244872302811308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23091663332711.48</v>
+        <v>0.9847238085307184</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2895870817785527</v>
+        <v>0.286738337095069</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.97196605798394</v>
+        <v>39.82148411107645</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7812,19 +7812,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09281459612038044</v>
+        <v>0.09403938746753815</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2506787528968121</v>
+        <v>0.2417842099929137</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>26531203919401.2</v>
+        <v>1.038976581028362</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3046548803488637</v>
+        <v>0.3066584214847819</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>48.51225951551687</v>
+        <v>42.89210172263921</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7840,23 +7840,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 10, 'max_features': None, 'max_depth': None, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07477724835640788</v>
+        <v>0.07468792964800559</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.214254574341307</v>
+        <v>0.1905856732778818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27121833713819.04</v>
+        <v>0.5543587131975191</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2734542893362762</v>
+        <v>0.2732909249280071</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>43.19743350211508</v>
+        <v>38.37371491701622</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7870,23 +7870,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': None, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.07477724835640788</v>
+        <v>0.06377905043942751</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.214254574341307</v>
+        <v>0.1964967437237103</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>27121833713819.04</v>
+        <v>0.6443259168767715</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2734542893362762</v>
+        <v>0.2525451453491583</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>43.19743350211508</v>
+        <v>38.72172584240508</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7902,23 +7902,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06930460607610166</v>
+        <v>0.060743663006616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1758660258014443</v>
+        <v>0.1882711631319455</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31637800889409.07</v>
+        <v>0.5339660163922193</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2632576799945286</v>
+        <v>0.2464622953042027</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>36.42935177502051</v>
+        <v>37.43949393542995</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7932,23 +7932,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.06913314192248912</v>
+        <v>0.05537401807618175</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1799436034088482</v>
+        <v>0.176646845908227</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>26382348306259.09</v>
+        <v>0.5700167946309314</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2629318199124806</v>
+        <v>0.235316846137674</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>37.06520737444362</v>
+        <v>34.98477475238793</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -7968,19 +7968,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07407677929687843</v>
+        <v>0.07017749958507377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.175606655115578</v>
+        <v>0.1898983986629135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32876146068332.9</v>
+        <v>0.5442366466259759</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2721704967421679</v>
+        <v>0.2649103614150903</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>35.62453167939038</v>
+        <v>37.86447863728492</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -7994,23 +7994,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.08042457614806242</v>
+        <v>0.0747172016821344</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.194997747776653</v>
+        <v>0.1976629058297502</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>28838150216557.09</v>
+        <v>0.4274633306831886</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2835922709596692</v>
+        <v>0.2733444743947359</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>38.66029949412809</v>
+        <v>39.32375187186052</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -8026,23 +8026,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 60, 'max_samples': 0.6, 'max_features': 0.5}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07259638793625596</v>
+        <v>0.05346296392334875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1972931390261007</v>
+        <v>0.1831583639886513</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29408151361626.32</v>
+        <v>0.6283120918574056</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2694371688098284</v>
+        <v>0.2312205958026853</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>39.9855480333438</v>
+        <v>35.10049779422869</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.0743590727881757</v>
+        <v>0.05768834606870381</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2034036162454231</v>
+        <v>0.1778287649538149</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>29084681167600.66</v>
+        <v>0.6021652384166736</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2726886004001189</v>
+        <v>0.2401839837888942</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>40.99815190877788</v>
+        <v>35.21095117725888</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8088,23 +8088,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.07120919280325738</v>
+        <v>0.05794110128859001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1726287069336832</v>
+        <v>0.1873357817831272</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30698365929901.7</v>
+        <v>0.6526571915788283</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2668505064699285</v>
+        <v>0.2407095787221398</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>35.77765082114003</v>
+        <v>36.02531355984259</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -8118,23 +8118,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.07025206675086186</v>
+        <v>0.05347407896268517</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1892368480001232</v>
+        <v>0.1796046860825072</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>26237224502303.32</v>
+        <v>0.6437258001953708</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2650510644212957</v>
+        <v>0.2312446301272424</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.82397565368066</v>
+        <v>34.82871117984186</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09623307734727859</v>
+        <v>0.06354805082082748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2296756207942963</v>
+        <v>0.1988477408885956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22036915159040</v>
+        <v>0.7776010632514954</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3102145666265184</v>
+        <v>0.2520873872704215</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44.01997029781342</v>
+        <v>38.65861892700195</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8324,23 +8324,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09964079409837723</v>
+        <v>0.06554282456636429</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2189070731401443</v>
+        <v>0.1721887588500977</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>27329971617792</v>
+        <v>0.9471513628959656</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3156593006682636</v>
+        <v>0.2560133288841897</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>41.81855320930481</v>
+        <v>32.47268497943878</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8360,19 +8360,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07692508399486542</v>
+        <v>0.04016318544745445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1810757368803024</v>
+        <v>0.1560453325510025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.567182183265686</v>
+        <v>0.2947837114334106</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2773537163891363</v>
+        <v>0.2004075483794322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.91921818256378</v>
+        <v>25.48864185810089</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8386,23 +8386,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07361552864313126</v>
+        <v>0.02512099407613277</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.202547624707222</v>
+        <v>0.1305743008852005</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.359986782073975</v>
+        <v>0.226735532283783</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2713218174845717</v>
+        <v>0.1584960380455385</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.49351811408997</v>
+        <v>20.96762508153915</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8422,19 +8422,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1408251971006393</v>
+        <v>0.2182443141937256</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2952028810977936</v>
+        <v>0.3375747799873352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4642166013952</v>
+        <v>1.126144409179688</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3752668345332949</v>
+        <v>0.46716625969105</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>58.50259065628052</v>
+        <v>60.41281819343567</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8452,19 +8452,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>33369.30078125</v>
+        <v>94.93916320800781</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>141.4736938476562</v>
+        <v>7.453958034515381</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>9560589684703232</v>
+        <v>15.14967823028564</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>182.672660190982</v>
+        <v>9.743672983429185</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>195.2530860900879</v>
+        <v>161.9965314865112</v>
       </c>
     </row>
   </sheetData>
@@ -8638,19 +8638,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06414412384205331</v>
+        <v>0.06188593699512614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1672973470496164</v>
+        <v>0.1908652887174098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33659196585951.73</v>
+        <v>0.8352491335447565</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2532669023817627</v>
+        <v>0.2487688424926364</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>35.22259780438907</v>
+        <v>36.73161688317934</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8668,19 +8668,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05760191473531655</v>
+        <v>0.05622033267316934</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1595052921716793</v>
+        <v>0.1818889968967107</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>33555470385099.74</v>
+        <v>0.7978983847474287</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2400039889987593</v>
+        <v>0.2371082720471163</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.49579361054067</v>
+        <v>35.11297904602234</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8696,23 +8696,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06754809181613476</v>
+        <v>0.07560228686258083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1672934754972057</v>
+        <v>0.2245433271708811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32994148032244.76</v>
+        <v>0.9407526015293615</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2599001573992112</v>
+        <v>0.2749587002852989</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>35.01148844767343</v>
+        <v>41.70282120690212</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8726,23 +8726,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.080206649415261</v>
+        <v>0.07560311783327162</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2149712934807036</v>
+        <v>0.2245453391790143</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>32802571269156.46</v>
+        <v>0.9407551853493852</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2832077848775718</v>
+        <v>0.2749602113638837</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>43.32231716708417</v>
+        <v>41.70316461336624</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8820,23 +8820,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0716899140417062</v>
+        <v>0.05317361442320918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1881241203866237</v>
+        <v>0.1732680009725741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35635679822092.27</v>
+        <v>0.8352492629477474</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2677497227668149</v>
+        <v>0.2305940468078246</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>38.5750476752076</v>
+        <v>34.1454504197077</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -8850,23 +8850,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06936377830713182</v>
+        <v>0.05519291674274029</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1831703682961801</v>
+        <v>0.1742194095144599</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>36762210479294.41</v>
+        <v>0.8345476729246332</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2633700406407908</v>
+        <v>0.2349317278333012</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>37.2670427445939</v>
+        <v>34.20700593426566</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -9026,23 +9026,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06484319700538832</v>
+        <v>0.05861457925587177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.171472286220661</v>
+        <v>0.1808154607379045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34462344793215</v>
+        <v>0.8427204418010146</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2546432740234627</v>
+        <v>0.2421044800408943</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.03020666348621</v>
+        <v>35.45725175946296</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9056,23 +9056,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06470628126435153</v>
+        <v>0.05743135680135165</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1731819312934718</v>
+        <v>0.186427034614748</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>31416290059163.58</v>
+        <v>0.8355294149786333</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2543742936390223</v>
+        <v>0.239648402459419</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.08967462446486</v>
+        <v>36.15227344912629</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9092,19 +9092,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09093977570556827</v>
+        <v>0.07728765103579635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2235345932477241</v>
+        <v>0.2212190413596069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34513561427153.67</v>
+        <v>1.05055302073287</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3015622252629933</v>
+        <v>0.2780065665335917</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.88485954912423</v>
+        <v>40.23762177909932</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9122,19 +9122,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09245578540944015</v>
+        <v>0.08569042695300369</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2462259005424493</v>
+        <v>0.2383199445402127</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>34494529306493.66</v>
+        <v>1.075801523181555</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3040654294875367</v>
+        <v>0.2927292724566569</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>47.25144163164245</v>
+        <v>42.73713969936437</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9150,23 +9150,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07542172963857316</v>
+        <v>0.06984014665033202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1962881707777668</v>
+        <v>0.1998420249534773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33121091268472.98</v>
+        <v>0.9215765862197104</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2746301688427059</v>
+        <v>0.2642728640067535</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>40.20922683970177</v>
+        <v>38.01916951075261</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9180,23 +9180,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': None, 'max_features': None, 'max_depth': 10, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.07529871361842061</v>
+        <v>0.1043397088636572</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1843163171910726</v>
+        <v>0.2482707005919877</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>28954414964620.71</v>
+        <v>1.099761638753797</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2744061107526956</v>
+        <v>0.3230165767629538</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.14437558839728</v>
+        <v>46.77892806976629</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9212,23 +9212,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06778334793205182</v>
+        <v>0.06347255110601135</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1801263428380767</v>
+        <v>0.1923319518044397</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34581817108227.41</v>
+        <v>0.8979561931910788</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2603523534213812</v>
+        <v>0.2519375936735352</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>37.67665309155029</v>
+        <v>37.17482670539567</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9242,23 +9242,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.07212732329512787</v>
+        <v>0.0569992937641129</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1830968853701971</v>
+        <v>0.187547061815671</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>31656155464531.97</v>
+        <v>0.8080193335133876</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2685653054568439</v>
+        <v>0.2387452486733776</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>37.17826800887078</v>
+        <v>36.61394558578939</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -9274,23 +9274,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0743909433749263</v>
+        <v>0.0566284357095393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1877163598880762</v>
+        <v>0.1824114089031229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34278553578169.35</v>
+        <v>0.8870516996753242</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2727470318352269</v>
+        <v>0.2379672996643432</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>38.29633782217899</v>
+        <v>35.23991913098585</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -9304,23 +9304,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.08635011567127358</v>
+        <v>0.05439135839448239</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2010381045947555</v>
+        <v>0.1820715977745197</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>36949580414963.34</v>
+        <v>0.8726103552827251</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2938539019160263</v>
+        <v>0.2332195497690586</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>40.81487542042412</v>
+        <v>34.97881547582496</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -9336,53 +9336,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.06534424354876819</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1962445290362694</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.8549673368939497</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2556252013178048</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>38.3864886197813</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>0.07244897275824909</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.202640931269704</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>33396290135653.2</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0.2691634684689754</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>40.96469045719468</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>0.06954031675041947</v>
+        <v>0.06001889059661576</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1980369562621308</v>
+        <v>0.1900979989978138</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>30635483524663.11</v>
+        <v>0.9083800368889273</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2637049805187977</v>
+        <v>0.2449875315125563</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>40.42323327481392</v>
+        <v>36.15829580618464</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9398,23 +9398,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06736465351013732</v>
+        <v>0.06060240924523389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.178699443673146</v>
+        <v>0.1948226978791218</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35622809327734.35</v>
+        <v>0.8692538009331482</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2595470159915874</v>
+        <v>0.2461755658980677</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>37.25115073966303</v>
+        <v>37.23313882694089</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -9432,19 +9432,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06703285649344672</v>
+        <v>0.05865646303212167</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1822700739706894</v>
+        <v>0.1884963888911449</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>27120563712247.81</v>
+        <v>0.8469054177433104</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2589070421858909</v>
+        <v>0.2421909639770272</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>37.76919725494159</v>
+        <v>36.31104628906577</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -9604,23 +9604,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09231347590684891</v>
+        <v>0.1190796419978142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2374671846628189</v>
+        <v>0.2527725696563721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35398663274496</v>
+        <v>1.330386161804199</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3038313280536569</v>
+        <v>0.3450791822144799</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>45.14406323432922</v>
+        <v>48.25925529003143</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9638,19 +9638,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09644387662410736</v>
+        <v>0.09787633270025253</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2148437350988388</v>
+        <v>0.2147251665592194</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>39446942580736</v>
+        <v>1.205124497413635</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3105541444323475</v>
+        <v>0.3128519341481726</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>40.77974557876587</v>
+        <v>40.15969038009644</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9666,53 +9666,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06066485494375229</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1879177093505859</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3727899193763733</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2463023648764914</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>33.62513780593872</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.1023370549082756</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2221110016107559</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>1.909245848655701</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.3199016331753803</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>37.26663887500763</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.07964418828487396</v>
+        <v>0.04501995444297791</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2019019722938538</v>
+        <v>0.1652060449123383</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.858013391494751</v>
+        <v>0.404718428850174</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2822130193397781</v>
+        <v>0.212179062216275</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>36.27249002456665</v>
+        <v>29.5061469078064</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9732,19 +9732,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1898917108774185</v>
+        <v>314.5085144042969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3337467014789581</v>
+        <v>13.29082298278809</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15788335431680</v>
+        <v>38.87781143188477</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4357656605073632</v>
+        <v>17.73438790610764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>55.94718456268311</v>
+        <v>176.7104148864746</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9762,19 +9762,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>11.48282241821289</v>
+        <v>1180.070434570312</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.578397274017334</v>
+        <v>23.38445663452148</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>140157575495680</v>
+        <v>56.14764404296875</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>3.388631348821068</v>
+        <v>34.35215327414444</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>146.1112856864929</v>
+        <v>185.1203441619873</v>
       </c>
     </row>
   </sheetData>
@@ -9948,19 +9948,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.098436874510616</v>
+        <v>0.4686880028153617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.557145861516345</v>
+        <v>0.5310888083110989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6353304798650731</v>
+        <v>0.3617223465438398</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.048063392410314</v>
+        <v>0.6846079190422513</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>26.53585444599205</v>
+        <v>25.50958336546379</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9978,19 +9978,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.125277434647753</v>
+        <v>0.4699887357325755</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5498296147511138</v>
+        <v>0.5311419225248809</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6746953723708843</v>
+        <v>0.3620027280192116</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.060790947664879</v>
+        <v>0.6855572446795202</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>26.18211284935446</v>
+        <v>25.53083733060419</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10006,53 +10006,53 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4268315927910942</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3527137966409409</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.3534511466461708</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.653323497810307</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>17.76110873884543</v>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Support Vector Regressor</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
           <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>1.136742085215287</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.5620059749045244</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0.6497977041174769</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>1.066181075247206</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>26.58055432883756</v>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Support Vector Regressor</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
-        </is>
-      </c>
       <c r="L8" s="8" t="n">
-        <v>1.2463096636859</v>
+        <v>0.4812843155187007</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5387544433852969</v>
+        <v>0.4920094978538408</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6896227173419403</v>
+        <v>0.3890498911657297</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.116382400293869</v>
+        <v>0.6937465787437807</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>25.17262959778705</v>
+        <v>23.22180300620574</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10130,23 +10130,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.24941194617299</v>
+        <v>0.6587066847328065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5949688780928429</v>
+        <v>0.5652652458588839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6865289809224414</v>
+        <v>0.4298253674209597</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.117770972146347</v>
+        <v>0.811607469613733</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>27.42306090840401</v>
+        <v>27.17059563133993</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -10160,23 +10160,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.262475848562062</v>
+        <v>0.5574751553845302</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.570071752412724</v>
+        <v>0.5194700838464976</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6955514978105862</v>
+        <v>0.3937424958615457</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.123599505411987</v>
+        <v>0.7466425887829666</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>26.35610938391221</v>
+        <v>24.93231185215005</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -10340,19 +10340,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.185810224939225</v>
+        <v>0.4028875364955243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5745865216869517</v>
+        <v>0.4437677760932497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6590534667726471</v>
+        <v>0.3405310961008212</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.088949137902788</v>
+        <v>0.6347342250859995</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.9553046565375</v>
+        <v>21.75644426579973</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10366,23 +10366,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.185804936789356</v>
+        <v>0.4116462842002291</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5294807661051416</v>
+        <v>0.4451900375377463</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6743822448455887</v>
+        <v>0.3424679748631623</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.088946709802346</v>
+        <v>0.6415966678531217</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.27953665424511</v>
+        <v>21.82763391701346</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -10398,23 +10398,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.201165989458756</v>
+        <v>0.4454105471268928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5648862530171614</v>
+        <v>0.4311661298864493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6728957019615481</v>
+        <v>0.3728369612312007</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.095977184734589</v>
+        <v>0.6673908503470009</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.41501963978224</v>
+        <v>20.83683160037382</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10428,23 +10428,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.314400110849034</v>
+        <v>0.5506301508199619</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7622517723175484</v>
+        <v>0.4670005287545035</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6336942021973226</v>
+        <v>0.4188271427392318</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.146472900180826</v>
+        <v>0.74204457468535</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.15059655793323</v>
+        <v>21.81829055957599</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10460,23 +10460,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.160191866660339</v>
+        <v>0.4443941727249453</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5687450865451519</v>
+        <v>0.5157983086231248</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6568589609188306</v>
+        <v>0.3621520784982253</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.077122029604974</v>
+        <v>0.6666289618108002</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.90965856875241</v>
+        <v>24.58512746772602</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10490,23 +10490,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.189279788511255</v>
+        <v>0.4892505206540002</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5442805253410407</v>
+        <v>0.5540678627446188</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6742394406770743</v>
+        <v>0.3831762462658144</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.090541053106785</v>
+        <v>0.6994644527450985</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>25.61885977949693</v>
+        <v>26.10210397266027</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10526,19 +10526,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.248385915104143</v>
+        <v>0.4287305656829083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5973796673295727</v>
+        <v>0.4224941494575999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.674532723726131</v>
+        <v>0.3555191929321931</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.117311914867171</v>
+        <v>0.6547752024037778</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.56781422616071</v>
+        <v>20.89298049452535</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -10552,23 +10552,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.199118414104282</v>
+        <v>0.3934358868348907</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.554288617500265</v>
+        <v>0.3970610168903753</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6693876773250248</v>
+        <v>0.3341330156383217</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.095042654011378</v>
+        <v>0.6272446786022905</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>25.99300864494044</v>
+        <v>19.89208893999941</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -10584,23 +10584,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.348058050796822</v>
+        <v>0.4817219866618653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.618990128461494</v>
+        <v>0.4264503988389168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7036416331296977</v>
+        <v>0.3521797552405724</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.161059021237431</v>
+        <v>0.694061947279827</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.17852215126847</v>
+        <v>21.38363590531785</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -10614,23 +10614,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.278997290627153</v>
+        <v>0.5169692287893699</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5574140406621376</v>
+        <v>0.4220774471515022</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.6922079198949459</v>
+        <v>0.3474113485700246</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.130927623956172</v>
+        <v>0.7190057223620476</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>26.37912352565335</v>
+        <v>21.61290914861818</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -10650,19 +10650,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.193805181968051</v>
+        <v>0.6613152355620358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6002198916776814</v>
+        <v>0.6511337188528757</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6747354716421092</v>
+        <v>0.4504436248488568</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.092613921734503</v>
+        <v>0.8132129091216124</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.0120382333851</v>
+        <v>30.74714686498035</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 60, 'max_samples': 1.0, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.169788753805738</v>
+        <v>0.5521958594948978</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5332821852674403</v>
+        <v>0.5578934902791011</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6654141971515316</v>
+        <v>0.4088192805158894</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.081567729643289</v>
+        <v>0.7430988221595415</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>25.24374981003911</v>
+        <v>26.17304695695993</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -10708,23 +10708,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.146885519755625</v>
+        <v>0.4977730164781421</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5748560873925227</v>
+        <v>0.5313251010392868</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6589607413607587</v>
+        <v>0.3761209637505194</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.07092741105811</v>
+        <v>0.7055303086885368</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>27.17138860717277</v>
+        <v>25.52040153156917</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -10738,23 +10738,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.10297979388446</v>
+        <v>0.5690922560833909</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5297564596582962</v>
+        <v>0.5736478897194466</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6561040384650869</v>
+        <v>0.3996043859156056</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.05022844842656</v>
+        <v>0.7543820358965283</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>25.41633405083423</v>
+        <v>27.31704979514781</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -10918,19 +10918,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.257978200912476</v>
+        <v>0.5786476135253906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6192032098770142</v>
+        <v>0.4398904144763947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.694525420665741</v>
+        <v>0.4236628413200378</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.121596273581754</v>
+        <v>0.7606889071922835</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.32211852073669</v>
+        <v>20.44760286808014</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.85210394859314</v>
+        <v>0.6386363506317139</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.9689157009124756</v>
+        <v>0.535707414150238</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.891617476940155</v>
+        <v>0.4362605214118958</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.360920257984699</v>
+        <v>0.7991472646713582</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.43623912334442</v>
+        <v>24.52545911073685</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8536674976348877</v>
+        <v>0.6540418267250061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6362115740776062</v>
+        <v>0.5602036118507385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6532931327819824</v>
+        <v>0.1972034424543381</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9239412847334444</v>
+        <v>0.8087285247380644</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.9107471704483</v>
+        <v>24.77860599756241</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11010,19 +11010,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.7459242343902588</v>
+        <v>0.5308865904808044</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5409226417541504</v>
+        <v>0.5605013370513916</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6905539631843567</v>
+        <v>0.1971149295568466</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.8636690537412226</v>
+        <v>0.7286196473337817</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.89958107471466</v>
+        <v>23.10225814580917</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11042,19 +11042,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>34184.5078125</v>
+        <v>1.094843626022339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>147.6650543212891</v>
+        <v>0.8125485777854919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73.26821136474609</v>
+        <v>0.5783775448799133</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>184.8905292666447</v>
+        <v>1.046347755778326</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>191.5289998054504</v>
+        <v>37.34575510025024</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11072,19 +11072,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.773597240447998</v>
+        <v>4802.42626953125</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.050011873245239</v>
+        <v>57.43017578125</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8428635597229004</v>
+        <v>31.73569869995117</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.331764709116441</v>
+        <v>69.29954018268268</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>51.21347904205322</v>
+        <v>177.1869778633118</v>
       </c>
     </row>
   </sheetData>
@@ -11258,19 +11258,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.20359102657624</v>
+        <v>0.4760802355764645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5344351623254681</v>
+        <v>0.5458577825689997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6880523060041573</v>
+        <v>0.3658103387219666</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.097082962485627</v>
+        <v>0.6899856778053183</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.63169835588269</v>
+        <v>26.12459473774493</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11288,19 +11288,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.209210135150456</v>
+        <v>0.4780293731745056</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5311065206368152</v>
+        <v>0.5463845214038492</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6893479410602786</v>
+        <v>0.3667034169728512</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.099640911911909</v>
+        <v>0.6913966829357121</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.4678682149658</v>
+        <v>26.16796897184868</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11320,19 +11320,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.332041854911197</v>
+        <v>0.391602258880614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5405457230421529</v>
+        <v>0.3412911034475977</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7193310807592802</v>
+        <v>0.36052066697685</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.154141176334679</v>
+        <v>0.6257813187373157</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>25.36655103984503</v>
+        <v>17.34878988071531</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11346,23 +11346,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.227932661083095</v>
+        <v>0.3923136469311813</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5831937626455905</v>
+        <v>0.339841645988355</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6790198745064754</v>
+        <v>0.3606744047158383</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.108121230318729</v>
+        <v>0.6263494607095796</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>27.57620981160984</v>
+        <v>17.2851763566734</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -11444,19 +11444,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.222150887079501</v>
+        <v>0.5276492641354974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5887125305118565</v>
+        <v>0.5156826520791467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6869067323773722</v>
+        <v>0.3708206461402216</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.105509333782172</v>
+        <v>0.7263947027171229</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>27.80608205732789</v>
+        <v>25.05860143214915</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -11474,19 +11474,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.244898118967</v>
+        <v>0.6486797030068111</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.6007926763862055</v>
+        <v>0.5640556711122953</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6891984091682298</v>
+        <v>0.4292045646580825</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.115750025304503</v>
+        <v>0.8054065451725676</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>28.180633177331</v>
+        <v>26.93699708524021</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -11646,53 +11646,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5000710437059809</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5623645457353899</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3538204065761771</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.7071570148884764</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>27.36872849920778</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>1.255079755653142</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.5392577953380382</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.6902513892861414</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1.120303421244951</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>25.79914246151611</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>1.267167893176371</v>
+        <v>0.5244635629665488</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5409642524755537</v>
+        <v>0.5584324005249215</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6906794447037818</v>
+        <v>0.3613389811043121</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.125685521438546</v>
+        <v>0.7241985659793513</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.84473009121861</v>
+        <v>27.21171238702769</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11712,19 +11712,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.413331240239467</v>
+        <v>0.6075090262792125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6144594456882886</v>
+        <v>0.4665128127460764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7589700396554107</v>
+        <v>0.4486420293479296</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.188836086363241</v>
+        <v>0.7794286537453011</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.01568592312561</v>
+        <v>21.78776513583188</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11742,19 +11742,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.272440456586137</v>
+        <v>0.491566162033231</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5609601333482047</v>
+        <v>0.4117205643605687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6908870110133889</v>
+        <v>0.4113657766215769</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.128025024804919</v>
+        <v>0.7011177946916132</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.42707114648095</v>
+        <v>19.76240845369776</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11770,23 +11770,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.237912309454418</v>
+        <v>0.485155643786879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5598968661960495</v>
+        <v>0.5474626061322351</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6749072979505983</v>
+        <v>0.4010888947078216</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.112615076949085</v>
+        <v>0.6965311506220515</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.56753199079002</v>
+        <v>25.79801618631348</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11800,23 +11800,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.216485607541848</v>
+        <v>0.4833044372251568</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.567633534402805</v>
+        <v>0.5502771582441262</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6695525347731227</v>
+        <v>0.3922406397117026</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.102944063650486</v>
+        <v>0.6952010049080458</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>26.97163534289349</v>
+        <v>26.073043100278</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11832,23 +11832,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.317749003038613</v>
+        <v>0.5092588778711945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5676775609723244</v>
+        <v>0.5620980897703285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7085202300688941</v>
+        <v>0.367824242446843</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.147932490627656</v>
+        <v>0.7136237649288275</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.66831219227378</v>
+        <v>27.18319662197561</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -11862,23 +11862,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.315189912534103</v>
+        <v>0.4992405790081384</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5564928395068623</v>
+        <v>0.5536628085321151</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7080377100406787</v>
+        <v>0.3729014394259219</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.146817296928375</v>
+        <v>0.7065695853970353</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>26.20201523950633</v>
+        <v>26.67277939192952</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -11894,23 +11894,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.404624656104869</v>
+        <v>0.3948627940100858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5693328602792328</v>
+        <v>0.4335338856337703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7086292020527198</v>
+        <v>0.3547446922714449</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.185168619271059</v>
+        <v>0.6283810897935153</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.87524068303757</v>
+        <v>21.22707332467472</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -11924,23 +11924,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.518611468309265</v>
+        <v>0.3878885676530809</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5976875522889599</v>
+        <v>0.4194308400443615</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.7163102895508292</v>
+        <v>0.3514633721817171</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.232319547970113</v>
+        <v>0.6228070067469383</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>28.80476727164903</v>
+        <v>20.66901306986637</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -11956,23 +11956,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.227347056409106</v>
+        <v>0.5436422982837732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5443250619872687</v>
+        <v>0.6038768566545988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6844164385236624</v>
+        <v>0.3959050306669383</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.107856965681538</v>
+        <v>0.7373210279679898</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.95060678840418</v>
+        <v>28.87830334095571</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -11986,23 +11986,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.210907255125964</v>
+        <v>0.4440999973648213</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5492124818882783</v>
+        <v>0.5259797169152437</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6677479587680897</v>
+        <v>0.3597363005323766</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.100412311420571</v>
+        <v>0.6664082812846951</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>26.21552514680807</v>
+        <v>25.39200270031329</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -12018,23 +12018,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.243780489477333</v>
+        <v>0.5744185521023132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5416556811958309</v>
+        <v>0.5883636320895402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6901141788499803</v>
+        <v>0.3912106459471394</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.115249070601421</v>
+        <v>0.757904052042416</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>25.71530821745153</v>
+        <v>28.23958523968886</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -12048,23 +12048,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.181480292856623</v>
+        <v>0.6208332533126268</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5443257917247829</v>
+        <v>0.581285787493003</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6668028027589219</v>
+        <v>0.3957979582507769</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.086959195580323</v>
+        <v>0.7879297261257674</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>26.13608635478378</v>
+        <v>28.03443265224194</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -12224,23 +12224,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.579203009605408</v>
+        <v>0.7523899078369141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7704959511756897</v>
+        <v>0.5683167576789856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7772158980369568</v>
+        <v>0.4739139080047607</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.256663443251775</v>
+        <v>0.8674041202559013</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>34.13824737071991</v>
+        <v>26.08101367950439</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12254,23 +12254,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.365302801132202</v>
+        <v>0.8207670450210571</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.575002908706665</v>
+        <v>0.6581712961196899</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7402076125144958</v>
+        <v>0.5018275380134583</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.168461724290617</v>
+        <v>0.9059619445766236</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.6103982925415</v>
+        <v>28.46852838993073</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12290,19 +12290,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7785611152648926</v>
+        <v>0.5644826889038086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5511632561683655</v>
+        <v>0.601784348487854</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7293534278869629</v>
+        <v>0.2320753633975983</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8823611025339301</v>
+        <v>0.7513206298936617</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.41111409664154</v>
+        <v>25.08170008659363</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12320,19 +12320,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9866180419921875</v>
+        <v>0.4057536721229553</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.677851676940918</v>
+        <v>0.4800070822238922</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7339392304420471</v>
+        <v>0.1783012896776199</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9932864853566605</v>
+        <v>0.6369879685857146</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>30.43887913227081</v>
+        <v>20.30518054962158</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12352,19 +12352,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.072931051254272</v>
+        <v>1.152507662773132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.021713614463806</v>
+        <v>0.8695577383041382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8760546445846558</v>
+        <v>0.4789360165596008</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.439767707393895</v>
+        <v>1.073549096582514</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>43.3786004781723</v>
+        <v>42.79928803443909</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12382,19 +12382,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>8386.9453125</v>
+        <v>0.6943415999412537</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>76.06000518798828</v>
+        <v>0.6184113621711731</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>36.34927368164062</v>
+        <v>0.4272386133670807</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>91.58026704754687</v>
+        <v>0.8332716243466194</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>183.8469862937927</v>
+        <v>28.78895699977875</v>
       </c>
     </row>
   </sheetData>
@@ -12568,19 +12568,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.196470489181928</v>
+        <v>0.5678614254934464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5223596990637607</v>
+        <v>0.6015725462413696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3860315185767196</v>
+        <v>0.8086248949457326</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.09383293476743</v>
+        <v>0.7535658070092129</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.30523312920651</v>
+        <v>29.66436132678508</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12598,19 +12598,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.191420846141481</v>
+        <v>0.567655917356084</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5194173689924857</v>
+        <v>0.5963212963107845</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3847688492434287</v>
+        <v>0.7984532909866233</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.091522260946373</v>
+        <v>0.753429437542816</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.17757732116928</v>
+        <v>29.57387846017524</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12630,19 +12630,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.385723351012699</v>
+        <v>0.5015030805411589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5145004294402595</v>
+        <v>0.3736260194700121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4279725054277421</v>
+        <v>0.9455852095625634</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.177167511874457</v>
+        <v>0.7081688220623377</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>23.9963918017951</v>
+        <v>19.36460225217504</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.290332149851164</v>
+        <v>0.4939247608315875</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5914260044973141</v>
+        <v>0.3785173413813942</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.4322060711257935</v>
+        <v>0.9426313643209306</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.135927880567761</v>
+        <v>0.7027978093531506</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>27.5038361952068</v>
+        <v>19.60079596653272</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -12750,23 +12750,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.287077912720873</v>
+        <v>0.605744768592606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5594310697746614</v>
+        <v>0.5835865166596804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4110030002961698</v>
+        <v>0.7826061484346872</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.134494562666949</v>
+        <v>0.7782960674400238</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.41230525616009</v>
+        <v>28.99477214824944</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -12780,23 +12780,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.309484026177069</v>
+        <v>0.6075445346978513</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5763133605996297</v>
+        <v>0.5710471103248849</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.4190228550522238</v>
+        <v>0.8083229507882018</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.144326887815308</v>
+        <v>0.7794514319044203</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>27.16473033172079</v>
+        <v>28.51522894488789</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -12960,19 +12960,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.229646295944709</v>
+        <v>0.5666939998718796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5308748604656887</v>
+        <v>0.6006321048700106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3892944835119656</v>
+        <v>0.7784490742909501</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.108894177072235</v>
+        <v>0.7527908075102137</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.44579835200979</v>
+        <v>30.02150949557182</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12990,19 +12990,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.247457565328757</v>
+        <v>0.53778806065647</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5417304914654953</v>
+        <v>0.5758433877350656</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3948377689938938</v>
+        <v>0.7520994486879836</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.116896398655111</v>
+        <v>0.7333403443534727</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.26270197056411</v>
+        <v>29.00676715986435</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -13022,19 +13022,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.397436098756595</v>
+        <v>0.6049077556732747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5545951548065468</v>
+        <v>0.4903047210288672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4443017989623018</v>
+        <v>0.9700852102157751</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.182132014098508</v>
+        <v>0.7777581601457324</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.52618429134941</v>
+        <v>23.68678593974247</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13052,19 +13052,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.330403969592085</v>
+        <v>0.5748229295534681</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5673989923639652</v>
+        <v>0.4789738525267687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4318449199348684</v>
+        <v>0.9682055790733214</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.153431389200105</v>
+        <v>0.7581707786201393</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.31488597611633</v>
+        <v>23.35452157922533</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13080,23 +13080,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.242951561364079</v>
+        <v>0.5003674018932148</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5753938277585388</v>
+        <v>0.5836625715864936</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4179137969078482</v>
+        <v>0.7428391541374271</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.114877375034617</v>
+        <v>0.7073665258500821</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.06409542506826</v>
+        <v>29.02831392983954</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13110,23 +13110,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.240003120397144</v>
+        <v>0.5329061803126314</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5702215987572491</v>
+        <v>0.5911447921682303</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4106607397678504</v>
+        <v>0.8045335862225796</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.113554273664802</v>
+        <v>0.7300042330785701</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>26.94182540507957</v>
+        <v>28.95714590423057</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13142,23 +13142,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.350592016493592</v>
+        <v>0.5204047716326651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5790610746227379</v>
+        <v>0.5718416271400554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4268661211114578</v>
+        <v>0.661809538807634</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.162149739273555</v>
+        <v>0.7213908591274671</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.87705990735109</v>
+        <v>29.32500916571128</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13172,23 +13172,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.291746456985277</v>
+        <v>0.6043296598137502</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5505318460096312</v>
+        <v>0.5945138308830389</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.40027486978808</v>
+        <v>0.6290794922493385</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.136550243933491</v>
+        <v>0.7773864288844707</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>26.28218543045156</v>
+        <v>30.82735486182728</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -13208,19 +13208,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.4337081119265</v>
+        <v>0.4622258875781329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5595520971575323</v>
+        <v>0.4328012936508731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4238445894225095</v>
+        <v>0.8675373565119798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.197375509991122</v>
+        <v>0.6798719641065757</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.1449790010171</v>
+        <v>22.02536449612838</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -13234,23 +13234,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.528031753662783</v>
+        <v>0.4839051209826837</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.6043093236794863</v>
+        <v>0.4619122999617387</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.4302056553555793</v>
+        <v>0.8215156215935117</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.236135815217237</v>
+        <v>0.695632892395611</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>29.25621698389056</v>
+        <v>23.31063742114565</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -13266,53 +13266,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.6125270365890816</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.62805178708502</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.7967622113959211</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7826410649774784</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>30.85967178030431</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>1.27485686343495</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.5588108209453059</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0.4121364383457617</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>1.129095595348308</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>26.26915371940764</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>1.261800660699161</v>
+        <v>0.5884106342754697</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5557901155557727</v>
+        <v>0.5825646250598461</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4096967855667208</v>
+        <v>0.9000508933516117</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.123299007699714</v>
+        <v>0.7670792881283327</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>26.18444217464522</v>
+        <v>28.35213485862419</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -13328,23 +13328,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.220343289064002</v>
+        <v>0.6566621799816231</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5284381257417275</v>
+        <v>0.5980278375245245</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3941667837283339</v>
+        <v>0.7761002792729139</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.104691490446089</v>
+        <v>0.8103469503747288</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>25.29038970327019</v>
+        <v>30.32082119158114</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -13362,19 +13362,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.22280861557431</v>
+        <v>0.6092642441594336</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5352496459732753</v>
+        <v>0.5994199832751982</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.3978634429303891</v>
+        <v>0.8639250125232107</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.105806771354883</v>
+        <v>0.7805538060629988</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>25.55757036910449</v>
+        <v>29.44522984259995</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -13534,53 +13534,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6814699769020081</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.696416437625885</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.8369155526161194</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8255119483702268</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>34.27836894989014</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1.47395920753479</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.6168984770774841</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.4696155190467834</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1.214067217057931</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>27.72246897220612</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>1.383457779884338</v>
+        <v>0.8910970687866211</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5944781899452209</v>
+        <v>0.6834045052528381</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4565215110778809</v>
+        <v>1.183080315589905</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.176204820549694</v>
+        <v>0.9439793794287146</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.28168666362762</v>
+        <v>30.80416619777679</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13596,53 +13596,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.9285387396812439</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.6917469501495361</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3375189304351807</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.9636071500778955</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.47896027565002</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.6205424070358276</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4632170796394348</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.3607049286365509</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.7877451409154027</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>22.18717932701111</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.7770612835884094</v>
+        <v>0.8454960584640503</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5563985109329224</v>
+        <v>0.7287530303001404</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4070595502853394</v>
+        <v>0.3118672072887421</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.881510796070252</v>
+        <v>0.9195085961882304</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.26505589485168</v>
+        <v>34.09489095211029</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13662,19 +13662,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.994880437850952</v>
+        <v>1.04377269744873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9206762909889221</v>
+        <v>0.7417365312576294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6071875095367432</v>
+        <v>1.032258749008179</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.41240236400643</v>
+        <v>1.021651945355526</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.83814716339111</v>
+        <v>32.32249021530151</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13692,19 +13692,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>4.088008403778076</v>
+        <v>1.199786305427551</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.43156361579895</v>
+        <v>0.8739467263221741</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.805101215839386</v>
+        <v>1.126205682754517</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.021882391183542</v>
+        <v>1.095347572886137</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>55.40127754211426</v>
+        <v>39.95619118213654</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/BA47 Overall Model Peformance Results.xlsx
@@ -6142,19 +6142,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07716723986928234</v>
+        <v>0.06846016518888713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2165729900443062</v>
+        <v>0.2040042520131022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24882564170115.57</v>
+        <v>0.8778007125793232</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2777899203881997</v>
+        <v>0.2616489350043052</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>42.62802226131522</v>
+        <v>37.39288585062241</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6168,23 +6168,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.08578202671272085</v>
+        <v>0.06846016518888713</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2057566101569738</v>
+        <v>0.2040042520131022</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>27455915830444</v>
+        <v>0.8778007125793232</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2928856888151431</v>
+        <v>0.2616489350043052</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>42.11827607878097</v>
+        <v>37.39288585062241</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6266,19 +6266,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4140192192586768</v>
+        <v>4.235497024026434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5545659316747414</v>
+        <v>1.623711225268144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2254964304277.815</v>
+        <v>3.759503045119761</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6434432525550927</v>
+        <v>2.058032318508733</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>140.3738024083453</v>
+        <v>152.4501889576875</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6296,19 +6296,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>3.152156591988299</v>
+        <v>8.016601680653256</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.448726481937102</v>
+        <v>2.381670534290435</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>7004130609042.723</v>
+        <v>6.816813118840214</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.775431381943076</v>
+        <v>2.831360393989655</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>153.335788956758</v>
+        <v>148.214367775161</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6840,53 +6840,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06420071498010609</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1953940500523066</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.7691201947311046</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2533786000831682</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>36.85306879828066</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.07409540307321574</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.2129086497203097</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>24086460560750.57</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.272204708029115</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>42.3722445527242</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.07409540307321574</v>
+        <v>0.07252390742793738</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2129086497203097</v>
+        <v>0.2129957573738425</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>24086460560750.57</v>
+        <v>0.8250386843705196</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.272204708029115</v>
+        <v>0.2693026316765905</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>42.3722445527242</v>
+        <v>39.47991728097531</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -7452,19 +7452,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07879605751940053</v>
+        <v>0.0660552759059692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2189599419751365</v>
+        <v>0.2024867093242934</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28322443267312.07</v>
+        <v>0.866064515205383</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2807063546117197</v>
+        <v>0.2570122096437623</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>43.50126924862249</v>
+        <v>37.24400817710244</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7482,19 +7482,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07879605751940053</v>
+        <v>0.0660552759059692</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2189599419751365</v>
+        <v>0.2024867093242934</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>28322443267312.07</v>
+        <v>0.866064515205383</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2807063546117197</v>
+        <v>0.2570122096437623</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>43.50126924862249</v>
+        <v>37.24400817710244</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7572,23 +7572,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3411962026089929</v>
+        <v>0.04849504596975942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5310578736088412</v>
+        <v>0.1671533855860585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1054377236794.466</v>
+        <v>0.5939783532859726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5841200241465728</v>
+        <v>0.2202159076219505</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>156.5951186291497</v>
+        <v>31.78674180170457</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7606,19 +7606,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>7013.267341206526</v>
+        <v>0.5039292554934788</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>67.75399826975809</v>
+        <v>0.6571119940664776</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1937109258166713</v>
+        <v>1.173068793340679</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>83.74525264877124</v>
+        <v>0.709879747206158</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>195.8770637628683</v>
+        <v>172.341607411911</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8150,53 +8150,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06115299605413291</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1896960127367487</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5661735211935559</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2472913181940137</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>37.5298355147959</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.07477725090274367</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.2142545768708755</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>27121834663166.05</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2734542939921472</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>43.19743357316221</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.07477725090274367</v>
+        <v>0.06259760038128245</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2142545768708755</v>
+        <v>0.200955820428668</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>27121834663166.05</v>
+        <v>0.74992351634049</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2734542939921472</v>
+        <v>0.2501951246153339</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>43.19743357316221</v>
+        <v>37.81938088761188</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8762,19 +8762,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07938172630773621</v>
+        <v>0.07120441888995224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2200433536742019</v>
+        <v>0.2105127922923293</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32446869199054.18</v>
+        <v>0.999971698500205</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2817476287526414</v>
+        <v>0.2668415613991798</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>43.52240136938175</v>
+        <v>38.88289760877276</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8792,19 +8792,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07938172630773621</v>
+        <v>0.07120441888995224</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2200433536742019</v>
+        <v>0.2105127922923293</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>32446869199054.18</v>
+        <v>0.999971698500205</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2817476287526414</v>
+        <v>0.2668415613991798</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>43.52240136938175</v>
+        <v>38.88289760877276</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8882,23 +8882,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06757047491477661</v>
+        <v>0.5895065064724445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2170280508780193</v>
+        <v>0.6693083640016196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25646273991093.16</v>
+        <v>1.490820417388024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2599432147888777</v>
+        <v>0.7677932706610839</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>46.58564388099222</v>
+        <v>148.9990985479492</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8912,23 +8912,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3955410513082855</v>
+        <v>0.6930342939108028</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5933958158674558</v>
+        <v>0.689039123246998</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2782579617772.03</v>
+        <v>1.412677335600217</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6289205445112168</v>
+        <v>0.8324868130551996</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>171.8373490941014</v>
+        <v>142.751409512802</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9464,19 +9464,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06700847461997182</v>
+        <v>0.07335261214704575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1816007275766801</v>
+        <v>0.2004498475202627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33477405456144.76</v>
+        <v>0.9126114474748507</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2588599517499218</v>
+        <v>0.2708368736842267</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>37.91527049423883</v>
+        <v>38.53767043845898</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9490,23 +9490,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06966635815260248</v>
+        <v>0.05834383648138735</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1850114939209527</v>
+        <v>0.1935211028885792</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>28474022559747.16</v>
+        <v>0.8449294031409276</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2639438541671362</v>
+        <v>0.2415446883733678</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>38.61262454044611</v>
+        <v>37.41791753340807</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10072,19 +10072,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.228120763622932</v>
+        <v>0.492090176020578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5669716033642083</v>
+        <v>0.4244617467419405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6815018072422356</v>
+        <v>0.3898592206251312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.108206101599758</v>
+        <v>0.7014913941172607</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.37356243113111</v>
+        <v>20.35614910834323</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10102,19 +10102,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.228120763622932</v>
+        <v>0.492090176020578</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5669716033642083</v>
+        <v>0.4244617467419405</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6815018072422356</v>
+        <v>0.3898592206251312</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.108206101599758</v>
+        <v>0.7014913941172607</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.37356243113111</v>
+        <v>20.35614910834323</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10192,53 +10192,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4877455254456218</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5605702745621263</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3664285368543606</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6983878044794467</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>26.79740384578453</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>434.4729475843548</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>17.19809007708274</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>11.16127773960219</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>20.84401467050805</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>156.724017230849</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>1.130958373452453</v>
+        <v>10.72301929140171</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.7583759511310987</v>
+        <v>2.751552167794135</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6725191188055123</v>
+        <v>1.103574921628245</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.063465266688317</v>
+        <v>3.274602157728739</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>36.91001868137196</v>
+        <v>124.1305096929665</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10770,53 +10770,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5626258872899078</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5761908872019635</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3733880667321559</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7500839201648758</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.30668657664861</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>1.165867822390562</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.5638625447787229</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.6600737395100089</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.079753593367747</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>26.52464007381049</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>1.21289987282094</v>
+        <v>0.3853057822701896</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5210476581375918</v>
+        <v>0.4504383127150601</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6878016595401057</v>
+        <v>0.3377079935427121</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.101317335204046</v>
+        <v>0.6207300397678444</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.97845061515306</v>
+        <v>22.01937019227042</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -11382,19 +11382,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.331088790301048</v>
+        <v>0.4759683105136405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.588193949485504</v>
+        <v>0.420920316242317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7140472464906449</v>
+        <v>0.4053957497150619</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.153728213359216</v>
+        <v>0.6899045662362588</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.31045507651879</v>
+        <v>20.176757704386</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11412,19 +11412,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.331088790301048</v>
+        <v>0.4759683105136405</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.588193949485504</v>
+        <v>0.420920316242317</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.7140472464906449</v>
+        <v>0.4053957497150619</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.153728213359216</v>
+        <v>0.6899045662362588</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.31045507651879</v>
+        <v>20.176757704386</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11506,19 +11506,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.172432785651797</v>
+        <v>0.5113025882932284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7502212051393314</v>
+        <v>0.5842201713827928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.692452145915698</v>
+        <v>0.3714369466323097</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.082789354238301</v>
+        <v>0.71505425548921</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.2733515781357</v>
+        <v>27.85425927516664</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11532,23 +11532,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>2667.889367859401</v>
+        <v>0.5121410308955776</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>41.12650969404935</v>
+        <v>0.5839178359765139</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>25.05399049665715</v>
+        <v>0.3720401710671379</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>51.65161534607994</v>
+        <v>0.7156402943487584</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>180.6401041067521</v>
+        <v>27.85701393055987</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12084,19 +12084,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.252675527726296</v>
+        <v>0.7243266640600201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5632561691334759</v>
+        <v>0.5875547253350609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6720756188462756</v>
+        <v>0.4101839757379378</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.119229881537433</v>
+        <v>0.8510738299701267</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.88572779151842</v>
+        <v>29.34096463357421</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12114,19 +12114,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.265787750204949</v>
+        <v>0.7393652820520547</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5738583582522595</v>
+        <v>0.6065438077608937</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6693325395349359</v>
+        <v>0.4165408940712649</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.125072331099183</v>
+        <v>0.8598635252480795</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.3220637490915</v>
+        <v>30.33370589833264</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12692,19 +12692,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.400311873364877</v>
+        <v>0.543132083300825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5964435072979076</v>
+        <v>0.4458566119134453</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4527371699390622</v>
+        <v>0.9188585036363139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.183347739831736</v>
+        <v>0.736974954323975</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.21779114827967</v>
+        <v>22.12785168999423</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12722,19 +12722,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.400311873364877</v>
+        <v>0.543132083300825</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5964435072979076</v>
+        <v>0.4458566119134453</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4527371699390622</v>
+        <v>0.9188585036363139</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.183347739831736</v>
+        <v>0.736974954323975</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.21779114827967</v>
+        <v>22.12785168999423</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12816,19 +12816,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.159602133886608</v>
+        <v>0.880042591341461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5731912043100847</v>
+        <v>0.8463626090387494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3908147847545239</v>
+        <v>0.7847088431897349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.076848240880119</v>
+        <v>0.9381058529512867</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.95007336144445</v>
+        <v>41.82150676113071</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12842,23 +12842,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.646991489582177</v>
+        <v>0.8515100993999268</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.385093964478077</v>
+        <v>0.827125824768552</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.006111258224128</v>
+        <v>0.77782689626593</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.57817600050543</v>
+        <v>0.9227730486961173</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>146.8963112398464</v>
+        <v>40.81749296588526</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13394,19 +13394,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.244523259519362</v>
+        <v>0.6086381814360009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5390050133947597</v>
+        <v>0.579015988280093</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3957942268453832</v>
+        <v>0.8551557905619422</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.115582027248271</v>
+        <v>0.7801526654674718</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.93987129249886</v>
+        <v>29.3991160837037</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13424,19 +13424,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.281108798084501</v>
+        <v>0.6449726440349148</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6021207037444172</v>
+        <v>0.5931366987374281</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4087544249974009</v>
+        <v>0.8434870949002792</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.131860767976566</v>
+        <v>0.8031018889499107</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.25446348299745</v>
+        <v>30.59019000157373</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
